--- a/Covid_19_Dataset_and_References/References/78.xlsx
+++ b/Covid_19_Dataset_and_References/References/78.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="167">
   <si>
     <t>Doi</t>
   </si>
@@ -678,6 +678,86 @@
   </si>
   <si>
     <t>[Gemin%Zhang%NULL%0,    Jie%Zhang%945128911@qq.com%0,    Bowen%Wang%NULL%0,    Xionglin%Zhu%NULL%0,    Qiang%Wang%NULL%0,    Shiming%Qiu%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Since December 2019, 2019 novel coronavirus pneumonia emerged in Wuhan city and rapidly spread throughout China and even the world.
+ We sought to analyse the clinical characteristics and laboratory findings of some cases with 2019 novel coronavirus pneumonia .
+Methods
+id="Par2"&gt;In this retrospective study, we extracted the data on 95 patients with laboratory-confirmed 2019 novel coronavirus pneumonia in Wuhan Xinzhou District People’s Hospital from January 16th to February 25th, 2020. Cases were confirmed by real-time RT-PCR and abnormal radiologic findings.
+ Outcomes were followed up until March 2th, 2020.
+Results
+id="Par3"&gt;Higher temperature, blood leukocyte count, neutrophil count, neutrophil percentage, C-reactive protein level, D-dimer level, alanine aminotransferase activity, aspartate aminotransferase activity, α - hydroxybutyrate dehydrogenase activity, lactate dehydrogenase activity and creatine kinase activity were related to severe 2019 novel coronavirus pneumonia and composite endpoint, and so were lower lymphocyte count, lymphocyte percentage and total protein level.
+ Age below 40 or above 60 years old, male, higher Creatinine level, and lower platelet count also seemed related to severe 2019 novel coronavirus pneumonia and composite endpoint, however the P values were greater than 0.05, which mean under the same condition studies of larger samples are needed in the future.
+Conclusion
+id="Par4"&gt;Multiple factors were related to severe 2019 novel coronavirus pneumonia and composite endpoint, and more related studies are needed in the future.
+</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,     Jie%Zhang%945128911@qq.com%2,     Bowen%Wang%NULL%2,     Xionglin%Zhu%NULL%2,     Qiang%Wang%NULL%2,     Shiming%Qiu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,     Jie%Zhang%945128911@qq.com%0,     Bowen%Wang%NULL%0,     Xionglin%Zhu%NULL%0,     Qiang%Wang%NULL%0,     Shiming%Qiu%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Since December 2019, 2019 novel coronavirus pneumonia emerged in Wuhan city and rapidly spread throughout China and even the world.
+ We sought to analyse the clinical characteristics and laboratory findings of some cases with 2019 novel coronavirus pneumonia .
+Methods
+In this retrospective study, we extracted the data on 95 patients with laboratory-confirmed 2019 novel coronavirus pneumonia in Wuhan Xinzhou District People’s Hospital from January 16th to February 25th, 2020. Cases were confirmed by real-time RT-PCR and abnormal radiologic findings.
+ Outcomes were followed up until March 2th, 2020.
+Results
+id="Par3"&gt;Higher temperature, blood leukocyte count, neutrophil count, neutrophil percentage, C-reactive protein level, D-dimer level, alanine aminotransferase activity, aspartate aminotransferase activity, α - hydroxybutyrate dehydrogenase activity, lactate dehydrogenase activity and creatine kinase activity were related to severe 2019 novel coronavirus pneumonia and composite endpoint, and so were lower lymphocyte count, lymphocyte percentage and total protein level.
+ Age below 40 or above 60 years old, male, higher Creatinine level, and lower platelet count also seemed related to severe 2019 novel coronavirus pneumonia and composite endpoint, however the P values were greater than 0.05, which mean under the same condition studies of larger samples are needed in the future.
+Conclusion
+id="Par4"&gt;Multiple factors were related to severe 2019 novel coronavirus pneumonia and composite endpoint, and more related studies are needed in the future.
+</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,      Jie%Zhang%945128911@qq.com%2,      Bowen%Wang%NULL%2,      Xionglin%Zhu%NULL%2,      Qiang%Wang%NULL%2,      Shiming%Qiu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,      Jie%Zhang%945128911@qq.com%0,      Bowen%Wang%NULL%0,      Xionglin%Zhu%NULL%0,      Qiang%Wang%NULL%0,      Shiming%Qiu%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Since December 2019, 2019 novel coronavirus pneumonia emerged in Wuhan city and rapidly spread throughout China and even the world.
+ We sought to analyse the clinical characteristics and laboratory findings of some cases with 2019 novel coronavirus pneumonia .
+Methods
+In this retrospective study, we extracted the data on 95 patients with laboratory-confirmed 2019 novel coronavirus pneumonia in Wuhan Xinzhou District People’s Hospital from January 16th to February 25th, 2020. Cases were confirmed by real-time RT-PCR and abnormal radiologic findings.
+ Outcomes were followed up until March 2th, 2020.
+Results
+Higher temperature, blood leukocyte count, neutrophil count, neutrophil percentage, C-reactive protein level, D-dimer level, alanine aminotransferase activity, aspartate aminotransferase activity, α - hydroxybutyrate dehydrogenase activity, lactate dehydrogenase activity and creatine kinase activity were related to severe 2019 novel coronavirus pneumonia and composite endpoint, and so were lower lymphocyte count, lymphocyte percentage and total protein level.
+ Age below 40 or above 60 years old, male, higher Creatinine level, and lower platelet count also seemed related to severe 2019 novel coronavirus pneumonia and composite endpoint, however the P values were greater than 0.05, which mean under the same condition studies of larger samples are needed in the future.
+Conclusion
+id="Par4"&gt;Multiple factors were related to severe 2019 novel coronavirus pneumonia and composite endpoint, and more related studies are needed in the future.
+</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,       Jie%Zhang%945128911@qq.com%2,       Bowen%Wang%NULL%2,       Xionglin%Zhu%NULL%2,       Qiang%Wang%NULL%2,       Shiming%Qiu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,       Jie%Zhang%945128911@qq.com%0,       Bowen%Wang%NULL%0,       Xionglin%Zhu%NULL%0,       Qiang%Wang%NULL%0,       Shiming%Qiu%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Since December 2019, 2019 novel coronavirus pneumonia emerged in Wuhan city and rapidly spread throughout China and even the world.
+ We sought to analyse the clinical characteristics and laboratory findings of some cases with 2019 novel coronavirus pneumonia .
+Methods
+In this retrospective study, we extracted the data on 95 patients with laboratory-confirmed 2019 novel coronavirus pneumonia in Wuhan Xinzhou District People’s Hospital from January 16th to February 25th, 2020. Cases were confirmed by real-time RT-PCR and abnormal radiologic findings.
+ Outcomes were followed up until March 2th, 2020.
+Results
+Higher temperature, blood leukocyte count, neutrophil count, neutrophil percentage, C-reactive protein level, D-dimer level, alanine aminotransferase activity, aspartate aminotransferase activity, α - hydroxybutyrate dehydrogenase activity, lactate dehydrogenase activity and creatine kinase activity were related to severe 2019 novel coronavirus pneumonia and composite endpoint, and so were lower lymphocyte count, lymphocyte percentage and total protein level.
+ Age below 40 or above 60 years old, male, higher Creatinine level, and lower platelet count also seemed related to severe 2019 novel coronavirus pneumonia and composite endpoint, however the P values were greater than 0.05, which mean under the same condition studies of larger samples are needed in the future.
+Conclusion
+Multiple factors were related to severe 2019 novel coronavirus pneumonia and composite endpoint, and more related studies are needed in the future.
+</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,        Jie%Zhang%945128911@qq.com%2,        Bowen%Wang%NULL%2,        Xionglin%Zhu%NULL%2,        Qiang%Wang%NULL%2,        Shiming%Qiu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,        Jie%Zhang%945128911@qq.com%0,        Bowen%Wang%NULL%0,        Xionglin%Zhu%NULL%0,        Qiang%Wang%NULL%0,        Shiming%Qiu%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1401,10 +1481,10 @@
         <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="E17" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="F17" t="s">
         <v>104</v>
@@ -1427,10 +1507,10 @@
         <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="E18" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>

--- a/Covid_19_Dataset_and_References/References/78.xlsx
+++ b/Covid_19_Dataset_and_References/References/78.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="155">
   <si>
     <t>Doi</t>
   </si>
@@ -678,86 +678,6 @@
   </si>
   <si>
     <t>[Gemin%Zhang%NULL%0,    Jie%Zhang%945128911@qq.com%0,    Bowen%Wang%NULL%0,    Xionglin%Zhu%NULL%0,    Qiang%Wang%NULL%0,    Shiming%Qiu%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Since December 2019, 2019 novel coronavirus pneumonia emerged in Wuhan city and rapidly spread throughout China and even the world.
- We sought to analyse the clinical characteristics and laboratory findings of some cases with 2019 novel coronavirus pneumonia .
-Methods
-id="Par2"&gt;In this retrospective study, we extracted the data on 95 patients with laboratory-confirmed 2019 novel coronavirus pneumonia in Wuhan Xinzhou District People’s Hospital from January 16th to February 25th, 2020. Cases were confirmed by real-time RT-PCR and abnormal radiologic findings.
- Outcomes were followed up until March 2th, 2020.
-Results
-id="Par3"&gt;Higher temperature, blood leukocyte count, neutrophil count, neutrophil percentage, C-reactive protein level, D-dimer level, alanine aminotransferase activity, aspartate aminotransferase activity, α - hydroxybutyrate dehydrogenase activity, lactate dehydrogenase activity and creatine kinase activity were related to severe 2019 novel coronavirus pneumonia and composite endpoint, and so were lower lymphocyte count, lymphocyte percentage and total protein level.
- Age below 40 or above 60 years old, male, higher Creatinine level, and lower platelet count also seemed related to severe 2019 novel coronavirus pneumonia and composite endpoint, however the P values were greater than 0.05, which mean under the same condition studies of larger samples are needed in the future.
-Conclusion
-id="Par4"&gt;Multiple factors were related to severe 2019 novel coronavirus pneumonia and composite endpoint, and more related studies are needed in the future.
-</t>
-  </si>
-  <si>
-    <t>[Gemin%Zhang%NULL%0,     Jie%Zhang%945128911@qq.com%2,     Bowen%Wang%NULL%2,     Xionglin%Zhu%NULL%2,     Qiang%Wang%NULL%2,     Shiming%Qiu%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Gemin%Zhang%NULL%0,     Jie%Zhang%945128911@qq.com%0,     Bowen%Wang%NULL%0,     Xionglin%Zhu%NULL%0,     Qiang%Wang%NULL%0,     Shiming%Qiu%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Since December 2019, 2019 novel coronavirus pneumonia emerged in Wuhan city and rapidly spread throughout China and even the world.
- We sought to analyse the clinical characteristics and laboratory findings of some cases with 2019 novel coronavirus pneumonia .
-Methods
-In this retrospective study, we extracted the data on 95 patients with laboratory-confirmed 2019 novel coronavirus pneumonia in Wuhan Xinzhou District People’s Hospital from January 16th to February 25th, 2020. Cases were confirmed by real-time RT-PCR and abnormal radiologic findings.
- Outcomes were followed up until March 2th, 2020.
-Results
-id="Par3"&gt;Higher temperature, blood leukocyte count, neutrophil count, neutrophil percentage, C-reactive protein level, D-dimer level, alanine aminotransferase activity, aspartate aminotransferase activity, α - hydroxybutyrate dehydrogenase activity, lactate dehydrogenase activity and creatine kinase activity were related to severe 2019 novel coronavirus pneumonia and composite endpoint, and so were lower lymphocyte count, lymphocyte percentage and total protein level.
- Age below 40 or above 60 years old, male, higher Creatinine level, and lower platelet count also seemed related to severe 2019 novel coronavirus pneumonia and composite endpoint, however the P values were greater than 0.05, which mean under the same condition studies of larger samples are needed in the future.
-Conclusion
-id="Par4"&gt;Multiple factors were related to severe 2019 novel coronavirus pneumonia and composite endpoint, and more related studies are needed in the future.
-</t>
-  </si>
-  <si>
-    <t>[Gemin%Zhang%NULL%0,      Jie%Zhang%945128911@qq.com%2,      Bowen%Wang%NULL%2,      Xionglin%Zhu%NULL%2,      Qiang%Wang%NULL%2,      Shiming%Qiu%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Gemin%Zhang%NULL%0,      Jie%Zhang%945128911@qq.com%0,      Bowen%Wang%NULL%0,      Xionglin%Zhu%NULL%0,      Qiang%Wang%NULL%0,      Shiming%Qiu%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Since December 2019, 2019 novel coronavirus pneumonia emerged in Wuhan city and rapidly spread throughout China and even the world.
- We sought to analyse the clinical characteristics and laboratory findings of some cases with 2019 novel coronavirus pneumonia .
-Methods
-In this retrospective study, we extracted the data on 95 patients with laboratory-confirmed 2019 novel coronavirus pneumonia in Wuhan Xinzhou District People’s Hospital from January 16th to February 25th, 2020. Cases were confirmed by real-time RT-PCR and abnormal radiologic findings.
- Outcomes were followed up until March 2th, 2020.
-Results
-Higher temperature, blood leukocyte count, neutrophil count, neutrophil percentage, C-reactive protein level, D-dimer level, alanine aminotransferase activity, aspartate aminotransferase activity, α - hydroxybutyrate dehydrogenase activity, lactate dehydrogenase activity and creatine kinase activity were related to severe 2019 novel coronavirus pneumonia and composite endpoint, and so were lower lymphocyte count, lymphocyte percentage and total protein level.
- Age below 40 or above 60 years old, male, higher Creatinine level, and lower platelet count also seemed related to severe 2019 novel coronavirus pneumonia and composite endpoint, however the P values were greater than 0.05, which mean under the same condition studies of larger samples are needed in the future.
-Conclusion
-id="Par4"&gt;Multiple factors were related to severe 2019 novel coronavirus pneumonia and composite endpoint, and more related studies are needed in the future.
-</t>
-  </si>
-  <si>
-    <t>[Gemin%Zhang%NULL%0,       Jie%Zhang%945128911@qq.com%2,       Bowen%Wang%NULL%2,       Xionglin%Zhu%NULL%2,       Qiang%Wang%NULL%2,       Shiming%Qiu%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Gemin%Zhang%NULL%0,       Jie%Zhang%945128911@qq.com%0,       Bowen%Wang%NULL%0,       Xionglin%Zhu%NULL%0,       Qiang%Wang%NULL%0,       Shiming%Qiu%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Since December 2019, 2019 novel coronavirus pneumonia emerged in Wuhan city and rapidly spread throughout China and even the world.
- We sought to analyse the clinical characteristics and laboratory findings of some cases with 2019 novel coronavirus pneumonia .
-Methods
-In this retrospective study, we extracted the data on 95 patients with laboratory-confirmed 2019 novel coronavirus pneumonia in Wuhan Xinzhou District People’s Hospital from January 16th to February 25th, 2020. Cases were confirmed by real-time RT-PCR and abnormal radiologic findings.
- Outcomes were followed up until March 2th, 2020.
-Results
-Higher temperature, blood leukocyte count, neutrophil count, neutrophil percentage, C-reactive protein level, D-dimer level, alanine aminotransferase activity, aspartate aminotransferase activity, α - hydroxybutyrate dehydrogenase activity, lactate dehydrogenase activity and creatine kinase activity were related to severe 2019 novel coronavirus pneumonia and composite endpoint, and so were lower lymphocyte count, lymphocyte percentage and total protein level.
- Age below 40 or above 60 years old, male, higher Creatinine level, and lower platelet count also seemed related to severe 2019 novel coronavirus pneumonia and composite endpoint, however the P values were greater than 0.05, which mean under the same condition studies of larger samples are needed in the future.
-Conclusion
-Multiple factors were related to severe 2019 novel coronavirus pneumonia and composite endpoint, and more related studies are needed in the future.
-</t>
-  </si>
-  <si>
-    <t>[Gemin%Zhang%NULL%0,        Jie%Zhang%945128911@qq.com%2,        Bowen%Wang%NULL%2,        Xionglin%Zhu%NULL%2,        Qiang%Wang%NULL%2,        Shiming%Qiu%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Gemin%Zhang%NULL%0,        Jie%Zhang%945128911@qq.com%0,        Bowen%Wang%NULL%0,        Xionglin%Zhu%NULL%0,        Qiang%Wang%NULL%0,        Shiming%Qiu%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1481,10 +1401,10 @@
         <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="E17" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="F17" t="s">
         <v>104</v>
@@ -1507,10 +1427,10 @@
         <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>

--- a/Covid_19_Dataset_and_References/References/78.xlsx
+++ b/Covid_19_Dataset_and_References/References/78.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="176">
   <si>
     <t>Doi</t>
   </si>
@@ -678,6 +678,69 @@
   </si>
   <si>
     <t>[Gemin%Zhang%NULL%0,    Jie%Zhang%945128911@qq.com%0,    Bowen%Wang%NULL%0,    Xionglin%Zhu%NULL%0,    Qiang%Wang%NULL%0,    Shiming%Qiu%NULL%0]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,     Di%Wu%NULL%2,     Huilong%Chen%NULL%2,     Weiming%Yan%NULL%2,     Danlei%Yang%NULL%2,     Guang%Chen%NULL%2,     Ke%Ma%NULL%2,     Dong%Xu%NULL%4,     Haijing%Yu%NULL%2,     Hongwu%Wang%NULL%2,     Tao%Wang%NULL%4,     Wei%Guo%NULL%2,     Jia%Chen%NULL%2,     Chen%Ding%NULL%2,     Xiaoping%Zhang%NULL%2,     Jiaquan%Huang%NULL%2,     Meifang%Han%NULL%2,     Shusheng%Li%NULL%0,     Xiaoping%Luo%NULL%2,     Jianping%Zhao%NULL%0,     Qin%Ning%NULL%2]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,     Wenhua%Liang%NULL%2,     Mei%Jiang%NULL%2,     Weijie%Guan%NULL%2,     Chen%Zhan%NULL%2,     Tao%Wang%NULL%0,     Chunli%Tang%NULL%2,     Ling%Sang%NULL%2,     Jiaxing%Liu%NULL%2,     Zhengyi%Ni%NULL%2,     Yu%Hu%NULL%2,     Lei%Liu%NULL%0,     Hong%Shan%NULL%0,     Chunliang%Lei%NULL%2,     Yixiang%Peng%NULL%2,     Li%Wei%NULL%2,     Yong%Liu%NULL%2,     Yahua%Hu%NULL%2,     Peng%Peng%NULL%2,     Jianming%Wang%NULL%0,     Jiyang%Liu%NULL%2,     Zhong%Chen%NULL%2,     Gang%Li%NULL%3,     Zhijian%Zheng%NULL%2,     Shaoqin%Qiu%NULL%2,     Jie%Luo%NULL%2,     Changjiang%Ye%NULL%2,     Shaoyong%Zhu%NULL%2,     Xiaoqing%Liu%NULL%2,     Linling%Cheng%NULL%2,     Feng%Ye%NULL%2,     Jinping%Zheng%NULL%2,     Nuofu%Zhang%NULL%2,     Yimin%Li%NULL%2,     Jianxing%He%NULL%2,     Shiyue%Li%lishiyue@188.com%2,     Nanshan%Zhong%NULL%2,     NULL%NULL%NULL%3]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[H.%Hou%NULL%1,     B.%Zhang%NULL%1,     H.%Huang%NULL%1,     Y.%Luo%NULL%1,     S.%Wu%NULL%1,     G.%Tang%NULL%1,     W.%Liu%NULL%1,     L.%Mao%NULL%2,     L.%Mao%NULL%0,     F.%Wang%fengwang@tjh.tjmu.edu.cn%1,     Z.%Sun%zysun@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang%Liu%NULL%1,     Lin%Li%NULL%1,     MengDa%Xu%NULL%1,     Juan%Wu%NULL%1,     Ding%Luo%NULL%1,     YuSi%Zhu%NULL%1,     BiXi%Li%NULL%1,     XiaoYang%Song%NULL%1,     Xiang%Zhou%zhouxiang188483@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Kai-Cai%Liu%NULL%1,     Ping%Xu%xuping1027@163.com%1,     Wei-Fu%Lv%weifulv@ustc.edu.cn%1,     Xiao-Hui%Qiu%NULL%1,     Jin-Long%Yao%NULL%1,     Jin-Feng%Gu%NULL%1,     Wei%Wei%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Fengjun%Liu%NULL%1,     Qi%Zhang%NULL%0,     Chao%Huang%NULL%1,     Chunzi%Shi%NULL%1,     Lin%Wang%NULL%2,     Nannan%Shi%NULL%0,     Cong%Fang%NULL%1,     Fei%Shan%NULL%0,     Xue%Mei%NULL%1,     Jing%Shi%NULL%1,     Fengxiang%Song%NULL%1,     Zhongcheng%Yang%NULL%1,     Zezhen%Ding%NULL%1,     Xiaoming%Su%NULL%1,     Hongzhou%Lu%NULL%0,     Tongyu%Zhu%NULL%0,     Zhiyong%Zhang%NULL%0,     Lei%Shi%NULL%1,     Yuxin%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Pan%NULL%1,     Mi%Mu%NULL%1,     Pengcheng%Yang%NULL%1,     Yu%Sun%NULL%1,     Runsheng%Wang%NULL%1,     Junhong%Yan%NULL%1,     Pibao%Li%NULL%1,     Baoguang%Hu%NULL%1,     Jing%Wang%NULL%0,     Chao%Hu%NULL%1,     Yuan%Jin%NULL%1,     Xun%Niu%NULL%1,     Rongyu%Ping%NULL%1,     Yingzhen%Du%NULL%1,     Tianzhi%Li%NULL%1,     Guogang%Xu%NULL%1,     Qinyong%Hu%NULL%1,     Lei%Tu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,     Ruoqi%Ning%NULL%1,     Yu%Tao%NULL%1,     Chong%Yu%NULL%1,     Xiaoyan%Deng%NULL%1,     Caili%Zhao%NULL%1,     Silu%Meng%NULL%1,     Fangxu%Tang%89650793@qq.com%1,     Dong%Xu%89650793@qq.com%0,     Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%0,     Nan%Hu%NULL%0,     Jing%Lou%NULL%0,     Kun%Chen%NULL%0,     Xuqin%Kang%NULL%0,     Zhenjun%Xiang%NULL%0,     Hui%Chen%NULL%0,     Dali%Wang%NULL%0,     Ning%Liu%NULL%0,     Dong%Liu%NULL%0,     Gang%Chen%NULL%0,     Yongliang%Zhang%NULL%0,     Dou%Li%NULL%0,     Jianren%Li%NULL%0,     Huixin%Lian%NULL%0,     Shengmei%Niu%NULL%0,     Luxi%Zhang%NULL%0,     Jinjun%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%0,     Owen Tak-Yin%Tsang%NULL%1,     Wai-Shing%Leung%NULL%1,     Anthony Raymond%Tam%NULL%1,     Tak-Chiu%Wu%NULL%1,     David Christopher%Lung%NULL%1,     Cyril Chik-Yan%Yip%NULL%0,     Jian-Piao%Cai%NULL%0,     Jacky Man-Chun%Chan%NULL%1,     Thomas Shiu-Hong%Chik%NULL%1,     Daphne Pui-Ling%Lau%NULL%1,     Chris Yau-Chung%Choi%NULL%1,     Lin-Lei%Chen%NULL%1,     Wan-Mui%Chan%NULL%0,     Kwok-Hung%Chan%NULL%0,     Jonathan Daniel%Ip%NULL%0,     Anthony Chin-Ki%Ng%NULL%1,     Rosana Wing-Shan%Poon%NULL%0,     Cui-Ting%Luo%NULL%1,     Vincent Chi-Chung%Cheng%NULL%0,     Jasper Fuk-Woo%Chan%NULL%1,     Ivan Fan-Ngai%Hung%NULL%1,     Zhiwei%Chen%NULL%1,     Honglin%Chen%NULL%0,     Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,     Qingjie%Yi%NULL%1,     Shibing%Fan%NULL%1,     Jinglong%Lv%13608388377@163.com%1,     Xianxiang%Zhang%NULL%2,     Xianxiang%Zhang%NULL%0,     Lian%Guo%NULL%1,     Chunhui%Lang%NULL%1,     Qing%Xiao%NULL%1,     Kaihu%Xiao%NULL%2,     Zhengjun%Yi%NULL%1,     Mao%Qiang%NULL%1,     Jianglin%Xiang%NULL%1,     Bangshuo%Zhang%NULL%1,     Yongping%Chen%NULL%1,     Cailiang%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,     Wenbo%He%NULL%1,     Xiaomei%Yu%NULL%1,     Dalong%Hu%NULL%1,     Mingwei%Bao%NULL%1,     Huafen%Liu%NULL%1,     Jiali%Zhou%NULL%1,     Hong%Jiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%0,     Jing-Hui%Dong%NULL%0,     Wei-Min%An%NULL%0,     Xiao-Yan%Lv%15001008285@139.com%0,     Xiao-Ping%Yin%yinxiaoping78@sina.com%0,     Jian-Zeng%Zhang%NULL%0,     Li%Dong%NULL%0,     Xi%Ma%NULL%0,     Hong-Jie%Zhang%NULL%0,     Bu-Lang%Gao%browngao@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fanfan%Zeng%NULL%1,     Chan%Dai%NULL%2,     Chan%Dai%NULL%0,     Pengcheng%Cai%NULL%1,     Jinbiao%Wang%NULL%1,     Lei%Xu%NULL%0,     Jianyu%Li%NULL%1,     Guoyun%Hu%NULL%1,     Zheng%Wang%zhengwang@hust.edu.cn%1,     Fang%Zheng%zhengfangtj@hust.edu.cn%1,     Lin%Wang%lin_wang@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,     Jie%Zhang%945128911@qq.com%2,     Bowen%Wang%NULL%2,     Xionglin%Zhu%NULL%2,     Qiang%Wang%NULL%2,     Shiming%Qiu%NULL%2]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,     Jie%Zhang%945128911@qq.com%0,     Bowen%Wang%NULL%0,     Xionglin%Zhu%NULL%0,     Qiang%Wang%NULL%0,     Shiming%Qiu%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -999,6 +1062,9 @@
       <c r="H1" t="s">
         <v>33</v>
       </c>
+      <c r="I1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1025,6 +1091,9 @@
       <c r="H2" t="s">
         <v>34</v>
       </c>
+      <c r="I2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -1040,7 +1109,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1050,6 +1119,9 @@
       </c>
       <c r="H3" t="s">
         <v>40</v>
+      </c>
+      <c r="I3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="4">
@@ -1066,7 +1138,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1076,6 +1148,9 @@
       </c>
       <c r="H4" t="s">
         <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="5">
@@ -1092,7 +1167,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -1102,6 +1177,9 @@
       </c>
       <c r="H5" t="s">
         <v>49</v>
+      </c>
+      <c r="I5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="6">
@@ -1118,7 +1196,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -1128,6 +1206,9 @@
       </c>
       <c r="H6" t="s">
         <v>54</v>
+      </c>
+      <c r="I6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="7">
@@ -1144,7 +1225,7 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="F7" t="s">
         <v>58</v>
@@ -1154,6 +1235,9 @@
       </c>
       <c r="H7" t="s">
         <v>59</v>
+      </c>
+      <c r="I7" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="8">
@@ -1170,7 +1254,7 @@
         <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="F8" t="s">
         <v>63</v>
@@ -1180,6 +1264,9 @@
       </c>
       <c r="H8" t="s">
         <v>64</v>
+      </c>
+      <c r="I8" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="9">
@@ -1196,7 +1283,7 @@
         <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="F9" t="s">
         <v>68</v>
@@ -1206,6 +1293,9 @@
       </c>
       <c r="H9" t="s">
         <v>34</v>
+      </c>
+      <c r="I9" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="10">
@@ -1222,7 +1312,7 @@
         <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="F10" t="s">
         <v>72</v>
@@ -1232,6 +1322,9 @@
       </c>
       <c r="H10" t="s">
         <v>64</v>
+      </c>
+      <c r="I10" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="11">
@@ -1248,7 +1341,7 @@
         <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="F11" t="s">
         <v>76</v>
@@ -1258,6 +1351,9 @@
       </c>
       <c r="H11" t="s">
         <v>77</v>
+      </c>
+      <c r="I11" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="12">
@@ -1274,7 +1370,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -1284,6 +1380,9 @@
       </c>
       <c r="H12" t="s">
         <v>34</v>
+      </c>
+      <c r="I12" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="13">
@@ -1300,7 +1399,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -1310,6 +1409,9 @@
       </c>
       <c r="H13" t="s">
         <v>86</v>
+      </c>
+      <c r="I13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="14">
@@ -1326,7 +1428,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -1336,6 +1438,9 @@
       </c>
       <c r="H14" t="s">
         <v>91</v>
+      </c>
+      <c r="I14" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="15">
@@ -1352,7 +1457,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -1362,6 +1467,9 @@
       </c>
       <c r="H15" t="s">
         <v>77</v>
+      </c>
+      <c r="I15" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="16">
@@ -1378,7 +1486,7 @@
         <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="F16" t="s">
         <v>99</v>
@@ -1388,6 +1496,9 @@
       </c>
       <c r="H16" t="s">
         <v>100</v>
+      </c>
+      <c r="I16" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="17">
@@ -1404,7 +1515,7 @@
         <v>102</v>
       </c>
       <c r="E17" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="F17" t="s">
         <v>104</v>
@@ -1414,6 +1525,9 @@
       </c>
       <c r="H17" t="s">
         <v>105</v>
+      </c>
+      <c r="I17" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="18">
@@ -1430,7 +1544,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -1440,6 +1554,9 @@
       </c>
       <c r="H18" t="s">
         <v>105</v>
+      </c>
+      <c r="I18" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/78.xlsx
+++ b/Covid_19_Dataset_and_References/References/78.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="224">
   <si>
     <t>Doi</t>
   </si>
@@ -741,6 +741,150 @@
   </si>
   <si>
     <t>[Gemin%Zhang%NULL%0,     Jie%Zhang%945128911@qq.com%0,     Bowen%Wang%NULL%0,     Xionglin%Zhu%NULL%0,     Qiang%Wang%NULL%0,     Shiming%Qiu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,      Di%Wu%NULL%0,      Huilong%Chen%NULL%0,      Weiming%Yan%NULL%0,      Danlei%Yang%NULL%0,      Guang%Chen%NULL%0,      Ke%Ma%NULL%0,      Dong%Xu%NULL%0,      Haijing%Yu%NULL%0,      Hongwu%Wang%NULL%0,      Tao%Wang%NULL%0,      Wei%Guo%NULL%0,      Jia%Chen%NULL%0,      Chen%Ding%NULL%0,      Xiaoping%Zhang%NULL%0,      Jiaquan%Huang%NULL%0,      Meifang%Han%NULL%0,      Shusheng%Li%NULL%0,      Xiaoping%Luo%NULL%0,      Jianping%Zhao%NULL%0,      Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,      Wenhua%Liang%NULL%2,      Mei%Jiang%NULL%2,      Weijie%Guan%NULL%2,      Chen%Zhan%NULL%2,      Tao%Wang%NULL%0,      Chunli%Tang%NULL%2,      Ling%Sang%NULL%0,      Jiaxing%Liu%NULL%2,      Zhengyi%Ni%NULL%2,      Yu%Hu%NULL%0,      Lei%Liu%NULL%0,      Hong%Shan%NULL%0,      Chunliang%Lei%NULL%2,      Yixiang%Peng%NULL%2,      Li%Wei%NULL%0,      Yong%Liu%NULL%0,      Yahua%Hu%NULL%2,      Peng%Peng%NULL%0,      Jianming%Wang%NULL%0,      Jiyang%Liu%NULL%2,      Zhong%Chen%NULL%0,      Gang%Li%NULL%0,      Zhijian%Zheng%NULL%2,      Shaoqin%Qiu%NULL%2,      Jie%Luo%NULL%0,      Changjiang%Ye%NULL%2,      Shaoyong%Zhu%NULL%2,      Xiaoqing%Liu%NULL%0,      Linling%Cheng%NULL%2,      Feng%Ye%NULL%0,      Jinping%Zheng%NULL%2,      Nuofu%Zhang%NULL%2,      Yimin%Li%NULL%0,      Jianxing%He%NULL%2,      Shiyue%Li%lishiyue@188.com%2,      Nanshan%Zhong%NULL%0,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[H.%Hou%NULL%1,      B.%Zhang%NULL%1,      H.%Huang%NULL%1,      Y.%Luo%NULL%1,      S.%Wu%NULL%1,      G.%Tang%NULL%1,      W.%Liu%NULL%1,      L.%Mao%NULL%2,      L.%Mao%NULL%0,      F.%Wang%fengwang@tjh.tjmu.edu.cn%1,      Z.%Sun%zysun@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang%Liu%NULL%1,      Lin%Li%NULL%1,      MengDa%Xu%NULL%1,      Juan%Wu%NULL%1,      Ding%Luo%NULL%1,      YuSi%Zhu%NULL%1,      BiXi%Li%NULL%1,      XiaoYang%Song%NULL%1,      Xiang%Zhou%zhouxiang188483@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Kai-Cai%Liu%NULL%1,      Ping%Xu%xuping1027@163.com%1,      Wei-Fu%Lv%weifulv@ustc.edu.cn%1,      Xiao-Hui%Qiu%NULL%1,      Jin-Long%Yao%NULL%1,      Jin-Feng%Gu%NULL%1,      Wei%Wei%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Fengjun%Liu%NULL%1,      Qi%Zhang%NULL%0,      Chao%Huang%NULL%1,      Chunzi%Shi%NULL%1,      Lin%Wang%NULL%0,      Nannan%Shi%NULL%0,      Cong%Fang%NULL%1,      Fei%Shan%NULL%0,      Xue%Mei%NULL%1,      Jing%Shi%NULL%1,      Fengxiang%Song%NULL%1,      Zhongcheng%Yang%NULL%1,      Zezhen%Ding%NULL%1,      Xiaoming%Su%NULL%1,      Hongzhou%Lu%NULL%0,      Tongyu%Zhu%NULL%0,      Zhiyong%Zhang%NULL%0,      Lei%Shi%NULL%1,      Yuxin%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Pan%NULL%1,      Mi%Mu%NULL%0,      Pengcheng%Yang%NULL%0,      Yu%Sun%NULL%1,      Runsheng%Wang%NULL%0,      Junhong%Yan%NULL%1,      Pibao%Li%NULL%1,      Baoguang%Hu%NULL%1,      Jing%Wang%NULL%0,      Chao%Hu%NULL%0,      Yuan%Jin%NULL%1,      Xun%Niu%NULL%1,      Rongyu%Ping%NULL%0,      Yingzhen%Du%NULL%1,      Tianzhi%Li%NULL%0,      Guogang%Xu%NULL%0,      Qinyong%Hu%NULL%0,      Lei%Tu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,      Ruoqi%Ning%NULL%1,      Yu%Tao%NULL%1,      Chong%Yu%NULL%1,      Xiaoyan%Deng%NULL%1,      Caili%Zhao%NULL%1,      Silu%Meng%NULL%1,      Fangxu%Tang%89650793@qq.com%1,      Dong%Xu%89650793@qq.com%0,      Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%0,      Nan%Hu%NULL%0,      Jing%Lou%NULL%0,      Kun%Chen%NULL%0,      Xuqin%Kang%NULL%0,      Zhenjun%Xiang%NULL%0,      Hui%Chen%NULL%0,      Dali%Wang%NULL%0,      Ning%Liu%NULL%0,      Dong%Liu%NULL%0,      Gang%Chen%NULL%0,      Yongliang%Zhang%NULL%0,      Dou%Li%NULL%0,      Jianren%Li%NULL%0,      Huixin%Lian%NULL%0,      Shengmei%Niu%NULL%0,      Luxi%Zhang%NULL%0,      Jinjun%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%0,      Owen Tak-Yin%Tsang%NULL%1,      Wai-Shing%Leung%NULL%1,      Anthony Raymond%Tam%NULL%1,      Tak-Chiu%Wu%NULL%1,      David Christopher%Lung%NULL%1,      Cyril Chik-Yan%Yip%NULL%0,      Jian-Piao%Cai%NULL%0,      Jacky Man-Chun%Chan%NULL%1,      Thomas Shiu-Hong%Chik%NULL%1,      Daphne Pui-Ling%Lau%NULL%1,      Chris Yau-Chung%Choi%NULL%1,      Lin-Lei%Chen%NULL%1,      Wan-Mui%Chan%NULL%0,      Kwok-Hung%Chan%NULL%0,      Jonathan Daniel%Ip%NULL%0,      Anthony Chin-Ki%Ng%NULL%1,      Rosana Wing-Shan%Poon%NULL%0,      Cui-Ting%Luo%NULL%1,      Vincent Chi-Chung%Cheng%NULL%0,      Jasper Fuk-Woo%Chan%NULL%1,      Ivan Fan-Ngai%Hung%NULL%1,      Zhiwei%Chen%NULL%1,      Honglin%Chen%NULL%0,      Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,      Qingjie%Yi%NULL%1,      Shibing%Fan%NULL%1,      Jinglong%Lv%13608388377@163.com%1,      Xianxiang%Zhang%NULL%2,      Xianxiang%Zhang%NULL%0,      Lian%Guo%NULL%1,      Chunhui%Lang%NULL%1,      Qing%Xiao%NULL%1,      Kaihu%Xiao%NULL%2,      Zhengjun%Yi%NULL%1,      Mao%Qiang%NULL%1,      Jianglin%Xiang%NULL%1,      Bangshuo%Zhang%NULL%1,      Yongping%Chen%NULL%1,      Cailiang%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,      Wenbo%He%NULL%0,      Xiaomei%Yu%NULL%0,      Dalong%Hu%NULL%0,      Mingwei%Bao%NULL%0,      Huafen%Liu%NULL%0,      Jiali%Zhou%NULL%0,      Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%0,      Jing-Hui%Dong%NULL%0,      Wei-Min%An%NULL%0,      Xiao-Yan%Lv%15001008285@139.com%0,      Xiao-Ping%Yin%yinxiaoping78@sina.com%0,      Jian-Zeng%Zhang%NULL%0,      Li%Dong%NULL%0,      Xi%Ma%NULL%0,      Hong-Jie%Zhang%NULL%0,      Bu-Lang%Gao%browngao@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fanfan%Zeng%NULL%1,      Chan%Dai%NULL%2,      Chan%Dai%NULL%0,      Pengcheng%Cai%NULL%1,      Jinbiao%Wang%NULL%1,      Lei%Xu%NULL%0,      Jianyu%Li%NULL%1,      Guoyun%Hu%NULL%1,      Zheng%Wang%zhengwang@hust.edu.cn%1,      Fang%Zheng%zhengfangtj@hust.edu.cn%1,      Lin%Wang%lin_wang@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,      Jie%Zhang%945128911@qq.com%2,      Bowen%Wang%NULL%2,      Xionglin%Zhu%NULL%2,      Qiang%Wang%NULL%2,      Shiming%Qiu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,      Jie%Zhang%945128911@qq.com%0,      Bowen%Wang%NULL%0,      Xionglin%Zhu%NULL%0,      Qiang%Wang%NULL%0,      Shiming%Qiu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,       Di%Wu%NULL%0,       Huilong%Chen%NULL%0,       Weiming%Yan%NULL%0,       Danlei%Yang%NULL%0,       Guang%Chen%NULL%0,       Ke%Ma%NULL%0,       Dong%Xu%NULL%0,       Haijing%Yu%NULL%0,       Hongwu%Wang%NULL%0,       Tao%Wang%NULL%0,       Wei%Guo%NULL%0,       Jia%Chen%NULL%0,       Chen%Ding%NULL%0,       Xiaoping%Zhang%NULL%0,       Jiaquan%Huang%NULL%0,       Meifang%Han%NULL%0,       Shusheng%Li%NULL%0,       Xiaoping%Luo%NULL%0,       Jianping%Zhao%NULL%0,       Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,       Wenhua%Liang%NULL%2,       Mei%Jiang%NULL%2,       Weijie%Guan%NULL%2,       Chen%Zhan%NULL%2,       Tao%Wang%NULL%0,       Chunli%Tang%NULL%2,       Ling%Sang%NULL%0,       Jiaxing%Liu%NULL%2,       Zhengyi%Ni%NULL%2,       Yu%Hu%NULL%0,       Lei%Liu%NULL%0,       Hong%Shan%NULL%0,       Chunliang%Lei%NULL%2,       Yixiang%Peng%NULL%2,       Li%Wei%NULL%0,       Yong%Liu%NULL%0,       Yahua%Hu%NULL%2,       Peng%Peng%NULL%0,       Jianming%Wang%NULL%0,       Jiyang%Liu%NULL%2,       Zhong%Chen%NULL%0,       Gang%Li%NULL%0,       Zhijian%Zheng%NULL%2,       Shaoqin%Qiu%NULL%2,       Jie%Luo%NULL%0,       Changjiang%Ye%NULL%2,       Shaoyong%Zhu%NULL%2,       Xiaoqing%Liu%NULL%0,       Linling%Cheng%NULL%2,       Feng%Ye%NULL%0,       Jinping%Zheng%NULL%2,       Nuofu%Zhang%NULL%2,       Yimin%Li%NULL%0,       Jianxing%He%NULL%2,       Shiyue%Li%lishiyue@188.com%2,       Nanshan%Zhong%NULL%0,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[H.%Hou%NULL%1,       B.%Zhang%NULL%1,       H.%Huang%NULL%1,       Y.%Luo%NULL%1,       S.%Wu%NULL%1,       G.%Tang%NULL%1,       W.%Liu%NULL%1,       L.%Mao%NULL%2,       L.%Mao%NULL%0,       F.%Wang%fengwang@tjh.tjmu.edu.cn%1,       Z.%Sun%zysun@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang%Liu%NULL%1,       Lin%Li%NULL%1,       MengDa%Xu%NULL%1,       Juan%Wu%NULL%1,       Ding%Luo%NULL%1,       YuSi%Zhu%NULL%1,       BiXi%Li%NULL%1,       XiaoYang%Song%NULL%1,       Xiang%Zhou%zhouxiang188483@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Kai-Cai%Liu%NULL%1,       Ping%Xu%xuping1027@163.com%1,       Wei-Fu%Lv%weifulv@ustc.edu.cn%1,       Xiao-Hui%Qiu%NULL%1,       Jin-Long%Yao%NULL%1,       Jin-Feng%Gu%NULL%1,       Wei%Wei%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Fengjun%Liu%NULL%1,       Qi%Zhang%NULL%0,       Chao%Huang%NULL%1,       Chunzi%Shi%NULL%1,       Lin%Wang%NULL%0,       Nannan%Shi%NULL%0,       Cong%Fang%NULL%1,       Fei%Shan%NULL%0,       Xue%Mei%NULL%1,       Jing%Shi%NULL%1,       Fengxiang%Song%NULL%1,       Zhongcheng%Yang%NULL%1,       Zezhen%Ding%NULL%1,       Xiaoming%Su%NULL%1,       Hongzhou%Lu%NULL%0,       Tongyu%Zhu%NULL%0,       Zhiyong%Zhang%NULL%0,       Lei%Shi%NULL%1,       Yuxin%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Pan%NULL%1,       Mi%Mu%NULL%0,       Pengcheng%Yang%NULL%0,       Yu%Sun%NULL%1,       Runsheng%Wang%NULL%0,       Junhong%Yan%NULL%1,       Pibao%Li%NULL%1,       Baoguang%Hu%NULL%1,       Jing%Wang%NULL%0,       Chao%Hu%NULL%0,       Yuan%Jin%NULL%1,       Xun%Niu%NULL%1,       Rongyu%Ping%NULL%0,       Yingzhen%Du%NULL%1,       Tianzhi%Li%NULL%0,       Guogang%Xu%NULL%0,       Qinyong%Hu%NULL%0,       Lei%Tu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,       Ruoqi%Ning%NULL%1,       Yu%Tao%NULL%1,       Chong%Yu%NULL%1,       Xiaoyan%Deng%NULL%1,       Caili%Zhao%NULL%1,       Silu%Meng%NULL%1,       Fangxu%Tang%89650793@qq.com%1,       Dong%Xu%89650793@qq.com%0,       Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%0,       Nan%Hu%NULL%0,       Jing%Lou%NULL%0,       Kun%Chen%NULL%0,       Xuqin%Kang%NULL%0,       Zhenjun%Xiang%NULL%0,       Hui%Chen%NULL%0,       Dali%Wang%NULL%0,       Ning%Liu%NULL%0,       Dong%Liu%NULL%0,       Gang%Chen%NULL%0,       Yongliang%Zhang%NULL%0,       Dou%Li%NULL%0,       Jianren%Li%NULL%0,       Huixin%Lian%NULL%0,       Shengmei%Niu%NULL%0,       Luxi%Zhang%NULL%0,       Jinjun%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%0,       Owen Tak-Yin%Tsang%NULL%1,       Wai-Shing%Leung%NULL%1,       Anthony Raymond%Tam%NULL%1,       Tak-Chiu%Wu%NULL%1,       David Christopher%Lung%NULL%1,       Cyril Chik-Yan%Yip%NULL%0,       Jian-Piao%Cai%NULL%0,       Jacky Man-Chun%Chan%NULL%1,       Thomas Shiu-Hong%Chik%NULL%1,       Daphne Pui-Ling%Lau%NULL%1,       Chris Yau-Chung%Choi%NULL%1,       Lin-Lei%Chen%NULL%1,       Wan-Mui%Chan%NULL%0,       Kwok-Hung%Chan%NULL%0,       Jonathan Daniel%Ip%NULL%0,       Anthony Chin-Ki%Ng%NULL%1,       Rosana Wing-Shan%Poon%NULL%0,       Cui-Ting%Luo%NULL%1,       Vincent Chi-Chung%Cheng%NULL%0,       Jasper Fuk-Woo%Chan%NULL%1,       Ivan Fan-Ngai%Hung%NULL%1,       Zhiwei%Chen%NULL%1,       Honglin%Chen%NULL%0,       Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,       Qingjie%Yi%NULL%1,       Shibing%Fan%NULL%1,       Jinglong%Lv%13608388377@163.com%1,       Xianxiang%Zhang%NULL%2,       Xianxiang%Zhang%NULL%0,       Lian%Guo%NULL%1,       Chunhui%Lang%NULL%1,       Qing%Xiao%NULL%1,       Kaihu%Xiao%NULL%2,       Zhengjun%Yi%NULL%1,       Mao%Qiang%NULL%1,       Jianglin%Xiang%NULL%1,       Bangshuo%Zhang%NULL%1,       Yongping%Chen%NULL%1,       Cailiang%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,       Wenbo%He%NULL%0,       Xiaomei%Yu%NULL%0,       Dalong%Hu%NULL%0,       Mingwei%Bao%NULL%0,       Huafen%Liu%NULL%0,       Jiali%Zhou%NULL%0,       Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%0,       Jing-Hui%Dong%NULL%0,       Wei-Min%An%NULL%0,       Xiao-Yan%Lv%15001008285@139.com%0,       Xiao-Ping%Yin%yinxiaoping78@sina.com%0,       Jian-Zeng%Zhang%NULL%0,       Li%Dong%NULL%0,       Xi%Ma%NULL%0,       Hong-Jie%Zhang%NULL%0,       Bu-Lang%Gao%browngao@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fanfan%Zeng%NULL%1,       Chan%Dai%NULL%2,       Chan%Dai%NULL%0,       Pengcheng%Cai%NULL%1,       Jinbiao%Wang%NULL%1,       Lei%Xu%NULL%0,       Jianyu%Li%NULL%1,       Guoyun%Hu%NULL%1,       Zheng%Wang%zhengwang@hust.edu.cn%1,       Fang%Zheng%zhengfangtj@hust.edu.cn%1,       Lin%Wang%lin_wang@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,       Jie%Zhang%945128911@qq.com%2,       Bowen%Wang%NULL%2,       Xionglin%Zhu%NULL%2,       Qiang%Wang%NULL%2,       Shiming%Qiu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,       Jie%Zhang%945128911@qq.com%0,       Bowen%Wang%NULL%0,       Xionglin%Zhu%NULL%0,       Qiang%Wang%NULL%0,       Shiming%Qiu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,        Di%Wu%NULL%0,        Huilong%Chen%NULL%0,        Weiming%Yan%NULL%0,        Danlei%Yang%NULL%0,        Guang%Chen%NULL%0,        Ke%Ma%NULL%0,        Dong%Xu%NULL%0,        Haijing%Yu%NULL%0,        Hongwu%Wang%NULL%0,        Tao%Wang%NULL%0,        Wei%Guo%NULL%0,        Jia%Chen%NULL%0,        Chen%Ding%NULL%0,        Xiaoping%Zhang%NULL%0,        Jiaquan%Huang%NULL%0,        Meifang%Han%NULL%0,        Shusheng%Li%NULL%0,        Xiaoping%Luo%NULL%0,        Jianping%Zhao%NULL%0,        Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,        Wenhua%Liang%NULL%2,        Mei%Jiang%NULL%2,        Weijie%Guan%NULL%2,        Chen%Zhan%NULL%2,        Tao%Wang%NULL%0,        Chunli%Tang%NULL%2,        Ling%Sang%NULL%0,        Jiaxing%Liu%NULL%2,        Zhengyi%Ni%NULL%2,        Yu%Hu%NULL%0,        Lei%Liu%NULL%0,        Hong%Shan%NULL%0,        Chunliang%Lei%NULL%2,        Yixiang%Peng%NULL%2,        Li%Wei%NULL%0,        Yong%Liu%NULL%0,        Yahua%Hu%NULL%2,        Peng%Peng%NULL%0,        Jianming%Wang%NULL%0,        Jiyang%Liu%NULL%2,        Zhong%Chen%NULL%0,        Gang%Li%NULL%0,        Zhijian%Zheng%NULL%2,        Shaoqin%Qiu%NULL%2,        Jie%Luo%NULL%0,        Changjiang%Ye%NULL%2,        Shaoyong%Zhu%NULL%2,        Xiaoqing%Liu%NULL%0,        Linling%Cheng%NULL%2,        Feng%Ye%NULL%0,        Jinping%Zheng%NULL%2,        Nuofu%Zhang%NULL%2,        Yimin%Li%NULL%0,        Jianxing%He%NULL%2,        Shiyue%Li%lishiyue@188.com%2,        Nanshan%Zhong%NULL%0,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[H.%Hou%NULL%1,        B.%Zhang%NULL%1,        H.%Huang%NULL%1,        Y.%Luo%NULL%1,        S.%Wu%NULL%1,        G.%Tang%NULL%1,        W.%Liu%NULL%1,        L.%Mao%NULL%2,        L.%Mao%NULL%0,        F.%Wang%fengwang@tjh.tjmu.edu.cn%1,        Z.%Sun%zysun@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang%Liu%NULL%1,        Lin%Li%NULL%1,        MengDa%Xu%NULL%1,        Juan%Wu%NULL%1,        Ding%Luo%NULL%1,        YuSi%Zhu%NULL%1,        BiXi%Li%NULL%1,        XiaoYang%Song%NULL%1,        Xiang%Zhou%zhouxiang188483@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Kai-Cai%Liu%NULL%1,        Ping%Xu%xuping1027@163.com%1,        Wei-Fu%Lv%weifulv@ustc.edu.cn%1,        Xiao-Hui%Qiu%NULL%1,        Jin-Long%Yao%NULL%1,        Jin-Feng%Gu%NULL%1,        Wei%Wei%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Fengjun%Liu%NULL%1,        Qi%Zhang%NULL%0,        Chao%Huang%NULL%1,        Chunzi%Shi%NULL%1,        Lin%Wang%NULL%0,        Nannan%Shi%NULL%0,        Cong%Fang%NULL%1,        Fei%Shan%NULL%0,        Xue%Mei%NULL%1,        Jing%Shi%NULL%1,        Fengxiang%Song%NULL%1,        Zhongcheng%Yang%NULL%1,        Zezhen%Ding%NULL%1,        Xiaoming%Su%NULL%1,        Hongzhou%Lu%NULL%0,        Tongyu%Zhu%NULL%0,        Zhiyong%Zhang%NULL%0,        Lei%Shi%NULL%1,        Yuxin%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Pan%NULL%1,        Mi%Mu%NULL%0,        Pengcheng%Yang%NULL%0,        Yu%Sun%NULL%1,        Runsheng%Wang%NULL%0,        Junhong%Yan%NULL%1,        Pibao%Li%NULL%1,        Baoguang%Hu%NULL%1,        Jing%Wang%NULL%0,        Chao%Hu%NULL%0,        Yuan%Jin%NULL%1,        Xun%Niu%NULL%1,        Rongyu%Ping%NULL%0,        Yingzhen%Du%NULL%1,        Tianzhi%Li%NULL%0,        Guogang%Xu%NULL%0,        Qinyong%Hu%NULL%0,        Lei%Tu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,        Ruoqi%Ning%NULL%1,        Yu%Tao%NULL%1,        Chong%Yu%NULL%1,        Xiaoyan%Deng%NULL%1,        Caili%Zhao%NULL%1,        Silu%Meng%NULL%1,        Fangxu%Tang%89650793@qq.com%1,        Dong%Xu%89650793@qq.com%0,        Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%0,        Nan%Hu%NULL%0,        Jing%Lou%NULL%0,        Kun%Chen%NULL%0,        Xuqin%Kang%NULL%0,        Zhenjun%Xiang%NULL%0,        Hui%Chen%NULL%0,        Dali%Wang%NULL%0,        Ning%Liu%NULL%0,        Dong%Liu%NULL%0,        Gang%Chen%NULL%0,        Yongliang%Zhang%NULL%0,        Dou%Li%NULL%0,        Jianren%Li%NULL%0,        Huixin%Lian%NULL%0,        Shengmei%Niu%NULL%0,        Luxi%Zhang%NULL%0,        Jinjun%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%0,        Owen Tak-Yin%Tsang%NULL%1,        Wai-Shing%Leung%NULL%1,        Anthony Raymond%Tam%NULL%1,        Tak-Chiu%Wu%NULL%1,        David Christopher%Lung%NULL%1,        Cyril Chik-Yan%Yip%NULL%0,        Jian-Piao%Cai%NULL%0,        Jacky Man-Chun%Chan%NULL%1,        Thomas Shiu-Hong%Chik%NULL%1,        Daphne Pui-Ling%Lau%NULL%1,        Chris Yau-Chung%Choi%NULL%1,        Lin-Lei%Chen%NULL%1,        Wan-Mui%Chan%NULL%0,        Kwok-Hung%Chan%NULL%0,        Jonathan Daniel%Ip%NULL%0,        Anthony Chin-Ki%Ng%NULL%1,        Rosana Wing-Shan%Poon%NULL%0,        Cui-Ting%Luo%NULL%1,        Vincent Chi-Chung%Cheng%NULL%0,        Jasper Fuk-Woo%Chan%NULL%1,        Ivan Fan-Ngai%Hung%NULL%1,        Zhiwei%Chen%NULL%1,        Honglin%Chen%NULL%0,        Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,        Qingjie%Yi%NULL%1,        Shibing%Fan%NULL%1,        Jinglong%Lv%13608388377@163.com%1,        Xianxiang%Zhang%NULL%2,        Xianxiang%Zhang%NULL%0,        Lian%Guo%NULL%1,        Chunhui%Lang%NULL%1,        Qing%Xiao%NULL%1,        Kaihu%Xiao%NULL%2,        Zhengjun%Yi%NULL%1,        Mao%Qiang%NULL%1,        Jianglin%Xiang%NULL%1,        Bangshuo%Zhang%NULL%1,        Yongping%Chen%NULL%1,        Cailiang%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,        Wenbo%He%NULL%0,        Xiaomei%Yu%NULL%0,        Dalong%Hu%NULL%0,        Mingwei%Bao%NULL%0,        Huafen%Liu%NULL%0,        Jiali%Zhou%NULL%0,        Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%0,        Jing-Hui%Dong%NULL%0,        Wei-Min%An%NULL%0,        Xiao-Yan%Lv%15001008285@139.com%0,        Xiao-Ping%Yin%yinxiaoping78@sina.com%0,        Jian-Zeng%Zhang%NULL%0,        Li%Dong%NULL%0,        Xi%Ma%NULL%0,        Hong-Jie%Zhang%NULL%0,        Bu-Lang%Gao%browngao@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fanfan%Zeng%NULL%1,        Chan%Dai%NULL%2,        Chan%Dai%NULL%0,        Pengcheng%Cai%NULL%1,        Jinbiao%Wang%NULL%1,        Lei%Xu%NULL%0,        Jianyu%Li%NULL%1,        Guoyun%Hu%NULL%1,        Zheng%Wang%zhengwang@hust.edu.cn%1,        Fang%Zheng%zhengfangtj@hust.edu.cn%1,        Lin%Wang%lin_wang@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,        Jie%Zhang%945128911@qq.com%2,        Bowen%Wang%NULL%2,        Xionglin%Zhu%NULL%2,        Qiang%Wang%NULL%2,        Shiming%Qiu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,        Jie%Zhang%945128911@qq.com%0,        Bowen%Wang%NULL%0,        Xionglin%Zhu%NULL%0,        Qiang%Wang%NULL%0,        Shiming%Qiu%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1253,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1138,7 +1282,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>209</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1167,7 +1311,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -1196,7 +1340,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -1225,7 +1369,7 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="F7" t="s">
         <v>58</v>
@@ -1254,7 +1398,7 @@
         <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="F8" t="s">
         <v>63</v>
@@ -1283,7 +1427,7 @@
         <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="F9" t="s">
         <v>68</v>
@@ -1312,7 +1456,7 @@
         <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
       <c r="F10" t="s">
         <v>72</v>
@@ -1341,7 +1485,7 @@
         <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
       <c r="F11" t="s">
         <v>76</v>
@@ -1370,7 +1514,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>168</v>
+        <v>217</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -1399,7 +1543,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -1428,7 +1572,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -1457,7 +1601,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -1486,7 +1630,7 @@
         <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>172</v>
+        <v>221</v>
       </c>
       <c r="F16" t="s">
         <v>99</v>
@@ -1515,7 +1659,7 @@
         <v>102</v>
       </c>
       <c r="E17" t="s">
-        <v>173</v>
+        <v>222</v>
       </c>
       <c r="F17" t="s">
         <v>104</v>
@@ -1544,7 +1688,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>175</v>
+        <v>223</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>

--- a/Covid_19_Dataset_and_References/References/78.xlsx
+++ b/Covid_19_Dataset_and_References/References/78.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="261">
   <si>
     <t>Doi</t>
   </si>
@@ -885,6 +885,117 @@
   </si>
   <si>
     <t>[Gemin%Zhang%NULL%0,        Jie%Zhang%945128911@qq.com%0,        Bowen%Wang%NULL%0,        Xionglin%Zhu%NULL%0,        Qiang%Wang%NULL%0,        Shiming%Qiu%NULL%0]</t>
+  </si>
+  <si>
+    <t>"Clinical and immunological features of severe and moderate coronavirus disease 2019"</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%3, Di%Wu%xref no email%0, Wei%Guo%xref no email%3, Yong%Cao%xref no email%3, Da%Huang%xref no email%3, Hongwu%Wang%xref no email%3, Tao%Wang%xref no email%0, Xiaoyun%Zhang%xref no email%3, Huilong%Chen%xref no email%3, Haijing%Yu%xref no email%3, Xiaoping%Zhang%xref no email%3, Minxia%Zhang%xref no email%3, Shiji%Wu%xref no email%3, Jianxin%Song%xref no email%3, Tao%Chen%xref no email%0, Meifang%Han%xref no email%3, Shusheng%Li%xref no email%3, Xiaoping%Luo%xref no email%3, Jianping%Zhao%xref no email%3, Qin%Ning%xref no email%3]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,         Di%Wu%NULL%0,         Huilong%Chen%NULL%0,         Weiming%Yan%NULL%0,         Danlei%Yang%NULL%0,         Guang%Chen%NULL%0,         Ke%Ma%NULL%0,         Dong%Xu%NULL%0,         Haijing%Yu%NULL%0,         Hongwu%Wang%NULL%0,         Tao%Wang%NULL%0,         Wei%Guo%NULL%0,         Jia%Chen%NULL%0,         Chen%Ding%NULL%0,         Xiaoping%Zhang%NULL%0,         Jiaquan%Huang%NULL%0,         Meifang%Han%NULL%0,         Shusheng%Li%NULL%0,         Xiaoping%Luo%NULL%0,         Jianping%Zhao%NULL%0,         Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,         Wenhua%Liang%NULL%0,         Mei%Jiang%NULL%0,         Weijie%Guan%NULL%0,         Chen%Zhan%NULL%2,         Tao%Wang%NULL%0,         Chunli%Tang%NULL%2,         Ling%Sang%NULL%0,         Jiaxing%Liu%NULL%2,         Zhengyi%Ni%NULL%0,         Yu%Hu%NULL%0,         Lei%Liu%NULL%0,         Hong%Shan%NULL%0,         Chunliang%Lei%NULL%0,         Yixiang%Peng%NULL%0,         Li%Wei%NULL%0,         Yong%Liu%NULL%0,         Yahua%Hu%NULL%0,         Peng%Peng%NULL%0,         Jianming%Wang%NULL%0,         Jiyang%Liu%NULL%0,         Zhong%Chen%NULL%0,         Gang%Li%NULL%0,         Zhijian%Zheng%NULL%0,         Shaoqin%Qiu%NULL%0,         Jie%Luo%NULL%0,         Changjiang%Ye%NULL%0,         Shaoyong%Zhu%NULL%0,         Xiaoqing%Liu%NULL%0,         Linling%Cheng%NULL%2,         Feng%Ye%NULL%0,         Jinping%Zheng%NULL%0,         Nuofu%Zhang%NULL%0,         Yimin%Li%NULL%0,         Jianxing%He%NULL%0,         Shiyue%Li%lishiyue@188.com%0,         Nanshan%Zhong%NULL%0,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[H.%Hou%NULL%1,         B.%Zhang%NULL%1,         H.%Huang%NULL%1,         Y.%Luo%NULL%1,         S.%Wu%NULL%1,         G.%Tang%NULL%1,         W.%Liu%NULL%1,         L.%Mao%NULL%2,         L.%Mao%NULL%0,         F.%Wang%fengwang@tjh.tjmu.edu.cn%1,         Z.%Sun%zysun@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang%Liu%NULL%2,         Lin%Li%NULL%0,         MengDa%Xu%NULL%1,         Juan%Wu%NULL%1,         Ding%Luo%NULL%1,         YuSi%Zhu%NULL%1,         BiXi%Li%NULL%1,         XiaoYang%Song%NULL%1,         Xiang%Zhou%zhouxiang188483@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Kai-Cai%Liu%NULL%1,         Ping%Xu%xuping1027@163.com%1,         Wei-Fu%Lv%weifulv@ustc.edu.cn%1,         Xiao-Hui%Qiu%NULL%1,         Jin-Long%Yao%NULL%1,         Jin-Feng%Gu%NULL%1,         Wei%Wei%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Fengjun%Liu%NULL%1,         Qi%Zhang%NULL%0,         Chao%Huang%NULL%1,         Chunzi%Shi%NULL%1,         Lin%Wang%NULL%0,         Nannan%Shi%NULL%0,         Cong%Fang%NULL%1,         Fei%Shan%NULL%0,         Xue%Mei%NULL%1,         Jing%Shi%NULL%0,         Fengxiang%Song%NULL%1,         Zhongcheng%Yang%NULL%1,         Zezhen%Ding%NULL%1,         Xiaoming%Su%NULL%1,         Hongzhou%Lu%NULL%0,         Tongyu%Zhu%NULL%0,         Zhiyong%Zhang%NULL%0,         Lei%Shi%NULL%1,         Yuxin%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Pan%NULL%1,         Mi%Mu%NULL%0,         Pengcheng%Yang%NULL%0,         Yu%Sun%NULL%1,         Runsheng%Wang%NULL%0,         Junhong%Yan%NULL%1,         Pibao%Li%NULL%1,         Baoguang%Hu%NULL%1,         Jing%Wang%NULL%0,         Chao%Hu%NULL%0,         Yuan%Jin%NULL%1,         Xun%Niu%NULL%1,         Rongyu%Ping%NULL%0,         Yingzhen%Du%NULL%1,         Tianzhi%Li%NULL%0,         Guogang%Xu%NULL%0,         Qinyong%Hu%NULL%0,         Lei%Tu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,         Ruoqi%Ning%NULL%0,         Yu%Tao%NULL%0,         Chong%Yu%NULL%0,         Xiaoyan%Deng%NULL%0,         Caili%Zhao%NULL%0,         Silu%Meng%NULL%0,         Fangxu%Tang%89650793@qq.com%0,         Dong%Xu%89650793@qq.com%0,         Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%0,         Nan%Hu%NULL%0,         Jing%Lou%NULL%0,         Kun%Chen%NULL%0,         Xuqin%Kang%NULL%0,         Zhenjun%Xiang%NULL%0,         Hui%Chen%NULL%0,         Dali%Wang%NULL%0,         Ning%Liu%NULL%0,         Dong%Liu%NULL%0,         Gang%Chen%NULL%0,         Yongliang%Zhang%NULL%0,         Dou%Li%NULL%0,         Jianren%Li%NULL%0,         Huixin%Lian%NULL%0,         Shengmei%Niu%NULL%0,         Luxi%Zhang%NULL%0,         Jinjun%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%0,         Owen Tak-Yin%Tsang%NULL%1,         Wai-Shing%Leung%NULL%1,         Anthony Raymond%Tam%NULL%1,         Tak-Chiu%Wu%NULL%1,         David Christopher%Lung%NULL%1,         Cyril Chik-Yan%Yip%NULL%0,         Jian-Piao%Cai%NULL%0,         Jacky Man-Chun%Chan%NULL%1,         Thomas Shiu-Hong%Chik%NULL%1,         Daphne Pui-Ling%Lau%NULL%1,         Chris Yau-Chung%Choi%NULL%1,         Lin-Lei%Chen%NULL%1,         Wan-Mui%Chan%NULL%0,         Kwok-Hung%Chan%NULL%0,         Jonathan Daniel%Ip%NULL%0,         Anthony Chin-Ki%Ng%NULL%1,         Rosana Wing-Shan%Poon%NULL%0,         Cui-Ting%Luo%NULL%1,         Vincent Chi-Chung%Cheng%NULL%0,         Jasper Fuk-Woo%Chan%NULL%1,         Ivan Fan-Ngai%Hung%NULL%1,         Zhiwei%Chen%NULL%1,         Honglin%Chen%NULL%0,         Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,         Qingjie%Yi%NULL%1,         Shibing%Fan%NULL%1,         Jinglong%Lv%13608388377@163.com%0,         Xianxiang%Zhang%NULL%2,         Xianxiang%Zhang%NULL%0,         Lian%Guo%NULL%1,         Chunhui%Lang%NULL%0,         Qing%Xiao%NULL%1,         Kaihu%Xiao%NULL%2,         Zhengjun%Yi%NULL%1,         Mao%Qiang%NULL%1,         Jianglin%Xiang%NULL%1,         Bangshuo%Zhang%NULL%1,         Yongping%Chen%NULL%1,         Cailiang%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,         Wenbo%He%NULL%0,         Xiaomei%Yu%NULL%0,         Dalong%Hu%NULL%0,         Mingwei%Bao%NULL%0,         Huafen%Liu%NULL%0,         Jiali%Zhou%NULL%0,         Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%0,         Jing-Hui%Dong%NULL%0,         Wei-Min%An%NULL%0,         Xiao-Yan%Lv%15001008285@139.com%0,         Xiao-Ping%Yin%yinxiaoping78@sina.com%0,         Jian-Zeng%Zhang%NULL%0,         Li%Dong%NULL%0,         Xi%Ma%NULL%0,         Hong-Jie%Zhang%NULL%0,         Bu-Lang%Gao%browngao@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fanfan%Zeng%NULL%1,         Chan%Dai%NULL%2,         Chan%Dai%NULL%0,         Pengcheng%Cai%NULL%1,         Jinbiao%Wang%NULL%1,         Lei%Xu%NULL%0,         Jianyu%Li%NULL%1,         Guoyun%Hu%NULL%1,         Zheng%Wang%zhengwang@hust.edu.cn%1,         Fang%Zheng%zhengfangtj@hust.edu.cn%1,         Lin%Wang%lin_wang@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,         Jie%Zhang%945128911@qq.com%2,         Bowen%Wang%NULL%2,         Xionglin%Zhu%NULL%2,         Qiang%Wang%NULL%0,         Shiming%Qiu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,         Jie%Zhang%945128911@qq.com%0,         Bowen%Wang%NULL%0,         Xionglin%Zhu%NULL%0,         Qiang%Wang%NULL%0,         Shiming%Qiu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%3,  Di%Wu%xref no email%3,  Wei%Guo%xref no email%3,  Yong%Cao%xref no email%3,  Da%Huang%xref no email%3,  Hongwu%Wang%xref no email%3,  Tao%Wang%xref no email%0,  Xiaoyun%Zhang%xref no email%3,  Huilong%Chen%xref no email%3,  Haijing%Yu%xref no email%3,  Xiaoping%Zhang%xref no email%3,  Minxia%Zhang%xref no email%3,  Shiji%Wu%xref no email%3,  Jianxin%Song%xref no email%3,  Tao%Chen%xref no email%3,  Meifang%Han%xref no email%3,  Shusheng%Li%xref no email%3,  Xiaoping%Luo%xref no email%3,  Jianping%Zhao%xref no email%3,  Qin%Ning%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,          Di%Wu%NULL%0,          Huilong%Chen%NULL%0,          Weiming%Yan%NULL%0,          Danlei%Yang%NULL%0,          Guang%Chen%NULL%0,          Ke%Ma%NULL%0,          Dong%Xu%NULL%0,          Haijing%Yu%NULL%0,          Hongwu%Wang%NULL%0,          Tao%Wang%NULL%0,          Wei%Guo%NULL%0,          Jia%Chen%NULL%0,          Chen%Ding%NULL%0,          Xiaoping%Zhang%NULL%0,          Jiaquan%Huang%NULL%0,          Meifang%Han%NULL%0,          Shusheng%Li%NULL%0,          Xiaoping%Luo%NULL%0,          Jianping%Zhao%NULL%0,          Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,          Wenhua%Liang%NULL%0,          Mei%Jiang%NULL%0,          Weijie%Guan%NULL%0,          Chen%Zhan%NULL%2,          Tao%Wang%NULL%0,          Chunli%Tang%NULL%2,          Ling%Sang%NULL%0,          Jiaxing%Liu%NULL%2,          Zhengyi%Ni%NULL%0,          Yu%Hu%NULL%0,          Lei%Liu%NULL%0,          Hong%Shan%NULL%0,          Chunliang%Lei%NULL%0,          Yixiang%Peng%NULL%0,          Li%Wei%NULL%0,          Yong%Liu%NULL%0,          Yahua%Hu%NULL%0,          Peng%Peng%NULL%0,          Jianming%Wang%NULL%0,          Jiyang%Liu%NULL%0,          Zhong%Chen%NULL%0,          Gang%Li%NULL%0,          Zhijian%Zheng%NULL%0,          Shaoqin%Qiu%NULL%0,          Jie%Luo%NULL%0,          Changjiang%Ye%NULL%0,          Shaoyong%Zhu%NULL%0,          Xiaoqing%Liu%NULL%0,          Linling%Cheng%NULL%2,          Feng%Ye%NULL%0,          Jinping%Zheng%NULL%0,          Nuofu%Zhang%NULL%0,          Yimin%Li%NULL%0,          Jianxing%He%NULL%0,          Shiyue%Li%lishiyue@188.com%0,          Nanshan%Zhong%NULL%0,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[H.%Hou%NULL%1,          B.%Zhang%NULL%1,          H.%Huang%NULL%1,          Y.%Luo%NULL%1,          S.%Wu%NULL%1,          G.%Tang%NULL%1,          W.%Liu%NULL%1,          L.%Mao%NULL%2,          L.%Mao%NULL%0,          F.%Wang%fengwang@tjh.tjmu.edu.cn%1,          Z.%Sun%zysun@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang%Liu%NULL%1,          Lin%Li%NULL%0,          MengDa%Xu%NULL%1,          Juan%Wu%NULL%1,          Ding%Luo%NULL%1,          YuSi%Zhu%NULL%1,          BiXi%Li%NULL%1,          XiaoYang%Song%NULL%1,          Xiang%Zhou%zhouxiang188483@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Kai-Cai%Liu%NULL%1,          Ping%Xu%xuping1027@163.com%1,          Wei-Fu%Lv%weifulv@ustc.edu.cn%1,          Xiao-Hui%Qiu%NULL%1,          Jin-Long%Yao%NULL%1,          Jin-Feng%Gu%NULL%1,          Wei%Wei%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Fengjun%Liu%NULL%1,          Qi%Zhang%NULL%0,          Chao%Huang%NULL%1,          Chunzi%Shi%NULL%1,          Lin%Wang%NULL%0,          Nannan%Shi%NULL%0,          Cong%Fang%NULL%1,          Fei%Shan%NULL%0,          Xue%Mei%NULL%1,          Jing%Shi%NULL%0,          Fengxiang%Song%NULL%1,          Zhongcheng%Yang%NULL%1,          Zezhen%Ding%NULL%1,          Xiaoming%Su%NULL%1,          Hongzhou%Lu%NULL%0,          Tongyu%Zhu%NULL%0,          Zhiyong%Zhang%NULL%0,          Lei%Shi%NULL%1,          Yuxin%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Pan%NULL%1,          Mi%Mu%NULL%0,          Pengcheng%Yang%NULL%0,          Yu%Sun%NULL%1,          Runsheng%Wang%NULL%0,          Junhong%Yan%NULL%1,          Pibao%Li%NULL%1,          Baoguang%Hu%NULL%1,          Jing%Wang%NULL%0,          Chao%Hu%NULL%0,          Yuan%Jin%NULL%1,          Xun%Niu%NULL%1,          Rongyu%Ping%NULL%0,          Yingzhen%Du%NULL%1,          Tianzhi%Li%NULL%0,          Guogang%Xu%NULL%0,          Qinyong%Hu%NULL%0,          Lei%Tu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,          Ruoqi%Ning%NULL%0,          Yu%Tao%NULL%0,          Chong%Yu%NULL%0,          Xiaoyan%Deng%NULL%0,          Caili%Zhao%NULL%0,          Silu%Meng%NULL%0,          Fangxu%Tang%89650793@qq.com%0,          Dong%Xu%89650793@qq.com%0,          Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%0,          Nan%Hu%NULL%0,          Jing%Lou%NULL%0,          Kun%Chen%NULL%0,          Xuqin%Kang%NULL%0,          Zhenjun%Xiang%NULL%0,          Hui%Chen%NULL%0,          Dali%Wang%NULL%0,          Ning%Liu%NULL%0,          Dong%Liu%NULL%0,          Gang%Chen%NULL%0,          Yongliang%Zhang%NULL%0,          Dou%Li%NULL%0,          Jianren%Li%NULL%0,          Huixin%Lian%NULL%0,          Shengmei%Niu%NULL%0,          Luxi%Zhang%NULL%0,          Jinjun%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%0,          Owen Tak-Yin%Tsang%NULL%1,          Wai-Shing%Leung%NULL%1,          Anthony Raymond%Tam%NULL%1,          Tak-Chiu%Wu%NULL%1,          David Christopher%Lung%NULL%1,          Cyril Chik-Yan%Yip%NULL%0,          Jian-Piao%Cai%NULL%0,          Jacky Man-Chun%Chan%NULL%1,          Thomas Shiu-Hong%Chik%NULL%1,          Daphne Pui-Ling%Lau%NULL%1,          Chris Yau-Chung%Choi%NULL%1,          Lin-Lei%Chen%NULL%1,          Wan-Mui%Chan%NULL%0,          Kwok-Hung%Chan%NULL%0,          Jonathan Daniel%Ip%NULL%0,          Anthony Chin-Ki%Ng%NULL%1,          Rosana Wing-Shan%Poon%NULL%0,          Cui-Ting%Luo%NULL%1,          Vincent Chi-Chung%Cheng%NULL%0,          Jasper Fuk-Woo%Chan%NULL%1,          Ivan Fan-Ngai%Hung%NULL%1,          Zhiwei%Chen%NULL%1,          Honglin%Chen%NULL%0,          Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,          Qingjie%Yi%NULL%1,          Shibing%Fan%NULL%1,          Jinglong%Lv%13608388377@163.com%0,          Xianxiang%Zhang%NULL%2,          Xianxiang%Zhang%NULL%0,          Lian%Guo%NULL%1,          Chunhui%Lang%NULL%0,          Qing%Xiao%NULL%1,          Kaihu%Xiao%NULL%2,          Zhengjun%Yi%NULL%1,          Mao%Qiang%NULL%1,          Jianglin%Xiang%NULL%1,          Bangshuo%Zhang%NULL%1,          Yongping%Chen%NULL%1,          Cailiang%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,          Wenbo%He%NULL%0,          Xiaomei%Yu%NULL%0,          Dalong%Hu%NULL%0,          Mingwei%Bao%NULL%0,          Huafen%Liu%NULL%0,          Jiali%Zhou%NULL%0,          Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%0,          Jing-Hui%Dong%NULL%0,          Wei-Min%An%NULL%0,          Xiao-Yan%Lv%15001008285@139.com%0,          Xiao-Ping%Yin%yinxiaoping78@sina.com%0,          Jian-Zeng%Zhang%NULL%0,          Li%Dong%NULL%0,          Xi%Ma%NULL%0,          Hong-Jie%Zhang%NULL%0,          Bu-Lang%Gao%browngao@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fanfan%Zeng%NULL%1,          Chan%Dai%NULL%2,          Chan%Dai%NULL%0,          Pengcheng%Cai%NULL%1,          Jinbiao%Wang%NULL%1,          Lei%Xu%NULL%0,          Jianyu%Li%NULL%1,          Guoyun%Hu%NULL%1,          Zheng%Wang%zhengwang@hust.edu.cn%1,          Fang%Zheng%zhengfangtj@hust.edu.cn%1,          Lin%Wang%lin_wang@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,          Jie%Zhang%945128911@qq.com%2,          Bowen%Wang%NULL%2,          Xionglin%Zhu%NULL%2,          Qiang%Wang%NULL%0,          Shiming%Qiu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,          Jie%Zhang%945128911@qq.com%0,          Bowen%Wang%NULL%0,          Xionglin%Zhu%NULL%0,          Qiang%Wang%NULL%0,          Shiming%Qiu%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1218,22 +1329,22 @@
         <v>43952.0</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>224</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>244</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>226</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>227</v>
       </c>
       <c r="I2" t="s">
         <v>156</v>
@@ -1253,7 +1364,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1282,7 +1393,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1311,7 +1422,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -1340,7 +1451,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -1369,7 +1480,7 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="F7" t="s">
         <v>58</v>
@@ -1398,7 +1509,7 @@
         <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="F8" t="s">
         <v>63</v>
@@ -1427,7 +1538,7 @@
         <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="F9" t="s">
         <v>68</v>
@@ -1456,7 +1567,7 @@
         <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="F10" t="s">
         <v>72</v>
@@ -1485,7 +1596,7 @@
         <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="F11" t="s">
         <v>76</v>
@@ -1514,7 +1625,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -1543,7 +1654,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -1572,7 +1683,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -1601,7 +1712,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -1630,7 +1741,7 @@
         <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="F16" t="s">
         <v>99</v>
@@ -1659,7 +1770,7 @@
         <v>102</v>
       </c>
       <c r="E17" t="s">
-        <v>222</v>
+        <v>259</v>
       </c>
       <c r="F17" t="s">
         <v>104</v>
@@ -1688,7 +1799,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>223</v>
+        <v>260</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>

--- a/Covid_19_Dataset_and_References/References/78.xlsx
+++ b/Covid_19_Dataset_and_References/References/78.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="295">
   <si>
     <t>Doi</t>
   </si>
@@ -996,6 +996,108 @@
   </si>
   <si>
     <t>[Gemin%Zhang%NULL%0,          Jie%Zhang%945128911@qq.com%0,          Bowen%Wang%NULL%0,          Xionglin%Zhu%NULL%0,          Qiang%Wang%NULL%0,          Shiming%Qiu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%3,   Di%Wu%xref no email%3,   Wei%Guo%xref no email%3,   Yong%Cao%xref no email%3,   Da%Huang%xref no email%3,   Hongwu%Wang%xref no email%3,   Tao%Wang%xref no email%0,   Xiaoyun%Zhang%xref no email%3,   Huilong%Chen%xref no email%3,   Haijing%Yu%xref no email%3,   Xiaoping%Zhang%xref no email%3,   Minxia%Zhang%xref no email%3,   Shiji%Wu%xref no email%3,   Jianxin%Song%xref no email%3,   Tao%Chen%xref no email%3,   Meifang%Han%xref no email%3,   Shusheng%Li%xref no email%3,   Xiaoping%Luo%xref no email%3,   Jianping%Zhao%xref no email%3,   Qin%Ning%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,           Di%Wu%NULL%0,           Huilong%Chen%NULL%0,           Weiming%Yan%NULL%0,           Danlei%Yang%NULL%0,           Guang%Chen%NULL%0,           Ke%Ma%NULL%0,           Dong%Xu%NULL%0,           Haijing%Yu%NULL%0,           Hongwu%Wang%NULL%0,           Tao%Wang%NULL%0,           Wei%Guo%NULL%0,           Jia%Chen%NULL%0,           Chen%Ding%NULL%0,           Xiaoping%Zhang%NULL%0,           Jiaquan%Huang%NULL%0,           Meifang%Han%NULL%0,           Shusheng%Li%NULL%0,           Xiaoping%Luo%NULL%0,           Jianping%Zhao%NULL%0,           Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,           Wenhua%Liang%NULL%0,           Mei%Jiang%NULL%0,           Weijie%Guan%NULL%0,           Chen%Zhan%NULL%2,           Tao%Wang%NULL%0,           Chunli%Tang%NULL%2,           Ling%Sang%NULL%0,           Jiaxing%Liu%NULL%2,           Zhengyi%Ni%NULL%0,           Yu%Hu%NULL%0,           Lei%Liu%NULL%0,           Hong%Shan%NULL%0,           Chunliang%Lei%NULL%0,           Yixiang%Peng%NULL%0,           Li%Wei%NULL%0,           Yong%Liu%NULL%0,           Yahua%Hu%NULL%0,           Peng%Peng%NULL%0,           Jianming%Wang%NULL%0,           Jiyang%Liu%NULL%0,           Zhong%Chen%NULL%0,           Gang%Li%NULL%0,           Zhijian%Zheng%NULL%0,           Shaoqin%Qiu%NULL%0,           Jie%Luo%NULL%0,           Changjiang%Ye%NULL%0,           Shaoyong%Zhu%NULL%0,           Xiaoqing%Liu%NULL%0,           Linling%Cheng%NULL%2,           Feng%Ye%NULL%0,           Jinping%Zheng%NULL%0,           Nuofu%Zhang%NULL%0,           Yimin%Li%NULL%0,           Jianxing%He%NULL%0,           Shiyue%Li%lishiyue@188.com%0,           Nanshan%Zhong%NULL%0,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[H.%Hou%NULL%1,           B.%Zhang%NULL%1,           H.%Huang%NULL%1,           Y.%Luo%NULL%1,           S.%Wu%NULL%1,           G.%Tang%NULL%1,           W.%Liu%NULL%1,           L.%Mao%NULL%2,           L.%Mao%NULL%0,           F.%Wang%fengwang@tjh.tjmu.edu.cn%1,           Z.%Sun%zysun@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang%Liu%NULL%1,           Lin%Li%NULL%0,           MengDa%Xu%NULL%1,           Juan%Wu%NULL%1,           Ding%Luo%NULL%1,           YuSi%Zhu%NULL%1,           BiXi%Li%NULL%1,           XiaoYang%Song%NULL%1,           Xiang%Zhou%zhouxiang188483@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Kai-Cai%Liu%NULL%1,           Ping%Xu%xuping1027@163.com%1,           Wei-Fu%Lv%weifulv@ustc.edu.cn%1,           Xiao-Hui%Qiu%NULL%1,           Jin-Long%Yao%NULL%1,           Jin-Feng%Gu%NULL%1,           Wei%Wei%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Fengjun%Liu%NULL%1,           Qi%Zhang%NULL%0,           Chao%Huang%NULL%1,           Chunzi%Shi%NULL%1,           Lin%Wang%NULL%0,           Nannan%Shi%NULL%0,           Cong%Fang%NULL%1,           Fei%Shan%NULL%0,           Xue%Mei%NULL%1,           Jing%Shi%NULL%0,           Fengxiang%Song%NULL%1,           Zhongcheng%Yang%NULL%1,           Zezhen%Ding%NULL%1,           Xiaoming%Su%NULL%1,           Hongzhou%Lu%NULL%0,           Tongyu%Zhu%NULL%0,           Zhiyong%Zhang%NULL%0,           Lei%Shi%NULL%1,           Yuxin%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Pan%NULL%1,           Mi%Mu%NULL%0,           Pengcheng%Yang%NULL%0,           Yu%Sun%NULL%1,           Runsheng%Wang%NULL%0,           Junhong%Yan%NULL%1,           Pibao%Li%NULL%1,           Baoguang%Hu%NULL%1,           Jing%Wang%NULL%0,           Chao%Hu%NULL%0,           Yuan%Jin%NULL%1,           Xun%Niu%NULL%1,           Rongyu%Ping%NULL%0,           Yingzhen%Du%NULL%1,           Tianzhi%Li%NULL%0,           Guogang%Xu%NULL%0,           Qinyong%Hu%NULL%0,           Lei%Tu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,           Ruoqi%Ning%NULL%0,           Yu%Tao%NULL%0,           Chong%Yu%NULL%0,           Xiaoyan%Deng%NULL%0,           Caili%Zhao%NULL%0,           Silu%Meng%NULL%0,           Fangxu%Tang%89650793@qq.com%0,           Dong%Xu%89650793@qq.com%0,           Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%0,           Nan%Hu%NULL%0,           Jing%Lou%NULL%0,           Kun%Chen%NULL%0,           Xuqin%Kang%NULL%0,           Zhenjun%Xiang%NULL%0,           Hui%Chen%NULL%0,           Dali%Wang%NULL%0,           Ning%Liu%NULL%0,           Dong%Liu%NULL%0,           Gang%Chen%NULL%0,           Yongliang%Zhang%NULL%0,           Dou%Li%NULL%0,           Jianren%Li%NULL%0,           Huixin%Lian%NULL%0,           Shengmei%Niu%NULL%0,           Luxi%Zhang%NULL%0,           Jinjun%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%0,           Owen Tak-Yin%Tsang%NULL%1,           Wai-Shing%Leung%NULL%1,           Anthony Raymond%Tam%NULL%1,           Tak-Chiu%Wu%NULL%1,           David Christopher%Lung%NULL%1,           Cyril Chik-Yan%Yip%NULL%0,           Jian-Piao%Cai%NULL%0,           Jacky Man-Chun%Chan%NULL%1,           Thomas Shiu-Hong%Chik%NULL%1,           Daphne Pui-Ling%Lau%NULL%1,           Chris Yau-Chung%Choi%NULL%1,           Lin-Lei%Chen%NULL%1,           Wan-Mui%Chan%NULL%0,           Kwok-Hung%Chan%NULL%0,           Jonathan Daniel%Ip%NULL%0,           Anthony Chin-Ki%Ng%NULL%1,           Rosana Wing-Shan%Poon%NULL%0,           Cui-Ting%Luo%NULL%1,           Vincent Chi-Chung%Cheng%NULL%0,           Jasper Fuk-Woo%Chan%NULL%1,           Ivan Fan-Ngai%Hung%NULL%1,           Zhiwei%Chen%NULL%1,           Honglin%Chen%NULL%0,           Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,           Qingjie%Yi%NULL%1,           Shibing%Fan%NULL%1,           Jinglong%Lv%13608388377@163.com%0,           Xianxiang%Zhang%NULL%2,           Xianxiang%Zhang%NULL%0,           Lian%Guo%NULL%1,           Chunhui%Lang%NULL%0,           Qing%Xiao%NULL%1,           Kaihu%Xiao%NULL%2,           Zhengjun%Yi%NULL%1,           Mao%Qiang%NULL%1,           Jianglin%Xiang%NULL%1,           Bangshuo%Zhang%NULL%1,           Yongping%Chen%NULL%1,           Cailiang%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,           Wenbo%He%NULL%0,           Xiaomei%Yu%NULL%0,           Dalong%Hu%NULL%0,           Mingwei%Bao%NULL%0,           Huafen%Liu%NULL%0,           Jiali%Zhou%NULL%0,           Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%0,           Jing-Hui%Dong%NULL%0,           Wei-Min%An%NULL%0,           Xiao-Yan%Lv%15001008285@139.com%0,           Xiao-Ping%Yin%yinxiaoping78@sina.com%0,           Jian-Zeng%Zhang%NULL%0,           Li%Dong%NULL%0,           Xi%Ma%NULL%0,           Hong-Jie%Zhang%NULL%0,           Bu-Lang%Gao%browngao@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fanfan%Zeng%NULL%1,           Chan%Dai%NULL%2,           Chan%Dai%NULL%0,           Pengcheng%Cai%NULL%1,           Jinbiao%Wang%NULL%1,           Lei%Xu%NULL%0,           Jianyu%Li%NULL%1,           Guoyun%Hu%NULL%1,           Zheng%Wang%zhengwang@hust.edu.cn%1,           Fang%Zheng%zhengfangtj@hust.edu.cn%1,           Lin%Wang%lin_wang@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,           Jie%Zhang%945128911@qq.com%2,           Bowen%Wang%NULL%2,           Xionglin%Zhu%NULL%2,           Qiang%Wang%NULL%0,           Shiming%Qiu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,           Jie%Zhang%945128911@qq.com%0,           Bowen%Wang%NULL%0,           Xionglin%Zhu%NULL%0,           Qiang%Wang%NULL%0,           Shiming%Qiu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%3,    Di%Wu%xref no email%3,    Wei%Guo%xref no email%3,    Yong%Cao%xref no email%3,    Da%Huang%xref no email%3,    Hongwu%Wang%xref no email%3,    Tao%Wang%xref no email%3,    Xiaoyun%Zhang%xref no email%3,    Huilong%Chen%xref no email%3,    Haijing%Yu%xref no email%3,    Xiaoping%Zhang%xref no email%3,    Minxia%Zhang%xref no email%3,    Shiji%Wu%xref no email%3,    Jianxin%Song%xref no email%3,    Tao%Chen%xref no email%3,    Meifang%Han%xref no email%3,    Shusheng%Li%xref no email%3,    Xiaoping%Luo%xref no email%3,    Jianping%Zhao%xref no email%3,    Qin%Ning%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,            Di%Wu%NULL%0,            Huilong%Chen%NULL%0,            Weiming%Yan%NULL%0,            Danlei%Yang%NULL%0,            Guang%Chen%NULL%0,            Ke%Ma%NULL%0,            Dong%Xu%NULL%0,            Haijing%Yu%NULL%0,            Hongwu%Wang%NULL%0,            Tao%Wang%NULL%0,            Wei%Guo%NULL%0,            Jia%Chen%NULL%0,            Chen%Ding%NULL%0,            Xiaoping%Zhang%NULL%0,            Jiaquan%Huang%NULL%0,            Meifang%Han%NULL%0,            Shusheng%Li%NULL%0,            Xiaoping%Luo%NULL%0,            Jianping%Zhao%NULL%0,            Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,            Wenhua%Liang%NULL%0,            Mei%Jiang%NULL%0,            Weijie%Guan%NULL%0,            Chen%Zhan%NULL%2,            Tao%Wang%NULL%0,            Chunli%Tang%NULL%2,            Ling%Sang%NULL%0,            Jiaxing%Liu%NULL%2,            Zhengyi%Ni%NULL%0,            Yu%Hu%NULL%0,            Lei%Liu%NULL%0,            Hong%Shan%NULL%0,            Chunliang%Lei%NULL%0,            Yixiang%Peng%NULL%0,            Li%Wei%NULL%0,            Yong%Liu%NULL%0,            Yahua%Hu%NULL%0,            Peng%Peng%NULL%0,            Jianming%Wang%NULL%0,            Jiyang%Liu%NULL%0,            Zhong%Chen%NULL%0,            Gang%Li%NULL%0,            Zhijian%Zheng%NULL%0,            Shaoqin%Qiu%NULL%0,            Jie%Luo%NULL%0,            Changjiang%Ye%NULL%0,            Shaoyong%Zhu%NULL%0,            Xiaoqing%Liu%NULL%0,            Linling%Cheng%NULL%2,            Feng%Ye%NULL%0,            Jinping%Zheng%NULL%0,            Nuofu%Zhang%NULL%0,            Yimin%Li%NULL%0,            Jianxing%He%NULL%0,            Shiyue%Li%lishiyue@188.com%0,            Nanshan%Zhong%NULL%0,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[H.%Hou%NULL%1,            B.%Zhang%NULL%1,            H.%Huang%NULL%1,            Y.%Luo%NULL%1,            S.%Wu%NULL%1,            G.%Tang%NULL%1,            W.%Liu%NULL%1,            L.%Mao%NULL%2,            L.%Mao%NULL%0,            F.%Wang%fengwang@tjh.tjmu.edu.cn%1,            Z.%Sun%zysun@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang%Liu%NULL%1,            Lin%Li%NULL%0,            MengDa%Xu%NULL%1,            Juan%Wu%NULL%1,            Ding%Luo%NULL%1,            YuSi%Zhu%NULL%1,            BiXi%Li%NULL%1,            XiaoYang%Song%NULL%1,            Xiang%Zhou%zhouxiang188483@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Kai-Cai%Liu%NULL%1,            Ping%Xu%xuping1027@163.com%1,            Wei-Fu%Lv%weifulv@ustc.edu.cn%1,            Xiao-Hui%Qiu%NULL%1,            Jin-Long%Yao%NULL%1,            Jin-Feng%Gu%NULL%1,            Wei%Wei%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Fengjun%Liu%NULL%1,            Qi%Zhang%NULL%0,            Chao%Huang%NULL%1,            Chunzi%Shi%NULL%1,            Lin%Wang%NULL%0,            Nannan%Shi%NULL%0,            Cong%Fang%NULL%1,            Fei%Shan%NULL%0,            Xue%Mei%NULL%1,            Jing%Shi%NULL%1,            Fengxiang%Song%NULL%1,            Zhongcheng%Yang%NULL%1,            Zezhen%Ding%NULL%1,            Xiaoming%Su%NULL%1,            Hongzhou%Lu%NULL%0,            Tongyu%Zhu%NULL%0,            Zhiyong%Zhang%NULL%0,            Lei%Shi%NULL%1,            Yuxin%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Pan%NULL%1,            Mi%Mu%NULL%0,            Pengcheng%Yang%NULL%0,            Yu%Sun%NULL%1,            Runsheng%Wang%NULL%0,            Junhong%Yan%NULL%1,            Pibao%Li%NULL%1,            Baoguang%Hu%NULL%1,            Jing%Wang%NULL%0,            Chao%Hu%NULL%0,            Yuan%Jin%NULL%1,            Xun%Niu%NULL%1,            Rongyu%Ping%NULL%0,            Yingzhen%Du%NULL%1,            Tianzhi%Li%NULL%0,            Guogang%Xu%NULL%0,            Qinyong%Hu%NULL%0,            Lei%Tu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,            Ruoqi%Ning%NULL%0,            Yu%Tao%NULL%0,            Chong%Yu%NULL%0,            Xiaoyan%Deng%NULL%0,            Caili%Zhao%NULL%0,            Silu%Meng%NULL%0,            Fangxu%Tang%89650793@qq.com%0,            Dong%Xu%89650793@qq.com%0,            Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%0,            Nan%Hu%NULL%0,            Jing%Lou%NULL%0,            Kun%Chen%NULL%0,            Xuqin%Kang%NULL%0,            Zhenjun%Xiang%NULL%0,            Hui%Chen%NULL%0,            Dali%Wang%NULL%0,            Ning%Liu%NULL%0,            Dong%Liu%NULL%0,            Gang%Chen%NULL%0,            Yongliang%Zhang%NULL%0,            Dou%Li%NULL%0,            Jianren%Li%NULL%0,            Huixin%Lian%NULL%0,            Shengmei%Niu%NULL%0,            Luxi%Zhang%NULL%0,            Jinjun%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%0,            Owen Tak-Yin%Tsang%NULL%1,            Wai-Shing%Leung%NULL%1,            Anthony Raymond%Tam%NULL%1,            Tak-Chiu%Wu%NULL%1,            David Christopher%Lung%NULL%1,            Cyril Chik-Yan%Yip%NULL%0,            Jian-Piao%Cai%NULL%0,            Jacky Man-Chun%Chan%NULL%1,            Thomas Shiu-Hong%Chik%NULL%1,            Daphne Pui-Ling%Lau%NULL%1,            Chris Yau-Chung%Choi%NULL%1,            Lin-Lei%Chen%NULL%1,            Wan-Mui%Chan%NULL%0,            Kwok-Hung%Chan%NULL%0,            Jonathan Daniel%Ip%NULL%0,            Anthony Chin-Ki%Ng%NULL%1,            Rosana Wing-Shan%Poon%NULL%0,            Cui-Ting%Luo%NULL%1,            Vincent Chi-Chung%Cheng%NULL%0,            Jasper Fuk-Woo%Chan%NULL%1,            Ivan Fan-Ngai%Hung%NULL%1,            Zhiwei%Chen%NULL%1,            Honglin%Chen%NULL%0,            Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,            Qingjie%Yi%NULL%1,            Shibing%Fan%NULL%1,            Jinglong%Lv%13608388377@163.com%0,            Xianxiang%Zhang%NULL%2,            Xianxiang%Zhang%NULL%0,            Lian%Guo%NULL%1,            Chunhui%Lang%NULL%0,            Qing%Xiao%NULL%1,            Kaihu%Xiao%NULL%2,            Zhengjun%Yi%NULL%1,            Mao%Qiang%NULL%1,            Jianglin%Xiang%NULL%1,            Bangshuo%Zhang%NULL%1,            Yongping%Chen%NULL%1,            Cailiang%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,            Wenbo%He%NULL%0,            Xiaomei%Yu%NULL%0,            Dalong%Hu%NULL%0,            Mingwei%Bao%NULL%0,            Huafen%Liu%NULL%0,            Jiali%Zhou%NULL%0,            Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%0,            Jing-Hui%Dong%NULL%0,            Wei-Min%An%NULL%0,            Xiao-Yan%Lv%15001008285@139.com%0,            Xiao-Ping%Yin%yinxiaoping78@sina.com%0,            Jian-Zeng%Zhang%NULL%0,            Li%Dong%NULL%0,            Xi%Ma%NULL%0,            Hong-Jie%Zhang%NULL%0,            Bu-Lang%Gao%browngao@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fanfan%Zeng%NULL%1,            Chan%Dai%NULL%2,            Chan%Dai%NULL%0,            Pengcheng%Cai%NULL%1,            Jinbiao%Wang%NULL%1,            Lei%Xu%NULL%0,            Jianyu%Li%NULL%1,            Guoyun%Hu%NULL%1,            Zheng%Wang%zhengwang@hust.edu.cn%1,            Fang%Zheng%zhengfangtj@hust.edu.cn%1,            Lin%Wang%lin_wang@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,            Jie%Zhang%945128911@qq.com%2,            Bowen%Wang%NULL%2,            Xionglin%Zhu%NULL%2,            Qiang%Wang%NULL%0,            Shiming%Qiu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,            Jie%Zhang%945128911@qq.com%0,            Bowen%Wang%NULL%0,            Xionglin%Zhu%NULL%0,            Qiang%Wang%NULL%0,            Shiming%Qiu%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1437,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1364,7 +1466,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1393,7 +1495,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1422,7 +1524,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -1451,7 +1553,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -1480,7 +1582,7 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="F7" t="s">
         <v>58</v>
@@ -1509,7 +1611,7 @@
         <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="F8" t="s">
         <v>63</v>
@@ -1538,7 +1640,7 @@
         <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="F9" t="s">
         <v>68</v>
@@ -1567,7 +1669,7 @@
         <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="F10" t="s">
         <v>72</v>
@@ -1596,7 +1698,7 @@
         <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="F11" t="s">
         <v>76</v>
@@ -1625,7 +1727,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -1654,7 +1756,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -1683,7 +1785,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -1712,7 +1814,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -1741,7 +1843,7 @@
         <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="F16" t="s">
         <v>99</v>
@@ -1770,7 +1872,7 @@
         <v>102</v>
       </c>
       <c r="E17" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="F17" t="s">
         <v>104</v>
@@ -1799,7 +1901,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>

--- a/Covid_19_Dataset_and_References/References/78.xlsx
+++ b/Covid_19_Dataset_and_References/References/78.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="330">
   <si>
     <t>Doi</t>
   </si>
@@ -1098,6 +1098,122 @@
   </si>
   <si>
     <t>[Gemin%Zhang%NULL%0,            Jie%Zhang%945128911@qq.com%0,            Bowen%Wang%NULL%0,            Xionglin%Zhu%NULL%0,            Qiang%Wang%NULL%0,            Shiming%Qiu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%3,     Di%Wu%xref no email%3,     Wei%Guo%xref no email%3,     Yong%Cao%xref no email%3,     Da%Huang%xref no email%3,     Hongwu%Wang%xref no email%3,     Tao%Wang%xref no email%3,     Xiaoyun%Zhang%xref no email%3,     Huilong%Chen%xref no email%3,     Haijing%Yu%xref no email%3,     Xiaoping%Zhang%xref no email%3,     Minxia%Zhang%xref no email%3,     Shiji%Wu%xref no email%3,     Jianxin%Song%xref no email%3,     Tao%Chen%xref no email%3,     Meifang%Han%xref no email%3,     Shusheng%Li%xref no email%3,     Xiaoping%Luo%xref no email%3,     Jianping%Zhao%xref no email%3,     Qin%Ning%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,             Di%Wu%NULL%0,             Huilong%Chen%NULL%0,             Weiming%Yan%NULL%0,             Danlei%Yang%NULL%0,             Guang%Chen%NULL%0,             Ke%Ma%NULL%0,             Dong%Xu%NULL%0,             Haijing%Yu%NULL%0,             Hongwu%Wang%NULL%0,             Tao%Wang%NULL%0,             Wei%Guo%NULL%0,             Jia%Chen%NULL%0,             Chen%Ding%NULL%0,             Xiaoping%Zhang%NULL%0,             Jiaquan%Huang%NULL%0,             Meifang%Han%NULL%0,             Shusheng%Li%NULL%0,             Xiaoping%Luo%NULL%0,             Jianping%Zhao%NULL%0,             Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,             Wenhua%Liang%NULL%0,             Mei%Jiang%NULL%0,             Weijie%Guan%NULL%0,             Chen%Zhan%NULL%2,             Tao%Wang%NULL%0,             Chunli%Tang%NULL%2,             Ling%Sang%NULL%0,             Jiaxing%Liu%NULL%2,             Zhengyi%Ni%NULL%0,             Yu%Hu%NULL%0,             Lei%Liu%NULL%0,             Hong%Shan%NULL%0,             Chunliang%Lei%NULL%0,             Yixiang%Peng%NULL%0,             Li%Wei%NULL%0,             Yong%Liu%NULL%0,             Yahua%Hu%NULL%0,             Peng%Peng%NULL%0,             Jianming%Wang%NULL%0,             Jiyang%Liu%NULL%0,             Zhong%Chen%NULL%0,             Gang%Li%NULL%0,             Zhijian%Zheng%NULL%0,             Shaoqin%Qiu%NULL%0,             Jie%Luo%NULL%0,             Changjiang%Ye%NULL%0,             Shaoyong%Zhu%NULL%0,             Xiaoqing%Liu%NULL%0,             Linling%Cheng%NULL%2,             Feng%Ye%NULL%0,             Jinping%Zheng%NULL%0,             Nuofu%Zhang%NULL%0,             Yimin%Li%NULL%0,             Jianxing%He%NULL%0,             Shiyue%Li%lishiyue@188.com%0,             Nanshan%Zhong%NULL%0,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[H.%Hou%NULL%1,             B.%Zhang%NULL%1,             H.%Huang%NULL%1,             Y.%Luo%NULL%1,             S.%Wu%NULL%1,             G.%Tang%NULL%1,             W.%Liu%NULL%1,             L.%Mao%NULL%2,             L.%Mao%NULL%0,             F.%Wang%fengwang@tjh.tjmu.edu.cn%1,             Z.%Sun%zysun@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang%Liu%NULL%1,             Lin%Li%NULL%0,             MengDa%Xu%NULL%1,             Juan%Wu%NULL%1,             Ding%Luo%NULL%1,             YuSi%Zhu%NULL%1,             BiXi%Li%NULL%1,             XiaoYang%Song%NULL%1,             Xiang%Zhou%zhouxiang188483@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Kai-Cai%Liu%NULL%1,             Ping%Xu%xuping1027@163.com%1,             Wei-Fu%Lv%weifulv@ustc.edu.cn%1,             Xiao-Hui%Qiu%NULL%1,             Jin-Long%Yao%NULL%1,             Jin-Feng%Gu%NULL%1,             Wei%Wei%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Fengjun%Liu%NULL%1,             Qi%Zhang%NULL%1,             Chao%Huang%NULL%1,             Chunzi%Shi%NULL%1,             Lin%Wang%NULL%0,             Nannan%Shi%NULL%0,             Cong%Fang%NULL%1,             Fei%Shan%NULL%0,             Xue%Mei%NULL%1,             Jing%Shi%NULL%1,             Fengxiang%Song%NULL%1,             Zhongcheng%Yang%NULL%1,             Zezhen%Ding%NULL%1,             Xiaoming%Su%NULL%1,             Hongzhou%Lu%NULL%0,             Tongyu%Zhu%NULL%0,             Zhiyong%Zhang%NULL%0,             Lei%Shi%NULL%1,             Yuxin%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Pan%NULL%1,             Mi%Mu%NULL%0,             Pengcheng%Yang%NULL%0,             Yu%Sun%NULL%1,             Runsheng%Wang%NULL%0,             Junhong%Yan%NULL%1,             Pibao%Li%NULL%1,             Baoguang%Hu%NULL%1,             Jing%Wang%NULL%0,             Chao%Hu%NULL%0,             Yuan%Jin%NULL%1,             Xun%Niu%NULL%1,             Rongyu%Ping%NULL%0,             Yingzhen%Du%NULL%1,             Tianzhi%Li%NULL%0,             Guogang%Xu%NULL%0,             Qinyong%Hu%NULL%0,             Lei%Tu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,             Ruoqi%Ning%NULL%0,             Yu%Tao%NULL%0,             Chong%Yu%NULL%0,             Xiaoyan%Deng%NULL%0,             Caili%Zhao%NULL%0,             Silu%Meng%NULL%0,             Fangxu%Tang%89650793@qq.com%0,             Dong%Xu%89650793@qq.com%0,             Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%0,             Nan%Hu%NULL%0,             Jing%Lou%NULL%0,             Kun%Chen%NULL%0,             Xuqin%Kang%NULL%0,             Zhenjun%Xiang%NULL%0,             Hui%Chen%NULL%0,             Dali%Wang%NULL%0,             Ning%Liu%NULL%0,             Dong%Liu%NULL%0,             Gang%Chen%NULL%0,             Yongliang%Zhang%NULL%0,             Dou%Li%NULL%0,             Jianren%Li%NULL%0,             Huixin%Lian%NULL%0,             Shengmei%Niu%NULL%0,             Luxi%Zhang%NULL%0,             Jinjun%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%0,             Owen Tak-Yin%Tsang%NULL%1,             Wai-Shing%Leung%NULL%1,             Anthony Raymond%Tam%NULL%1,             Tak-Chiu%Wu%NULL%1,             David Christopher%Lung%NULL%1,             Cyril Chik-Yan%Yip%NULL%0,             Jian-Piao%Cai%NULL%0,             Jacky Man-Chun%Chan%NULL%1,             Thomas Shiu-Hong%Chik%NULL%1,             Daphne Pui-Ling%Lau%NULL%1,             Chris Yau-Chung%Choi%NULL%1,             Lin-Lei%Chen%NULL%1,             Wan-Mui%Chan%NULL%0,             Kwok-Hung%Chan%NULL%0,             Jonathan Daniel%Ip%NULL%0,             Anthony Chin-Ki%Ng%NULL%1,             Rosana Wing-Shan%Poon%NULL%0,             Cui-Ting%Luo%NULL%1,             Vincent Chi-Chung%Cheng%NULL%0,             Jasper Fuk-Woo%Chan%NULL%1,             Ivan Fan-Ngai%Hung%NULL%1,             Zhiwei%Chen%NULL%1,             Honglin%Chen%NULL%0,             Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,             Qingjie%Yi%NULL%1,             Shibing%Fan%NULL%1,             Jinglong%Lv%13608388377@163.com%0,             Xianxiang%Zhang%NULL%2,             Xianxiang%Zhang%NULL%0,             Lian%Guo%NULL%1,             Chunhui%Lang%NULL%0,             Qing%Xiao%NULL%1,             Kaihu%Xiao%NULL%2,             Zhengjun%Yi%NULL%1,             Mao%Qiang%NULL%1,             Jianglin%Xiang%NULL%1,             Bangshuo%Zhang%NULL%1,             Yongping%Chen%NULL%1,             Cailiang%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,             Wenbo%He%NULL%0,             Xiaomei%Yu%NULL%0,             Dalong%Hu%NULL%0,             Mingwei%Bao%NULL%0,             Huafen%Liu%NULL%0,             Jiali%Zhou%NULL%0,             Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%0,             Jing-Hui%Dong%NULL%0,             Wei-Min%An%NULL%0,             Xiao-Yan%Lv%15001008285@139.com%0,             Xiao-Ping%Yin%yinxiaoping78@sina.com%0,             Jian-Zeng%Zhang%NULL%0,             Li%Dong%NULL%0,             Xi%Ma%NULL%0,             Hong-Jie%Zhang%NULL%0,             Bu-Lang%Gao%browngao@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fanfan%Zeng%NULL%1,             Chan%Dai%NULL%2,             Chan%Dai%NULL%0,             Pengcheng%Cai%NULL%1,             Jinbiao%Wang%NULL%1,             Lei%Xu%NULL%0,             Jianyu%Li%NULL%1,             Guoyun%Hu%NULL%1,             Zheng%Wang%zhengwang@hust.edu.cn%1,             Fang%Zheng%zhengfangtj@hust.edu.cn%1,             Lin%Wang%lin_wang@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Since December 2019, 2019 novel coronavirus pneumonia emerged in Wuhan city and rapidly spread throughout China and even the world.
+ We sought to analyse the clinical characteristics and laboratory findings of some cases with 2019 novel coronavirus pneumonia .
+Methods
+In this retrospective study, we extracted the data on 95 patients with laboratory-confirmed 2019 novel coronavirus pneumonia in Wuhan Xinzhou District People’s Hospital from January 16th to February 25th, 2020. Cases were confirmed by real-time RT-PCR and abnormal radiologic findings.
+ Outcomes were followed up until March 2th, 2020.
+Results
+Higher temperature, blood leukocyte count, neutrophil count, neutrophil percentage, C-reactive protein level, D-dimer level, alanine aminotransferase activity, aspartate aminotransferase activity, α - hydroxybutyrate dehydrogenase activity, lactate dehydrogenase activity and creatine kinase activity were related to severe 2019 novel coronavirus pneumonia and composite endpoint, and so were lower lymphocyte count, lymphocyte percentage and total protein level.
+ Age below 40 or above 60 years old, male, higher Creatinine level, and lower platelet count also seemed related to severe 2019 novel coronavirus pneumonia and composite endpoint, however the P values were greater than 0.05, which mean under the same condition studies of larger samples are needed in the future.
+Conclusion
+Multiple factors were related to severe 2019 novel coronavirus pneumonia and composite endpoint, and more related studies are needed in the future.
+</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,             Jie%Zhang%945128911@qq.com%2,             Bowen%Wang%NULL%2,             Xionglin%Zhu%NULL%2,             Qiang%Wang%NULL%0,             Shiming%Qiu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,             Jie%Zhang%945128911@qq.com%0,             Bowen%Wang%NULL%0,             Xionglin%Zhu%NULL%0,             Qiang%Wang%NULL%0,             Shiming%Qiu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%3,      Di%Wu%xref no email%3,      Wei%Guo%xref no email%3,      Yong%Cao%xref no email%3,      Da%Huang%xref no email%3,      Hongwu%Wang%xref no email%3,      Tao%Wang%xref no email%3,      Xiaoyun%Zhang%xref no email%3,      Huilong%Chen%xref no email%3,      Haijing%Yu%xref no email%3,      Xiaoping%Zhang%xref no email%3,      Minxia%Zhang%xref no email%3,      Shiji%Wu%xref no email%3,      Jianxin%Song%xref no email%3,      Tao%Chen%xref no email%3,      Meifang%Han%xref no email%3,      Shusheng%Li%xref no email%3,      Xiaoping%Luo%xref no email%3,      Jianping%Zhao%xref no email%3,      Qin%Ning%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,              Di%Wu%NULL%0,              Huilong%Chen%NULL%0,              Weiming%Yan%NULL%0,              Danlei%Yang%NULL%0,              Guang%Chen%NULL%0,              Ke%Ma%NULL%0,              Dong%Xu%NULL%0,              Haijing%Yu%NULL%0,              Hongwu%Wang%NULL%0,              Tao%Wang%NULL%0,              Wei%Guo%NULL%0,              Jia%Chen%NULL%0,              Chen%Ding%NULL%0,              Xiaoping%Zhang%NULL%0,              Jiaquan%Huang%NULL%0,              Meifang%Han%NULL%0,              Shusheng%Li%NULL%0,              Xiaoping%Luo%NULL%0,              Jianping%Zhao%NULL%0,              Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,              Wenhua%Liang%NULL%0,              Mei%Jiang%NULL%0,              Weijie%Guan%NULL%0,              Chen%Zhan%NULL%2,              Tao%Wang%NULL%0,              Chunli%Tang%NULL%2,              Ling%Sang%NULL%0,              Jiaxing%Liu%NULL%2,              Zhengyi%Ni%NULL%0,              Yu%Hu%NULL%0,              Lei%Liu%NULL%0,              Hong%Shan%NULL%0,              Chunliang%Lei%NULL%0,              Yixiang%Peng%NULL%0,              Li%Wei%NULL%0,              Yong%Liu%NULL%0,              Yahua%Hu%NULL%0,              Peng%Peng%NULL%0,              Jianming%Wang%NULL%0,              Jiyang%Liu%NULL%0,              Zhong%Chen%NULL%0,              Gang%Li%NULL%0,              Zhijian%Zheng%NULL%0,              Shaoqin%Qiu%NULL%0,              Jie%Luo%NULL%0,              Changjiang%Ye%NULL%0,              Shaoyong%Zhu%NULL%0,              Xiaoqing%Liu%NULL%0,              Linling%Cheng%NULL%2,              Feng%Ye%NULL%0,              Jinping%Zheng%NULL%0,              Nuofu%Zhang%NULL%0,              Yimin%Li%NULL%0,              Jianxing%He%NULL%0,              Shiyue%Li%lishiyue@188.com%0,              Nanshan%Zhong%NULL%0,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[H.%Hou%NULL%1,              B.%Zhang%NULL%1,              H.%Huang%NULL%1,              Y.%Luo%NULL%1,              S.%Wu%NULL%1,              G.%Tang%NULL%1,              W.%Liu%NULL%1,              L.%Mao%NULL%2,              L.%Mao%NULL%0,              F.%Wang%fengwang@tjh.tjmu.edu.cn%1,              Z.%Sun%zysun@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang%Liu%NULL%1,              Lin%Li%NULL%0,              MengDa%Xu%NULL%1,              Juan%Wu%NULL%1,              Ding%Luo%NULL%1,              YuSi%Zhu%NULL%1,              BiXi%Li%NULL%1,              XiaoYang%Song%NULL%1,              Xiang%Zhou%zhouxiang188483@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Kai-Cai%Liu%NULL%1,              Ping%Xu%xuping1027@163.com%1,              Wei-Fu%Lv%weifulv@ustc.edu.cn%1,              Xiao-Hui%Qiu%NULL%1,              Jin-Long%Yao%NULL%1,              Jin-Feng%Gu%NULL%1,              Wei%Wei%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Fengjun%Liu%NULL%1,              Qi%Zhang%NULL%1,              Chao%Huang%NULL%1,              Chunzi%Shi%NULL%1,              Lin%Wang%NULL%0,              Nannan%Shi%NULL%0,              Cong%Fang%NULL%1,              Fei%Shan%NULL%0,              Xue%Mei%NULL%1,              Jing%Shi%NULL%1,              Fengxiang%Song%NULL%1,              Zhongcheng%Yang%NULL%1,              Zezhen%Ding%NULL%1,              Xiaoming%Su%NULL%1,              Hongzhou%Lu%NULL%0,              Tongyu%Zhu%NULL%0,              Zhiyong%Zhang%NULL%0,              Lei%Shi%NULL%1,              Yuxin%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Pan%NULL%1,              Mi%Mu%NULL%0,              Pengcheng%Yang%NULL%0,              Yu%Sun%NULL%1,              Runsheng%Wang%NULL%0,              Junhong%Yan%NULL%1,              Pibao%Li%NULL%1,              Baoguang%Hu%NULL%1,              Jing%Wang%NULL%0,              Chao%Hu%NULL%0,              Yuan%Jin%NULL%1,              Xun%Niu%NULL%1,              Rongyu%Ping%NULL%0,              Yingzhen%Du%NULL%1,              Tianzhi%Li%NULL%0,              Guogang%Xu%NULL%0,              Qinyong%Hu%NULL%0,              Lei%Tu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,              Ruoqi%Ning%NULL%0,              Yu%Tao%NULL%0,              Chong%Yu%NULL%0,              Xiaoyan%Deng%NULL%0,              Caili%Zhao%NULL%0,              Silu%Meng%NULL%0,              Fangxu%Tang%89650793@qq.com%0,              Dong%Xu%89650793@qq.com%0,              Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%0,              Nan%Hu%NULL%0,              Jing%Lou%NULL%0,              Kun%Chen%NULL%0,              Xuqin%Kang%NULL%0,              Zhenjun%Xiang%NULL%0,              Hui%Chen%NULL%0,              Dali%Wang%NULL%0,              Ning%Liu%NULL%0,              Dong%Liu%NULL%0,              Gang%Chen%NULL%0,              Yongliang%Zhang%NULL%0,              Dou%Li%NULL%0,              Jianren%Li%NULL%0,              Huixin%Lian%NULL%0,              Shengmei%Niu%NULL%0,              Luxi%Zhang%NULL%0,              Jinjun%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%0,              Owen Tak-Yin%Tsang%NULL%1,              Wai-Shing%Leung%NULL%1,              Anthony Raymond%Tam%NULL%1,              Tak-Chiu%Wu%NULL%1,              David Christopher%Lung%NULL%1,              Cyril Chik-Yan%Yip%NULL%0,              Jian-Piao%Cai%NULL%0,              Jacky Man-Chun%Chan%NULL%1,              Thomas Shiu-Hong%Chik%NULL%1,              Daphne Pui-Ling%Lau%NULL%1,              Chris Yau-Chung%Choi%NULL%1,              Lin-Lei%Chen%NULL%1,              Wan-Mui%Chan%NULL%0,              Kwok-Hung%Chan%NULL%0,              Jonathan Daniel%Ip%NULL%0,              Anthony Chin-Ki%Ng%NULL%1,              Rosana Wing-Shan%Poon%NULL%0,              Cui-Ting%Luo%NULL%1,              Vincent Chi-Chung%Cheng%NULL%0,              Jasper Fuk-Woo%Chan%NULL%1,              Ivan Fan-Ngai%Hung%NULL%1,              Zhiwei%Chen%NULL%1,              Honglin%Chen%NULL%0,              Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,              Qingjie%Yi%NULL%1,              Shibing%Fan%NULL%1,              Jinglong%Lv%13608388377@163.com%0,              Xianxiang%Zhang%NULL%2,              Xianxiang%Zhang%NULL%0,              Lian%Guo%NULL%1,              Chunhui%Lang%NULL%0,              Qing%Xiao%NULL%1,              Kaihu%Xiao%NULL%2,              Zhengjun%Yi%NULL%1,              Mao%Qiang%NULL%1,              Jianglin%Xiang%NULL%1,              Bangshuo%Zhang%NULL%1,              Yongping%Chen%NULL%1,              Cailiang%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,              Wenbo%He%NULL%0,              Xiaomei%Yu%NULL%0,              Dalong%Hu%NULL%0,              Mingwei%Bao%NULL%0,              Huafen%Liu%NULL%0,              Jiali%Zhou%NULL%0,              Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%0,              Jing-Hui%Dong%NULL%0,              Wei-Min%An%NULL%0,              Xiao-Yan%Lv%15001008285@139.com%0,              Xiao-Ping%Yin%yinxiaoping78@sina.com%0,              Jian-Zeng%Zhang%NULL%0,              Li%Dong%NULL%0,              Xi%Ma%NULL%0,              Hong-Jie%Zhang%NULL%0,              Bu-Lang%Gao%browngao@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fanfan%Zeng%NULL%1,              Chan%Dai%NULL%2,              Chan%Dai%NULL%0,              Pengcheng%Cai%NULL%1,              Jinbiao%Wang%NULL%1,              Lei%Xu%NULL%0,              Jianyu%Li%NULL%1,              Guoyun%Hu%NULL%1,              Zheng%Wang%zhengwang@hust.edu.cn%1,              Fang%Zheng%zhengfangtj@hust.edu.cn%1,              Lin%Wang%lin_wang@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,              Jie%Zhang%945128911@qq.com%2,              Bowen%Wang%NULL%2,              Xionglin%Zhu%NULL%2,              Qiang%Wang%NULL%0,              Shiming%Qiu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,              Jie%Zhang%945128911@qq.com%0,              Bowen%Wang%NULL%0,              Xionglin%Zhu%NULL%0,              Qiang%Wang%NULL%0,              Shiming%Qiu%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1437,7 +1553,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1466,7 +1582,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1495,7 +1611,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1524,7 +1640,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -1553,7 +1669,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -1582,7 +1698,7 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="F7" t="s">
         <v>58</v>
@@ -1611,7 +1727,7 @@
         <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="F8" t="s">
         <v>63</v>
@@ -1640,7 +1756,7 @@
         <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="F9" t="s">
         <v>68</v>
@@ -1669,7 +1785,7 @@
         <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="F10" t="s">
         <v>72</v>
@@ -1698,7 +1814,7 @@
         <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="F11" t="s">
         <v>76</v>
@@ -1727,7 +1843,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -1756,7 +1872,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -1785,7 +1901,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -1814,7 +1930,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -1843,7 +1959,7 @@
         <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="F16" t="s">
         <v>99</v>
@@ -1869,10 +1985,10 @@
         <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>310</v>
       </c>
       <c r="E17" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="F17" t="s">
         <v>104</v>
@@ -1898,10 +2014,10 @@
         <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>310</v>
       </c>
       <c r="E18" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>

--- a/Covid_19_Dataset_and_References/References/78.xlsx
+++ b/Covid_19_Dataset_and_References/References/78.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="347">
   <si>
     <t>Doi</t>
   </si>
@@ -1214,6 +1214,57 @@
   </si>
   <si>
     <t>[Gemin%Zhang%NULL%0,              Jie%Zhang%945128911@qq.com%0,              Bowen%Wang%NULL%0,              Xionglin%Zhu%NULL%0,              Qiang%Wang%NULL%0,              Shiming%Qiu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%3,       Di%Wu%xref no email%3,       Wei%Guo%xref no email%3,       Yong%Cao%xref no email%3,       Da%Huang%xref no email%3,       Hongwu%Wang%xref no email%3,       Tao%Wang%xref no email%3,       Xiaoyun%Zhang%xref no email%3,       Huilong%Chen%xref no email%3,       Haijing%Yu%xref no email%3,       Xiaoping%Zhang%xref no email%3,       Minxia%Zhang%xref no email%3,       Shiji%Wu%xref no email%3,       Jianxin%Song%xref no email%3,       Tao%Chen%xref no email%3,       Meifang%Han%xref no email%3,       Shusheng%Li%xref no email%3,       Xiaoping%Luo%xref no email%3,       Jianping%Zhao%xref no email%3,       Qin%Ning%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,               Di%Wu%NULL%0,               Huilong%Chen%NULL%0,               Weiming%Yan%NULL%0,               Danlei%Yang%NULL%0,               Guang%Chen%NULL%0,               Ke%Ma%NULL%0,               Dong%Xu%NULL%0,               Haijing%Yu%NULL%0,               Hongwu%Wang%NULL%0,               Tao%Wang%NULL%0,               Wei%Guo%NULL%0,               Jia%Chen%NULL%0,               Chen%Ding%NULL%0,               Xiaoping%Zhang%NULL%0,               Jiaquan%Huang%NULL%0,               Meifang%Han%NULL%0,               Shusheng%Li%NULL%0,               Xiaoping%Luo%NULL%0,               Jianping%Zhao%NULL%0,               Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,               Wenhua%Liang%NULL%0,               Mei%Jiang%NULL%0,               Weijie%Guan%NULL%0,               Chen%Zhan%NULL%2,               Tao%Wang%NULL%0,               Chunli%Tang%NULL%2,               Ling%Sang%NULL%0,               Jiaxing%Liu%NULL%2,               Zhengyi%Ni%NULL%0,               Yu%Hu%NULL%0,               Lei%Liu%NULL%0,               Hong%Shan%NULL%0,               Chunliang%Lei%NULL%0,               Yixiang%Peng%NULL%0,               Li%Wei%NULL%0,               Yong%Liu%NULL%0,               Yahua%Hu%NULL%0,               Peng%Peng%NULL%0,               Jianming%Wang%NULL%0,               Jiyang%Liu%NULL%0,               Zhong%Chen%NULL%0,               Gang%Li%NULL%0,               Zhijian%Zheng%NULL%0,               Shaoqin%Qiu%NULL%0,               Jie%Luo%NULL%0,               Changjiang%Ye%NULL%0,               Shaoyong%Zhu%NULL%0,               Xiaoqing%Liu%NULL%0,               Linling%Cheng%NULL%2,               Feng%Ye%NULL%0,               Jinping%Zheng%NULL%0,               Nuofu%Zhang%NULL%0,               Yimin%Li%NULL%0,               Jianxing%He%NULL%0,               Shiyue%Li%lishiyue@188.com%0,               Nanshan%Zhong%NULL%0,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[H.%Hou%NULL%1,               B.%Zhang%NULL%1,               H.%Huang%NULL%1,               Y.%Luo%NULL%1,               S.%Wu%NULL%1,               G.%Tang%NULL%1,               W.%Liu%NULL%1,               L.%Mao%NULL%2,               L.%Mao%NULL%0,               F.%Wang%fengwang@tjh.tjmu.edu.cn%1,               Z.%Sun%zysun@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang%Liu%NULL%1,               Lin%Li%NULL%0,               MengDa%Xu%NULL%1,               Juan%Wu%NULL%1,               Ding%Luo%NULL%1,               YuSi%Zhu%NULL%1,               BiXi%Li%NULL%1,               XiaoYang%Song%NULL%1,               Xiang%Zhou%zhouxiang188483@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Kai-Cai%Liu%NULL%1,               Ping%Xu%xuping1027@163.com%1,               Wei-Fu%Lv%weifulv@ustc.edu.cn%1,               Xiao-Hui%Qiu%NULL%1,               Jin-Long%Yao%NULL%1,               Jin-Feng%Gu%NULL%1,               Wei%Wei%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Fengjun%Liu%NULL%1,               Qi%Zhang%NULL%1,               Chao%Huang%NULL%1,               Chunzi%Shi%NULL%1,               Lin%Wang%NULL%0,               Nannan%Shi%NULL%0,               Cong%Fang%NULL%1,               Fei%Shan%NULL%0,               Xue%Mei%NULL%1,               Jing%Shi%NULL%1,               Fengxiang%Song%NULL%1,               Zhongcheng%Yang%NULL%1,               Zezhen%Ding%NULL%1,               Xiaoming%Su%NULL%1,               Hongzhou%Lu%NULL%0,               Tongyu%Zhu%NULL%0,               Zhiyong%Zhang%NULL%0,               Lei%Shi%NULL%1,               Yuxin%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Pan%NULL%1,               Mi%Mu%NULL%0,               Pengcheng%Yang%NULL%0,               Yu%Sun%NULL%1,               Runsheng%Wang%NULL%0,               Junhong%Yan%NULL%1,               Pibao%Li%NULL%1,               Baoguang%Hu%NULL%1,               Jing%Wang%NULL%0,               Chao%Hu%NULL%0,               Yuan%Jin%NULL%1,               Xun%Niu%NULL%1,               Rongyu%Ping%NULL%0,               Yingzhen%Du%NULL%1,               Tianzhi%Li%NULL%0,               Guogang%Xu%NULL%0,               Qinyong%Hu%NULL%0,               Lei%Tu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,               Ruoqi%Ning%NULL%0,               Yu%Tao%NULL%0,               Chong%Yu%NULL%0,               Xiaoyan%Deng%NULL%0,               Caili%Zhao%NULL%0,               Silu%Meng%NULL%0,               Fangxu%Tang%89650793@qq.com%0,               Dong%Xu%89650793@qq.com%0,               Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%0,               Nan%Hu%NULL%0,               Jing%Lou%NULL%0,               Kun%Chen%NULL%0,               Xuqin%Kang%NULL%0,               Zhenjun%Xiang%NULL%0,               Hui%Chen%NULL%0,               Dali%Wang%NULL%0,               Ning%Liu%NULL%0,               Dong%Liu%NULL%0,               Gang%Chen%NULL%0,               Yongliang%Zhang%NULL%0,               Dou%Li%NULL%0,               Jianren%Li%NULL%0,               Huixin%Lian%NULL%0,               Shengmei%Niu%NULL%0,               Luxi%Zhang%NULL%0,               Jinjun%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%0,               Owen Tak-Yin%Tsang%NULL%1,               Wai-Shing%Leung%NULL%1,               Anthony Raymond%Tam%NULL%1,               Tak-Chiu%Wu%NULL%1,               David Christopher%Lung%NULL%1,               Cyril Chik-Yan%Yip%NULL%0,               Jian-Piao%Cai%NULL%0,               Jacky Man-Chun%Chan%NULL%1,               Thomas Shiu-Hong%Chik%NULL%1,               Daphne Pui-Ling%Lau%NULL%1,               Chris Yau-Chung%Choi%NULL%1,               Lin-Lei%Chen%NULL%1,               Wan-Mui%Chan%NULL%0,               Kwok-Hung%Chan%NULL%0,               Jonathan Daniel%Ip%NULL%0,               Anthony Chin-Ki%Ng%NULL%1,               Rosana Wing-Shan%Poon%NULL%0,               Cui-Ting%Luo%NULL%1,               Vincent Chi-Chung%Cheng%NULL%0,               Jasper Fuk-Woo%Chan%NULL%1,               Ivan Fan-Ngai%Hung%NULL%1,               Zhiwei%Chen%NULL%1,               Honglin%Chen%NULL%0,               Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,               Qingjie%Yi%NULL%1,               Shibing%Fan%NULL%1,               Jinglong%Lv%13608388377@163.com%0,               Xianxiang%Zhang%NULL%2,               Xianxiang%Zhang%NULL%0,               Lian%Guo%NULL%1,               Chunhui%Lang%NULL%0,               Qing%Xiao%NULL%1,               Kaihu%Xiao%NULL%2,               Zhengjun%Yi%NULL%1,               Mao%Qiang%NULL%1,               Jianglin%Xiang%NULL%1,               Bangshuo%Zhang%NULL%1,               Yongping%Chen%NULL%1,               Cailiang%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,               Wenbo%He%NULL%0,               Xiaomei%Yu%NULL%0,               Dalong%Hu%NULL%0,               Mingwei%Bao%NULL%0,               Huafen%Liu%NULL%0,               Jiali%Zhou%NULL%0,               Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%0,               Jing-Hui%Dong%NULL%0,               Wei-Min%An%NULL%0,               Xiao-Yan%Lv%15001008285@139.com%0,               Xiao-Ping%Yin%yinxiaoping78@sina.com%0,               Jian-Zeng%Zhang%NULL%0,               Li%Dong%NULL%0,               Xi%Ma%NULL%0,               Hong-Jie%Zhang%NULL%0,               Bu-Lang%Gao%browngao@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fanfan%Zeng%NULL%1,               Chan%Dai%NULL%2,               Chan%Dai%NULL%0,               Pengcheng%Cai%NULL%1,               Jinbiao%Wang%NULL%1,               Lei%Xu%NULL%0,               Jianyu%Li%NULL%1,               Guoyun%Hu%NULL%1,               Zheng%Wang%zhengwang@hust.edu.cn%1,               Fang%Zheng%zhengfangtj@hust.edu.cn%1,               Lin%Wang%lin_wang@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,               Jie%Zhang%945128911@qq.com%2,               Bowen%Wang%NULL%2,               Xionglin%Zhu%NULL%2,               Qiang%Wang%NULL%0,               Shiming%Qiu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,               Jie%Zhang%945128911@qq.com%0,               Bowen%Wang%NULL%0,               Xionglin%Zhu%NULL%0,               Qiang%Wang%NULL%0,               Shiming%Qiu%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1553,7 +1604,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1582,7 +1633,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1611,7 +1662,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1640,7 +1691,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -1669,7 +1720,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -1698,7 +1749,7 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="F7" t="s">
         <v>58</v>
@@ -1727,7 +1778,7 @@
         <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="F8" t="s">
         <v>63</v>
@@ -1756,7 +1807,7 @@
         <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="F9" t="s">
         <v>68</v>
@@ -1785,7 +1836,7 @@
         <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="F10" t="s">
         <v>72</v>
@@ -1814,7 +1865,7 @@
         <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="F11" t="s">
         <v>76</v>
@@ -1843,7 +1894,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -1872,7 +1923,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -1901,7 +1952,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -1930,7 +1981,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -1959,7 +2010,7 @@
         <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="F16" t="s">
         <v>99</v>
@@ -1988,7 +2039,7 @@
         <v>310</v>
       </c>
       <c r="E17" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="F17" t="s">
         <v>104</v>
@@ -2017,7 +2068,7 @@
         <v>310</v>
       </c>
       <c r="E18" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>

--- a/Covid_19_Dataset_and_References/References/78.xlsx
+++ b/Covid_19_Dataset_and_References/References/78.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="364">
   <si>
     <t>Doi</t>
   </si>
@@ -1265,6 +1265,57 @@
   </si>
   <si>
     <t>[Gemin%Zhang%NULL%0,               Jie%Zhang%945128911@qq.com%0,               Bowen%Wang%NULL%0,               Xionglin%Zhu%NULL%0,               Qiang%Wang%NULL%0,               Shiming%Qiu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%3,        Di%Wu%xref no email%3,        Wei%Guo%xref no email%3,        Yong%Cao%xref no email%3,        Da%Huang%xref no email%3,        Hongwu%Wang%xref no email%3,        Tao%Wang%xref no email%3,        Xiaoyun%Zhang%xref no email%3,        Huilong%Chen%xref no email%3,        Haijing%Yu%xref no email%3,        Xiaoping%Zhang%xref no email%3,        Minxia%Zhang%xref no email%3,        Shiji%Wu%xref no email%3,        Jianxin%Song%xref no email%3,        Tao%Chen%xref no email%3,        Meifang%Han%xref no email%3,        Shusheng%Li%xref no email%3,        Xiaoping%Luo%xref no email%3,        Jianping%Zhao%xref no email%3,        Qin%Ning%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                Di%Wu%NULL%0,                Huilong%Chen%NULL%0,                Weiming%Yan%NULL%0,                Danlei%Yang%NULL%0,                Guang%Chen%NULL%0,                Ke%Ma%NULL%0,                Dong%Xu%NULL%0,                Haijing%Yu%NULL%0,                Hongwu%Wang%NULL%0,                Tao%Wang%NULL%0,                Wei%Guo%NULL%0,                Jia%Chen%NULL%0,                Chen%Ding%NULL%0,                Xiaoping%Zhang%NULL%0,                Jiaquan%Huang%NULL%0,                Meifang%Han%NULL%0,                Shusheng%Li%NULL%0,                Xiaoping%Luo%NULL%0,                Jianping%Zhao%NULL%0,                Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                Wenhua%Liang%NULL%0,                Mei%Jiang%NULL%0,                Weijie%Guan%NULL%0,                Chen%Zhan%NULL%2,                Tao%Wang%NULL%0,                Chunli%Tang%NULL%2,                Ling%Sang%NULL%0,                Jiaxing%Liu%NULL%2,                Zhengyi%Ni%NULL%0,                Yu%Hu%NULL%0,                Lei%Liu%NULL%0,                Hong%Shan%NULL%0,                Chunliang%Lei%NULL%0,                Yixiang%Peng%NULL%0,                Li%Wei%NULL%0,                Yong%Liu%NULL%0,                Yahua%Hu%NULL%0,                Peng%Peng%NULL%0,                Jianming%Wang%NULL%0,                Jiyang%Liu%NULL%0,                Zhong%Chen%NULL%0,                Gang%Li%NULL%0,                Zhijian%Zheng%NULL%0,                Shaoqin%Qiu%NULL%0,                Jie%Luo%NULL%0,                Changjiang%Ye%NULL%0,                Shaoyong%Zhu%NULL%0,                Xiaoqing%Liu%NULL%0,                Linling%Cheng%NULL%2,                Feng%Ye%NULL%0,                Jinping%Zheng%NULL%0,                Nuofu%Zhang%NULL%0,                Yimin%Li%NULL%0,                Jianxing%He%NULL%0,                Shiyue%Li%lishiyue@188.com%0,                Nanshan%Zhong%NULL%0,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[H.%Hou%NULL%1,                B.%Zhang%NULL%1,                H.%Huang%NULL%1,                Y.%Luo%NULL%1,                S.%Wu%NULL%1,                G.%Tang%NULL%1,                W.%Liu%NULL%1,                L.%Mao%NULL%2,                L.%Mao%NULL%0,                F.%Wang%fengwang@tjh.tjmu.edu.cn%1,                Z.%Sun%zysun@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang%Liu%NULL%1,                Lin%Li%NULL%0,                MengDa%Xu%NULL%1,                Juan%Wu%NULL%1,                Ding%Luo%NULL%1,                YuSi%Zhu%NULL%1,                BiXi%Li%NULL%1,                XiaoYang%Song%NULL%1,                Xiang%Zhou%zhouxiang188483@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Kai-Cai%Liu%NULL%1,                Ping%Xu%xuping1027@163.com%1,                Wei-Fu%Lv%weifulv@ustc.edu.cn%1,                Xiao-Hui%Qiu%NULL%1,                Jin-Long%Yao%NULL%1,                Jin-Feng%Gu%NULL%1,                Wei%Wei%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Fengjun%Liu%NULL%1,                Qi%Zhang%NULL%1,                Chao%Huang%NULL%1,                Chunzi%Shi%NULL%1,                Lin%Wang%NULL%0,                Nannan%Shi%NULL%0,                Cong%Fang%NULL%1,                Fei%Shan%NULL%0,                Xue%Mei%NULL%1,                Jing%Shi%NULL%1,                Fengxiang%Song%NULL%1,                Zhongcheng%Yang%NULL%1,                Zezhen%Ding%NULL%1,                Xiaoming%Su%NULL%1,                Hongzhou%Lu%NULL%0,                Tongyu%Zhu%NULL%0,                Zhiyong%Zhang%NULL%0,                Lei%Shi%NULL%1,                Yuxin%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Pan%NULL%1,                Mi%Mu%NULL%0,                Pengcheng%Yang%NULL%0,                Yu%Sun%NULL%1,                Runsheng%Wang%NULL%0,                Junhong%Yan%NULL%1,                Pibao%Li%NULL%1,                Baoguang%Hu%NULL%1,                Jing%Wang%NULL%0,                Chao%Hu%NULL%0,                Yuan%Jin%NULL%1,                Xun%Niu%NULL%1,                Rongyu%Ping%NULL%0,                Yingzhen%Du%NULL%1,                Tianzhi%Li%NULL%0,                Guogang%Xu%NULL%0,                Qinyong%Hu%NULL%0,                Lei%Tu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                Ruoqi%Ning%NULL%0,                Yu%Tao%NULL%0,                Chong%Yu%NULL%0,                Xiaoyan%Deng%NULL%0,                Caili%Zhao%NULL%0,                Silu%Meng%NULL%0,                Fangxu%Tang%89650793@qq.com%0,                Dong%Xu%89650793@qq.com%0,                Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%0,                Nan%Hu%NULL%0,                Jing%Lou%NULL%0,                Kun%Chen%NULL%0,                Xuqin%Kang%NULL%0,                Zhenjun%Xiang%NULL%0,                Hui%Chen%NULL%0,                Dali%Wang%NULL%0,                Ning%Liu%NULL%0,                Dong%Liu%NULL%0,                Gang%Chen%NULL%0,                Yongliang%Zhang%NULL%0,                Dou%Li%NULL%0,                Jianren%Li%NULL%0,                Huixin%Lian%NULL%0,                Shengmei%Niu%NULL%0,                Luxi%Zhang%NULL%0,                Jinjun%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%0,                Owen Tak-Yin%Tsang%NULL%1,                Wai-Shing%Leung%NULL%1,                Anthony Raymond%Tam%NULL%1,                Tak-Chiu%Wu%NULL%1,                David Christopher%Lung%NULL%1,                Cyril Chik-Yan%Yip%NULL%0,                Jian-Piao%Cai%NULL%0,                Jacky Man-Chun%Chan%NULL%1,                Thomas Shiu-Hong%Chik%NULL%1,                Daphne Pui-Ling%Lau%NULL%1,                Chris Yau-Chung%Choi%NULL%1,                Lin-Lei%Chen%NULL%1,                Wan-Mui%Chan%NULL%0,                Kwok-Hung%Chan%NULL%0,                Jonathan Daniel%Ip%NULL%0,                Anthony Chin-Ki%Ng%NULL%1,                Rosana Wing-Shan%Poon%NULL%0,                Cui-Ting%Luo%NULL%1,                Vincent Chi-Chung%Cheng%NULL%0,                Jasper Fuk-Woo%Chan%NULL%1,                Ivan Fan-Ngai%Hung%NULL%1,                Zhiwei%Chen%NULL%1,                Honglin%Chen%NULL%0,                Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                Qingjie%Yi%NULL%1,                Shibing%Fan%NULL%1,                Jinglong%Lv%13608388377@163.com%0,                Xianxiang%Zhang%NULL%2,                Xianxiang%Zhang%NULL%0,                Lian%Guo%NULL%1,                Chunhui%Lang%NULL%0,                Qing%Xiao%NULL%1,                Kaihu%Xiao%NULL%2,                Zhengjun%Yi%NULL%1,                Mao%Qiang%NULL%1,                Jianglin%Xiang%NULL%1,                Bangshuo%Zhang%NULL%1,                Yongping%Chen%NULL%1,                Cailiang%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                Wenbo%He%NULL%0,                Xiaomei%Yu%NULL%0,                Dalong%Hu%NULL%0,                Mingwei%Bao%NULL%0,                Huafen%Liu%NULL%0,                Jiali%Zhou%NULL%0,                Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%0,                Jing-Hui%Dong%NULL%0,                Wei-Min%An%NULL%0,                Xiao-Yan%Lv%15001008285@139.com%0,                Xiao-Ping%Yin%yinxiaoping78@sina.com%0,                Jian-Zeng%Zhang%NULL%0,                Li%Dong%NULL%0,                Xi%Ma%NULL%0,                Hong-Jie%Zhang%NULL%0,                Bu-Lang%Gao%browngao@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fanfan%Zeng%NULL%1,                Chan%Dai%NULL%2,                Chan%Dai%NULL%0,                Pengcheng%Cai%NULL%1,                Jinbiao%Wang%NULL%1,                Lei%Xu%NULL%0,                Jianyu%Li%NULL%1,                Guoyun%Hu%NULL%1,                Zheng%Wang%zhengwang@hust.edu.cn%1,                Fang%Zheng%zhengfangtj@hust.edu.cn%1,                Lin%Wang%lin_wang@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,                Jie%Zhang%945128911@qq.com%2,                Bowen%Wang%NULL%2,                Xionglin%Zhu%NULL%2,                Qiang%Wang%NULL%0,                Shiming%Qiu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,                Jie%Zhang%945128911@qq.com%0,                Bowen%Wang%NULL%0,                Xionglin%Zhu%NULL%0,                Qiang%Wang%NULL%0,                Shiming%Qiu%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1604,7 +1655,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1633,7 +1684,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1662,7 +1713,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1691,7 +1742,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -1720,7 +1771,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -1749,7 +1800,7 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="F7" t="s">
         <v>58</v>
@@ -1778,7 +1829,7 @@
         <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="F8" t="s">
         <v>63</v>
@@ -1807,7 +1858,7 @@
         <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="F9" t="s">
         <v>68</v>
@@ -1836,7 +1887,7 @@
         <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="F10" t="s">
         <v>72</v>
@@ -1865,7 +1916,7 @@
         <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="F11" t="s">
         <v>76</v>
@@ -1894,7 +1945,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -1923,7 +1974,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -1952,7 +2003,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -1981,7 +2032,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -2010,7 +2061,7 @@
         <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="F16" t="s">
         <v>99</v>
@@ -2039,7 +2090,7 @@
         <v>310</v>
       </c>
       <c r="E17" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="F17" t="s">
         <v>104</v>
@@ -2068,7 +2119,7 @@
         <v>310</v>
       </c>
       <c r="E18" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>

--- a/Covid_19_Dataset_and_References/References/78.xlsx
+++ b/Covid_19_Dataset_and_References/References/78.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2364" uniqueCount="398">
   <si>
     <t>Doi</t>
   </si>
@@ -1316,6 +1316,108 @@
   </si>
   <si>
     <t>[Gemin%Zhang%NULL%0,                Jie%Zhang%945128911@qq.com%0,                Bowen%Wang%NULL%0,                Xionglin%Zhu%NULL%0,                Qiang%Wang%NULL%0,                Shiming%Qiu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%3,         Di%Wu%xref no email%3,         Wei%Guo%xref no email%3,         Yong%Cao%xref no email%3,         Da%Huang%xref no email%3,         Hongwu%Wang%xref no email%3,         Tao%Wang%xref no email%3,         Xiaoyun%Zhang%xref no email%3,         Huilong%Chen%xref no email%3,         Haijing%Yu%xref no email%3,         Xiaoping%Zhang%xref no email%3,         Minxia%Zhang%xref no email%3,         Shiji%Wu%xref no email%3,         Jianxin%Song%xref no email%3,         Tao%Chen%xref no email%3,         Meifang%Han%xref no email%3,         Shusheng%Li%xref no email%3,         Xiaoping%Luo%xref no email%3,         Jianping%Zhao%xref no email%3,         Qin%Ning%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                 Di%Wu%NULL%0,                 Huilong%Chen%NULL%0,                 Weiming%Yan%NULL%0,                 Danlei%Yang%NULL%0,                 Guang%Chen%NULL%0,                 Ke%Ma%NULL%0,                 Dong%Xu%NULL%0,                 Haijing%Yu%NULL%0,                 Hongwu%Wang%NULL%0,                 Tao%Wang%NULL%0,                 Wei%Guo%NULL%0,                 Jia%Chen%NULL%0,                 Chen%Ding%NULL%0,                 Xiaoping%Zhang%NULL%0,                 Jiaquan%Huang%NULL%0,                 Meifang%Han%NULL%0,                 Shusheng%Li%NULL%0,                 Xiaoping%Luo%NULL%0,                 Jianping%Zhao%NULL%0,                 Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                 Wenhua%Liang%NULL%0,                 Mei%Jiang%NULL%0,                 Weijie%Guan%NULL%0,                 Chen%Zhan%NULL%2,                 Tao%Wang%NULL%0,                 Chunli%Tang%NULL%2,                 Ling%Sang%NULL%0,                 Jiaxing%Liu%NULL%2,                 Zhengyi%Ni%NULL%0,                 Yu%Hu%NULL%0,                 Lei%Liu%NULL%0,                 Hong%Shan%NULL%0,                 Chunliang%Lei%NULL%0,                 Yixiang%Peng%NULL%0,                 Li%Wei%NULL%0,                 Yong%Liu%NULL%0,                 Yahua%Hu%NULL%0,                 Peng%Peng%NULL%0,                 Jianming%Wang%NULL%0,                 Jiyang%Liu%NULL%0,                 Zhong%Chen%NULL%0,                 Gang%Li%NULL%0,                 Zhijian%Zheng%NULL%0,                 Shaoqin%Qiu%NULL%0,                 Jie%Luo%NULL%0,                 Changjiang%Ye%NULL%0,                 Shaoyong%Zhu%NULL%0,                 Xiaoqing%Liu%NULL%0,                 Linling%Cheng%NULL%2,                 Feng%Ye%NULL%0,                 Jinping%Zheng%NULL%0,                 Nuofu%Zhang%NULL%0,                 Yimin%Li%NULL%0,                 Jianxing%He%NULL%0,                 Shiyue%Li%lishiyue@188.com%0,                 Nanshan%Zhong%NULL%0,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[H.%Hou%NULL%1,                 B.%Zhang%NULL%1,                 H.%Huang%NULL%1,                 Y.%Luo%NULL%1,                 S.%Wu%NULL%1,                 G.%Tang%NULL%1,                 W.%Liu%NULL%1,                 L.%Mao%NULL%2,                 L.%Mao%NULL%0,                 F.%Wang%fengwang@tjh.tjmu.edu.cn%1,                 Z.%Sun%zysun@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang%Liu%NULL%1,                 Lin%Li%NULL%0,                 MengDa%Xu%NULL%1,                 Juan%Wu%NULL%1,                 Ding%Luo%NULL%1,                 YuSi%Zhu%NULL%1,                 BiXi%Li%NULL%1,                 XiaoYang%Song%NULL%1,                 Xiang%Zhou%zhouxiang188483@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Kai-Cai%Liu%NULL%1,                 Ping%Xu%xuping1027@163.com%1,                 Wei-Fu%Lv%weifulv@ustc.edu.cn%1,                 Xiao-Hui%Qiu%NULL%1,                 Jin-Long%Yao%NULL%1,                 Jin-Feng%Gu%NULL%1,                 Wei%Wei%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Fengjun%Liu%NULL%1,                 Qi%Zhang%NULL%1,                 Chao%Huang%NULL%1,                 Chunzi%Shi%NULL%1,                 Lin%Wang%NULL%0,                 Nannan%Shi%NULL%0,                 Cong%Fang%NULL%1,                 Fei%Shan%NULL%0,                 Xue%Mei%NULL%1,                 Jing%Shi%NULL%1,                 Fengxiang%Song%NULL%1,                 Zhongcheng%Yang%NULL%1,                 Zezhen%Ding%NULL%1,                 Xiaoming%Su%NULL%1,                 Hongzhou%Lu%NULL%0,                 Tongyu%Zhu%NULL%0,                 Zhiyong%Zhang%NULL%0,                 Lei%Shi%NULL%1,                 Yuxin%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Pan%NULL%1,                 Mi%Mu%NULL%0,                 Pengcheng%Yang%NULL%0,                 Yu%Sun%NULL%1,                 Runsheng%Wang%NULL%0,                 Junhong%Yan%NULL%1,                 Pibao%Li%NULL%1,                 Baoguang%Hu%NULL%1,                 Jing%Wang%NULL%0,                 Chao%Hu%NULL%0,                 Yuan%Jin%NULL%1,                 Xun%Niu%NULL%1,                 Rongyu%Ping%NULL%0,                 Yingzhen%Du%NULL%1,                 Tianzhi%Li%NULL%0,                 Guogang%Xu%NULL%0,                 Qinyong%Hu%NULL%0,                 Lei%Tu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                 Ruoqi%Ning%NULL%0,                 Yu%Tao%NULL%0,                 Chong%Yu%NULL%0,                 Xiaoyan%Deng%NULL%0,                 Caili%Zhao%NULL%0,                 Silu%Meng%NULL%0,                 Fangxu%Tang%89650793@qq.com%0,                 Dong%Xu%89650793@qq.com%0,                 Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%0,                 Nan%Hu%NULL%0,                 Jing%Lou%NULL%0,                 Kun%Chen%NULL%0,                 Xuqin%Kang%NULL%0,                 Zhenjun%Xiang%NULL%0,                 Hui%Chen%NULL%0,                 Dali%Wang%NULL%0,                 Ning%Liu%NULL%0,                 Dong%Liu%NULL%0,                 Gang%Chen%NULL%0,                 Yongliang%Zhang%NULL%0,                 Dou%Li%NULL%0,                 Jianren%Li%NULL%0,                 Huixin%Lian%NULL%0,                 Shengmei%Niu%NULL%0,                 Luxi%Zhang%NULL%0,                 Jinjun%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%0,                 Owen Tak-Yin%Tsang%NULL%1,                 Wai-Shing%Leung%NULL%1,                 Anthony Raymond%Tam%NULL%1,                 Tak-Chiu%Wu%NULL%1,                 David Christopher%Lung%NULL%1,                 Cyril Chik-Yan%Yip%NULL%0,                 Jian-Piao%Cai%NULL%0,                 Jacky Man-Chun%Chan%NULL%1,                 Thomas Shiu-Hong%Chik%NULL%1,                 Daphne Pui-Ling%Lau%NULL%1,                 Chris Yau-Chung%Choi%NULL%1,                 Lin-Lei%Chen%NULL%1,                 Wan-Mui%Chan%NULL%0,                 Kwok-Hung%Chan%NULL%0,                 Jonathan Daniel%Ip%NULL%0,                 Anthony Chin-Ki%Ng%NULL%1,                 Rosana Wing-Shan%Poon%NULL%0,                 Cui-Ting%Luo%NULL%1,                 Vincent Chi-Chung%Cheng%NULL%0,                 Jasper Fuk-Woo%Chan%NULL%1,                 Ivan Fan-Ngai%Hung%NULL%1,                 Zhiwei%Chen%NULL%1,                 Honglin%Chen%NULL%0,                 Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                 Qingjie%Yi%NULL%1,                 Shibing%Fan%NULL%1,                 Jinglong%Lv%13608388377@163.com%0,                 Xianxiang%Zhang%NULL%2,                 Xianxiang%Zhang%NULL%0,                 Lian%Guo%NULL%1,                 Chunhui%Lang%NULL%0,                 Qing%Xiao%NULL%1,                 Kaihu%Xiao%NULL%2,                 Zhengjun%Yi%NULL%1,                 Mao%Qiang%NULL%1,                 Jianglin%Xiang%NULL%1,                 Bangshuo%Zhang%NULL%1,                 Yongping%Chen%NULL%1,                 Cailiang%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                 Wenbo%He%NULL%0,                 Xiaomei%Yu%NULL%0,                 Dalong%Hu%NULL%0,                 Mingwei%Bao%NULL%0,                 Huafen%Liu%NULL%0,                 Jiali%Zhou%NULL%0,                 Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%0,                 Jing-Hui%Dong%NULL%0,                 Wei-Min%An%NULL%0,                 Xiao-Yan%Lv%15001008285@139.com%0,                 Xiao-Ping%Yin%yinxiaoping78@sina.com%0,                 Jian-Zeng%Zhang%NULL%0,                 Li%Dong%NULL%0,                 Xi%Ma%NULL%0,                 Hong-Jie%Zhang%NULL%0,                 Bu-Lang%Gao%browngao@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fanfan%Zeng%NULL%1,                 Chan%Dai%NULL%2,                 Chan%Dai%NULL%0,                 Pengcheng%Cai%NULL%1,                 Jinbiao%Wang%NULL%1,                 Lei%Xu%NULL%0,                 Jianyu%Li%NULL%1,                 Guoyun%Hu%NULL%1,                 Zheng%Wang%zhengwang@hust.edu.cn%1,                 Fang%Zheng%zhengfangtj@hust.edu.cn%1,                 Lin%Wang%lin_wang@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,                 Jie%Zhang%945128911@qq.com%2,                 Bowen%Wang%NULL%2,                 Xionglin%Zhu%NULL%2,                 Qiang%Wang%NULL%0,                 Shiming%Qiu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,                 Jie%Zhang%945128911@qq.com%0,                 Bowen%Wang%NULL%0,                 Xionglin%Zhu%NULL%0,                 Qiang%Wang%NULL%0,                 Shiming%Qiu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%3,          Di%Wu%xref no email%3,          Wei%Guo%xref no email%3,          Yong%Cao%xref no email%3,          Da%Huang%xref no email%3,          Hongwu%Wang%xref no email%3,          Tao%Wang%xref no email%3,          Xiaoyun%Zhang%xref no email%3,          Huilong%Chen%xref no email%3,          Haijing%Yu%xref no email%3,          Xiaoping%Zhang%xref no email%3,          Minxia%Zhang%xref no email%3,          Shiji%Wu%xref no email%3,          Jianxin%Song%xref no email%3,          Tao%Chen%xref no email%3,          Meifang%Han%xref no email%3,          Shusheng%Li%xref no email%3,          Xiaoping%Luo%xref no email%3,          Jianping%Zhao%xref no email%3,          Qin%Ning%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                  Di%Wu%NULL%0,                  Huilong%Chen%NULL%0,                  Weiming%Yan%NULL%0,                  Danlei%Yang%NULL%0,                  Guang%Chen%NULL%0,                  Ke%Ma%NULL%0,                  Dong%Xu%NULL%0,                  Haijing%Yu%NULL%0,                  Hongwu%Wang%NULL%0,                  Tao%Wang%NULL%0,                  Wei%Guo%NULL%0,                  Jia%Chen%NULL%0,                  Chen%Ding%NULL%0,                  Xiaoping%Zhang%NULL%0,                  Jiaquan%Huang%NULL%0,                  Meifang%Han%NULL%0,                  Shusheng%Li%NULL%0,                  Xiaoping%Luo%NULL%0,                  Jianping%Zhao%NULL%0,                  Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                  Wenhua%Liang%NULL%0,                  Mei%Jiang%NULL%0,                  Weijie%Guan%NULL%0,                  Chen%Zhan%NULL%2,                  Tao%Wang%NULL%0,                  Chunli%Tang%NULL%2,                  Ling%Sang%NULL%0,                  Jiaxing%Liu%NULL%2,                  Zhengyi%Ni%NULL%0,                  Yu%Hu%NULL%0,                  Lei%Liu%NULL%0,                  Hong%Shan%NULL%0,                  Chunliang%Lei%NULL%0,                  Yixiang%Peng%NULL%0,                  Li%Wei%NULL%0,                  Yong%Liu%NULL%0,                  Yahua%Hu%NULL%0,                  Peng%Peng%NULL%0,                  Jianming%Wang%NULL%0,                  Jiyang%Liu%NULL%0,                  Zhong%Chen%NULL%0,                  Gang%Li%NULL%0,                  Zhijian%Zheng%NULL%0,                  Shaoqin%Qiu%NULL%0,                  Jie%Luo%NULL%0,                  Changjiang%Ye%NULL%0,                  Shaoyong%Zhu%NULL%0,                  Xiaoqing%Liu%NULL%0,                  Linling%Cheng%NULL%2,                  Feng%Ye%NULL%0,                  Jinping%Zheng%NULL%0,                  Nuofu%Zhang%NULL%0,                  Yimin%Li%NULL%0,                  Jianxing%He%NULL%0,                  Shiyue%Li%lishiyue@188.com%0,                  Nanshan%Zhong%NULL%0,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[H.%Hou%NULL%1,                  B.%Zhang%NULL%1,                  H.%Huang%NULL%1,                  Y.%Luo%NULL%1,                  S.%Wu%NULL%1,                  G.%Tang%NULL%1,                  W.%Liu%NULL%1,                  L.%Mao%NULL%2,                  L.%Mao%NULL%0,                  F.%Wang%fengwang@tjh.tjmu.edu.cn%1,                  Z.%Sun%zysun@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang%Liu%NULL%1,                  Lin%Li%NULL%0,                  MengDa%Xu%NULL%1,                  Juan%Wu%NULL%1,                  Ding%Luo%NULL%1,                  YuSi%Zhu%NULL%1,                  BiXi%Li%NULL%1,                  XiaoYang%Song%NULL%1,                  Xiang%Zhou%zhouxiang188483@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Kai-Cai%Liu%NULL%1,                  Ping%Xu%xuping1027@163.com%1,                  Wei-Fu%Lv%weifulv@ustc.edu.cn%1,                  Xiao-Hui%Qiu%NULL%1,                  Jin-Long%Yao%NULL%1,                  Jin-Feng%Gu%NULL%1,                  Wei%Wei%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Fengjun%Liu%NULL%1,                  Qi%Zhang%NULL%1,                  Chao%Huang%NULL%1,                  Chunzi%Shi%NULL%1,                  Lin%Wang%NULL%0,                  Nannan%Shi%NULL%0,                  Cong%Fang%NULL%1,                  Fei%Shan%NULL%0,                  Xue%Mei%NULL%1,                  Jing%Shi%NULL%1,                  Fengxiang%Song%NULL%1,                  Zhongcheng%Yang%NULL%1,                  Zezhen%Ding%NULL%1,                  Xiaoming%Su%NULL%1,                  Hongzhou%Lu%NULL%0,                  Tongyu%Zhu%NULL%0,                  Zhiyong%Zhang%NULL%0,                  Lei%Shi%NULL%1,                  Yuxin%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Pan%NULL%1,                  Mi%Mu%NULL%0,                  Pengcheng%Yang%NULL%0,                  Yu%Sun%NULL%1,                  Runsheng%Wang%NULL%0,                  Junhong%Yan%NULL%1,                  Pibao%Li%NULL%1,                  Baoguang%Hu%NULL%1,                  Jing%Wang%NULL%0,                  Chao%Hu%NULL%0,                  Yuan%Jin%NULL%1,                  Xun%Niu%NULL%1,                  Rongyu%Ping%NULL%0,                  Yingzhen%Du%NULL%1,                  Tianzhi%Li%NULL%0,                  Guogang%Xu%NULL%0,                  Qinyong%Hu%NULL%0,                  Lei%Tu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                  Ruoqi%Ning%NULL%0,                  Yu%Tao%NULL%0,                  Chong%Yu%NULL%0,                  Xiaoyan%Deng%NULL%0,                  Caili%Zhao%NULL%0,                  Silu%Meng%NULL%0,                  Fangxu%Tang%89650793@qq.com%0,                  Dong%Xu%89650793@qq.com%0,                  Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%0,                  Nan%Hu%NULL%0,                  Jing%Lou%NULL%0,                  Kun%Chen%NULL%0,                  Xuqin%Kang%NULL%0,                  Zhenjun%Xiang%NULL%0,                  Hui%Chen%NULL%0,                  Dali%Wang%NULL%0,                  Ning%Liu%NULL%0,                  Dong%Liu%NULL%0,                  Gang%Chen%NULL%0,                  Yongliang%Zhang%NULL%0,                  Dou%Li%NULL%0,                  Jianren%Li%NULL%0,                  Huixin%Lian%NULL%0,                  Shengmei%Niu%NULL%0,                  Luxi%Zhang%NULL%0,                  Jinjun%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%0,                  Owen Tak-Yin%Tsang%NULL%1,                  Wai-Shing%Leung%NULL%1,                  Anthony Raymond%Tam%NULL%1,                  Tak-Chiu%Wu%NULL%1,                  David Christopher%Lung%NULL%1,                  Cyril Chik-Yan%Yip%NULL%0,                  Jian-Piao%Cai%NULL%0,                  Jacky Man-Chun%Chan%NULL%1,                  Thomas Shiu-Hong%Chik%NULL%1,                  Daphne Pui-Ling%Lau%NULL%1,                  Chris Yau-Chung%Choi%NULL%1,                  Lin-Lei%Chen%NULL%1,                  Wan-Mui%Chan%NULL%0,                  Kwok-Hung%Chan%NULL%0,                  Jonathan Daniel%Ip%NULL%0,                  Anthony Chin-Ki%Ng%NULL%1,                  Rosana Wing-Shan%Poon%NULL%0,                  Cui-Ting%Luo%NULL%1,                  Vincent Chi-Chung%Cheng%NULL%0,                  Jasper Fuk-Woo%Chan%NULL%1,                  Ivan Fan-Ngai%Hung%NULL%1,                  Zhiwei%Chen%NULL%1,                  Honglin%Chen%NULL%0,                  Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                  Qingjie%Yi%NULL%1,                  Shibing%Fan%NULL%1,                  Jinglong%Lv%13608388377@163.com%0,                  Xianxiang%Zhang%NULL%2,                  Xianxiang%Zhang%NULL%0,                  Lian%Guo%NULL%1,                  Chunhui%Lang%NULL%0,                  Qing%Xiao%NULL%1,                  Kaihu%Xiao%NULL%2,                  Zhengjun%Yi%NULL%1,                  Mao%Qiang%NULL%1,                  Jianglin%Xiang%NULL%1,                  Bangshuo%Zhang%NULL%1,                  Yongping%Chen%NULL%1,                  Cailiang%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                  Wenbo%He%NULL%0,                  Xiaomei%Yu%NULL%0,                  Dalong%Hu%NULL%0,                  Mingwei%Bao%NULL%0,                  Huafen%Liu%NULL%0,                  Jiali%Zhou%NULL%0,                  Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%0,                  Jing-Hui%Dong%NULL%0,                  Wei-Min%An%NULL%0,                  Xiao-Yan%Lv%15001008285@139.com%0,                  Xiao-Ping%Yin%yinxiaoping78@sina.com%0,                  Jian-Zeng%Zhang%NULL%0,                  Li%Dong%NULL%0,                  Xi%Ma%NULL%0,                  Hong-Jie%Zhang%NULL%0,                  Bu-Lang%Gao%browngao@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fanfan%Zeng%NULL%1,                  Chan%Dai%NULL%2,                  Chan%Dai%NULL%0,                  Pengcheng%Cai%NULL%1,                  Jinbiao%Wang%NULL%1,                  Lei%Xu%NULL%1,                  Jianyu%Li%NULL%1,                  Guoyun%Hu%NULL%1,                  Zheng%Wang%zhengwang@hust.edu.cn%1,                  Fang%Zheng%zhengfangtj@hust.edu.cn%1,                  Lin%Wang%lin_wang@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,                  Jie%Zhang%945128911@qq.com%2,                  Bowen%Wang%NULL%2,                  Xionglin%Zhu%NULL%2,                  Qiang%Wang%NULL%0,                  Shiming%Qiu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,                  Jie%Zhang%945128911@qq.com%0,                  Bowen%Wang%NULL%0,                  Xionglin%Zhu%NULL%0,                  Qiang%Wang%NULL%0,                  Shiming%Qiu%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1655,7 +1757,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1684,7 +1786,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>348</v>
+        <v>382</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1713,7 +1815,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1742,7 +1844,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>350</v>
+        <v>384</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -1771,7 +1873,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -1800,7 +1902,7 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="F7" t="s">
         <v>58</v>
@@ -1829,7 +1931,7 @@
         <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="F8" t="s">
         <v>63</v>
@@ -1858,7 +1960,7 @@
         <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>354</v>
+        <v>388</v>
       </c>
       <c r="F9" t="s">
         <v>68</v>
@@ -1887,7 +1989,7 @@
         <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>355</v>
+        <v>389</v>
       </c>
       <c r="F10" t="s">
         <v>72</v>
@@ -1916,7 +2018,7 @@
         <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>356</v>
+        <v>390</v>
       </c>
       <c r="F11" t="s">
         <v>76</v>
@@ -1945,7 +2047,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>357</v>
+        <v>391</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -1974,7 +2076,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>358</v>
+        <v>392</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -2003,7 +2105,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>359</v>
+        <v>393</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -2032,7 +2134,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>360</v>
+        <v>394</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -2061,7 +2163,7 @@
         <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>361</v>
+        <v>395</v>
       </c>
       <c r="F16" t="s">
         <v>99</v>
@@ -2090,7 +2192,7 @@
         <v>310</v>
       </c>
       <c r="E17" t="s">
-        <v>362</v>
+        <v>396</v>
       </c>
       <c r="F17" t="s">
         <v>104</v>
@@ -2119,7 +2221,7 @@
         <v>310</v>
       </c>
       <c r="E18" t="s">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>

--- a/Covid_19_Dataset_and_References/References/78.xlsx
+++ b/Covid_19_Dataset_and_References/References/78.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2364" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2490" uniqueCount="415">
   <si>
     <t>Doi</t>
   </si>
@@ -1418,6 +1418,57 @@
   </si>
   <si>
     <t>[Gemin%Zhang%NULL%0,                  Jie%Zhang%945128911@qq.com%0,                  Bowen%Wang%NULL%0,                  Xionglin%Zhu%NULL%0,                  Qiang%Wang%NULL%0,                  Shiming%Qiu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%3,           Di%Wu%xref no email%3,           Wei%Guo%xref no email%3,           Yong%Cao%xref no email%3,           Da%Huang%xref no email%3,           Hongwu%Wang%xref no email%3,           Tao%Wang%xref no email%0,           Xiaoyun%Zhang%xref no email%3,           Huilong%Chen%xref no email%3,           Haijing%Yu%xref no email%3,           Xiaoping%Zhang%xref no email%3,           Minxia%Zhang%xref no email%3,           Shiji%Wu%xref no email%3,           Jianxin%Song%xref no email%3,           Tao%Chen%xref no email%3,           Meifang%Han%xref no email%3,           Shusheng%Li%xref no email%3,           Xiaoping%Luo%xref no email%3,           Jianping%Zhao%xref no email%0,           Qin%Ning%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                   Di%Wu%NULL%0,                   Huilong%Chen%NULL%0,                   Weiming%Yan%NULL%0,                   Danlei%Yang%NULL%0,                   Guang%Chen%NULL%0,                   Ke%Ma%NULL%0,                   Dong%Xu%NULL%0,                   Haijing%Yu%NULL%0,                   Hongwu%Wang%NULL%0,                   Tao%Wang%NULL%0,                   Wei%Guo%NULL%0,                   Jia%Chen%NULL%0,                   Chen%Ding%NULL%0,                   Xiaoping%Zhang%NULL%0,                   Jiaquan%Huang%NULL%0,                   Meifang%Han%NULL%0,                   Shusheng%Li%NULL%0,                   Xiaoping%Luo%NULL%0,                   Jianping%Zhao%NULL%0,                   Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                   Wenhua%Liang%NULL%0,                   Mei%Jiang%NULL%0,                   Weijie%Guan%NULL%0,                   Chen%Zhan%NULL%2,                   Tao%Wang%NULL%0,                   Chunli%Tang%NULL%2,                   Ling%Sang%NULL%0,                   Jiaxing%Liu%NULL%2,                   Zhengyi%Ni%NULL%0,                   Yu%Hu%NULL%0,                   Lei%Liu%NULL%0,                   Hong%Shan%NULL%0,                   Chunliang%Lei%NULL%0,                   Yixiang%Peng%NULL%0,                   Li%Wei%NULL%0,                   Yong%Liu%NULL%0,                   Yahua%Hu%NULL%0,                   Peng%Peng%NULL%0,                   Jianming%Wang%NULL%0,                   Jiyang%Liu%NULL%0,                   Zhong%Chen%NULL%0,                   Gang%Li%NULL%0,                   Zhijian%Zheng%NULL%0,                   Shaoqin%Qiu%NULL%0,                   Jie%Luo%NULL%0,                   Changjiang%Ye%NULL%0,                   Shaoyong%Zhu%NULL%0,                   Xiaoqing%Liu%NULL%0,                   Linling%Cheng%NULL%2,                   Feng%Ye%NULL%0,                   Jinping%Zheng%NULL%0,                   Nuofu%Zhang%NULL%0,                   Yimin%Li%NULL%0,                   Jianxing%He%NULL%0,                   Shiyue%Li%lishiyue@188.com%0,                   Nanshan%Zhong%NULL%0,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[H.%Hou%NULL%1,                   B.%Zhang%NULL%1,                   H.%Huang%NULL%1,                   Y.%Luo%NULL%1,                   S.%Wu%NULL%1,                   G.%Tang%NULL%1,                   W.%Liu%NULL%1,                   L.%Mao%NULL%2,                   L.%Mao%NULL%0,                   F.%Wang%fengwang@tjh.tjmu.edu.cn%1,                   Z.%Sun%zysun@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang%Liu%NULL%1,                   Lin%Li%NULL%0,                   MengDa%Xu%NULL%1,                   Juan%Wu%NULL%1,                   Ding%Luo%NULL%1,                   YuSi%Zhu%NULL%1,                   BiXi%Li%NULL%1,                   XiaoYang%Song%NULL%1,                   Xiang%Zhou%zhouxiang188483@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Kai-Cai%Liu%NULL%1,                   Ping%Xu%xuping1027@163.com%1,                   Wei-Fu%Lv%weifulv@ustc.edu.cn%1,                   Xiao-Hui%Qiu%NULL%1,                   Jin-Long%Yao%NULL%1,                   Jin-Feng%Gu%NULL%1,                   Wei%Wei%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Fengjun%Liu%NULL%1,                   Qi%Zhang%NULL%1,                   Chao%Huang%NULL%1,                   Chunzi%Shi%NULL%1,                   Lin%Wang%NULL%0,                   Nannan%Shi%NULL%0,                   Cong%Fang%NULL%1,                   Fei%Shan%NULL%0,                   Xue%Mei%NULL%1,                   Jing%Shi%NULL%1,                   Fengxiang%Song%NULL%1,                   Zhongcheng%Yang%NULL%1,                   Zezhen%Ding%NULL%1,                   Xiaoming%Su%NULL%1,                   Hongzhou%Lu%NULL%0,                   Tongyu%Zhu%NULL%0,                   Zhiyong%Zhang%NULL%0,                   Lei%Shi%NULL%1,                   Yuxin%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Pan%NULL%1,                   Mi%Mu%NULL%0,                   Pengcheng%Yang%NULL%0,                   Yu%Sun%NULL%1,                   Runsheng%Wang%NULL%0,                   Junhong%Yan%NULL%1,                   Pibao%Li%NULL%1,                   Baoguang%Hu%NULL%1,                   Jing%Wang%NULL%0,                   Chao%Hu%NULL%0,                   Yuan%Jin%NULL%1,                   Xun%Niu%NULL%1,                   Rongyu%Ping%NULL%0,                   Yingzhen%Du%NULL%1,                   Tianzhi%Li%NULL%0,                   Guogang%Xu%NULL%0,                   Qinyong%Hu%NULL%0,                   Lei%Tu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                   Ruoqi%Ning%NULL%0,                   Yu%Tao%NULL%0,                   Chong%Yu%NULL%0,                   Xiaoyan%Deng%NULL%0,                   Caili%Zhao%NULL%0,                   Silu%Meng%NULL%0,                   Fangxu%Tang%89650793@qq.com%0,                   Dong%Xu%89650793@qq.com%0,                   Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%0,                   Nan%Hu%NULL%0,                   Jing%Lou%NULL%0,                   Kun%Chen%NULL%0,                   Xuqin%Kang%NULL%0,                   Zhenjun%Xiang%NULL%0,                   Hui%Chen%NULL%0,                   Dali%Wang%NULL%0,                   Ning%Liu%NULL%0,                   Dong%Liu%NULL%0,                   Gang%Chen%NULL%0,                   Yongliang%Zhang%NULL%0,                   Dou%Li%NULL%0,                   Jianren%Li%NULL%0,                   Huixin%Lian%NULL%0,                   Shengmei%Niu%NULL%0,                   Luxi%Zhang%NULL%0,                   Jinjun%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%0,                   Owen Tak-Yin%Tsang%NULL%1,                   Wai-Shing%Leung%NULL%1,                   Anthony Raymond%Tam%NULL%1,                   Tak-Chiu%Wu%NULL%1,                   David Christopher%Lung%NULL%1,                   Cyril Chik-Yan%Yip%NULL%0,                   Jian-Piao%Cai%NULL%0,                   Jacky Man-Chun%Chan%NULL%1,                   Thomas Shiu-Hong%Chik%NULL%1,                   Daphne Pui-Ling%Lau%NULL%1,                   Chris Yau-Chung%Choi%NULL%1,                   Lin-Lei%Chen%NULL%1,                   Wan-Mui%Chan%NULL%0,                   Kwok-Hung%Chan%NULL%0,                   Jonathan Daniel%Ip%NULL%0,                   Anthony Chin-Ki%Ng%NULL%1,                   Rosana Wing-Shan%Poon%NULL%0,                   Cui-Ting%Luo%NULL%1,                   Vincent Chi-Chung%Cheng%NULL%0,                   Jasper Fuk-Woo%Chan%NULL%1,                   Ivan Fan-Ngai%Hung%NULL%1,                   Zhiwei%Chen%NULL%1,                   Honglin%Chen%NULL%0,                   Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                   Qingjie%Yi%NULL%1,                   Shibing%Fan%NULL%1,                   Jinglong%Lv%13608388377@163.com%0,                   Xianxiang%Zhang%NULL%2,                   Xianxiang%Zhang%NULL%0,                   Lian%Guo%NULL%1,                   Chunhui%Lang%NULL%0,                   Qing%Xiao%NULL%1,                   Kaihu%Xiao%NULL%2,                   Zhengjun%Yi%NULL%1,                   Mao%Qiang%NULL%1,                   Jianglin%Xiang%NULL%1,                   Bangshuo%Zhang%NULL%1,                   Yongping%Chen%NULL%1,                   Cailiang%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                   Wenbo%He%NULL%0,                   Xiaomei%Yu%NULL%0,                   Dalong%Hu%NULL%0,                   Mingwei%Bao%NULL%0,                   Huafen%Liu%NULL%0,                   Jiali%Zhou%NULL%0,                   Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%0,                   Jing-Hui%Dong%NULL%0,                   Wei-Min%An%NULL%0,                   Xiao-Yan%Lv%15001008285@139.com%0,                   Xiao-Ping%Yin%yinxiaoping78@sina.com%0,                   Jian-Zeng%Zhang%NULL%0,                   Li%Dong%NULL%0,                   Xi%Ma%NULL%0,                   Hong-Jie%Zhang%NULL%0,                   Bu-Lang%Gao%browngao@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fanfan%Zeng%NULL%1,                   Chan%Dai%NULL%2,                   Chan%Dai%NULL%0,                   Pengcheng%Cai%NULL%1,                   Jinbiao%Wang%NULL%1,                   Lei%Xu%NULL%1,                   Jianyu%Li%NULL%1,                   Guoyun%Hu%NULL%1,                   Zheng%Wang%zhengwang@hust.edu.cn%1,                   Fang%Zheng%zhengfangtj@hust.edu.cn%1,                   Lin%Wang%lin_wang@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,                   Jie%Zhang%945128911@qq.com%2,                   Bowen%Wang%NULL%2,                   Xionglin%Zhu%NULL%2,                   Qiang%Wang%NULL%0,                   Shiming%Qiu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,                   Jie%Zhang%945128911@qq.com%0,                   Bowen%Wang%NULL%0,                   Xionglin%Zhu%NULL%0,                   Qiang%Wang%NULL%0,                   Shiming%Qiu%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1757,7 +1808,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1786,7 +1837,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1815,7 +1866,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1844,7 +1895,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -1873,7 +1924,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -1902,7 +1953,7 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="F7" t="s">
         <v>58</v>
@@ -1931,7 +1982,7 @@
         <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="F8" t="s">
         <v>63</v>
@@ -1960,7 +2011,7 @@
         <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="F9" t="s">
         <v>68</v>
@@ -1989,7 +2040,7 @@
         <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="F10" t="s">
         <v>72</v>
@@ -2018,7 +2069,7 @@
         <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="F11" t="s">
         <v>76</v>
@@ -2047,7 +2098,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -2076,7 +2127,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -2105,7 +2156,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -2134,7 +2185,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -2163,7 +2214,7 @@
         <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="F16" t="s">
         <v>99</v>
@@ -2192,7 +2243,7 @@
         <v>310</v>
       </c>
       <c r="E17" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="F17" t="s">
         <v>104</v>
@@ -2221,7 +2272,7 @@
         <v>310</v>
       </c>
       <c r="E18" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>

--- a/Covid_19_Dataset_and_References/References/78.xlsx
+++ b/Covid_19_Dataset_and_References/References/78.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2490" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2616" uniqueCount="436">
   <si>
     <t>Doi</t>
   </si>
@@ -1469,6 +1469,69 @@
   </si>
   <si>
     <t>[Gemin%Zhang%NULL%0,                   Jie%Zhang%945128911@qq.com%0,                   Bowen%Wang%NULL%0,                   Xionglin%Zhu%NULL%0,                   Qiang%Wang%NULL%0,                   Shiming%Qiu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%3,            Di%Wu%xref no email%3,            Wei%Guo%xref no email%3,            Yong%Cao%xref no email%3,            Da%Huang%xref no email%3,            Hongwu%Wang%xref no email%3,            Tao%Wang%xref no email%3,            Xiaoyun%Zhang%xref no email%3,            Huilong%Chen%xref no email%3,            Haijing%Yu%xref no email%3,            Xiaoping%Zhang%xref no email%3,            Minxia%Zhang%xref no email%3,            Shiji%Wu%xref no email%3,            Jianxin%Song%xref no email%3,            Tao%Chen%xref no email%3,            Meifang%Han%xref no email%3,            Shusheng%Li%xref no email%3,            Xiaoping%Luo%xref no email%3,            Jianping%Zhao%xref no email%3,            Qin%Ning%xref no email%3]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                    Di%Wu%NULL%0,                    Huilong%Chen%NULL%0,                    Weiming%Yan%NULL%0,                    Danlei%Yang%NULL%0,                    Guang%Chen%NULL%0,                    Ke%Ma%NULL%0,                    Dong%Xu%NULL%0,                    Haijing%Yu%NULL%0,                    Hongwu%Wang%NULL%0,                    Tao%Wang%NULL%0,                    Wei%Guo%NULL%0,                    Jia%Chen%NULL%0,                    Chen%Ding%NULL%0,                    Xiaoping%Zhang%NULL%0,                    Jiaquan%Huang%NULL%0,                    Meifang%Han%NULL%0,                    Shusheng%Li%NULL%0,                    Xiaoping%Luo%NULL%0,                    Jianping%Zhao%NULL%0,                    Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                    Wenhua%Liang%NULL%0,                    Mei%Jiang%NULL%0,                    Weijie%Guan%NULL%0,                    Chen%Zhan%NULL%2,                    Tao%Wang%NULL%0,                    Chunli%Tang%NULL%2,                    Ling%Sang%NULL%0,                    Jiaxing%Liu%NULL%2,                    Zhengyi%Ni%NULL%0,                    Yu%Hu%NULL%0,                    Lei%Liu%NULL%0,                    Hong%Shan%NULL%0,                    Chunliang%Lei%NULL%0,                    Yixiang%Peng%NULL%0,                    Li%Wei%NULL%0,                    Yong%Liu%NULL%0,                    Yahua%Hu%NULL%0,                    Peng%Peng%NULL%0,                    Jianming%Wang%NULL%0,                    Jiyang%Liu%NULL%0,                    Zhong%Chen%NULL%0,                    Gang%Li%NULL%0,                    Zhijian%Zheng%NULL%0,                    Shaoqin%Qiu%NULL%0,                    Jie%Luo%NULL%0,                    Changjiang%Ye%NULL%0,                    Shaoyong%Zhu%NULL%0,                    Xiaoqing%Liu%NULL%0,                    Linling%Cheng%NULL%2,                    Feng%Ye%NULL%0,                    Jinping%Zheng%NULL%0,                    Nuofu%Zhang%NULL%0,                    Yimin%Li%NULL%0,                    Jianxing%He%NULL%0,                    Shiyue%Li%lishiyue@188.com%0,                    Nanshan%Zhong%NULL%0,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[H.%Hou%NULL%1,                    B.%Zhang%NULL%1,                    H.%Huang%NULL%1,                    Y.%Luo%NULL%1,                    S.%Wu%NULL%1,                    G.%Tang%NULL%1,                    W.%Liu%NULL%1,                    L.%Mao%NULL%2,                    L.%Mao%NULL%0,                    F.%Wang%fengwang@tjh.tjmu.edu.cn%1,                    Z.%Sun%zysun@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang%Liu%NULL%1,                    Lin%Li%NULL%0,                    MengDa%Xu%NULL%1,                    Juan%Wu%NULL%1,                    Ding%Luo%NULL%1,                    YuSi%Zhu%NULL%1,                    BiXi%Li%NULL%1,                    XiaoYang%Song%NULL%1,                    Xiang%Zhou%zhouxiang188483@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Kai-Cai%Liu%NULL%1,                    Ping%Xu%xuping1027@163.com%1,                    Wei-Fu%Lv%weifulv@ustc.edu.cn%1,                    Xiao-Hui%Qiu%NULL%1,                    Jin-Long%Yao%NULL%1,                    Jin-Feng%Gu%NULL%1,                    Wei%Wei%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Fengjun%Liu%NULL%1,                    Qi%Zhang%NULL%1,                    Chao%Huang%NULL%1,                    Chunzi%Shi%NULL%1,                    Lin%Wang%NULL%0,                    Nannan%Shi%NULL%1,                    Cong%Fang%NULL%1,                    Fei%Shan%NULL%1,                    Xue%Mei%NULL%1,                    Jing%Shi%NULL%1,                    Fengxiang%Song%NULL%1,                    Zhongcheng%Yang%NULL%1,                    Zezhen%Ding%NULL%1,                    Xiaoming%Su%NULL%1,                    Hongzhou%Lu%NULL%0,                    Tongyu%Zhu%NULL%0,                    Zhiyong%Zhang%NULL%1,                    Lei%Shi%NULL%1,                    Yuxin%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Pan%NULL%1,                    Mi%Mu%NULL%0,                    Pengcheng%Yang%NULL%0,                    Yu%Sun%NULL%1,                    Runsheng%Wang%NULL%0,                    Junhong%Yan%NULL%1,                    Pibao%Li%NULL%1,                    Baoguang%Hu%NULL%1,                    Jing%Wang%NULL%0,                    Chao%Hu%NULL%0,                    Yuan%Jin%NULL%1,                    Xun%Niu%NULL%1,                    Rongyu%Ping%NULL%0,                    Yingzhen%Du%NULL%1,                    Tianzhi%Li%NULL%0,                    Guogang%Xu%NULL%0,                    Qinyong%Hu%NULL%0,                    Lei%Tu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                    Ruoqi%Ning%NULL%0,                    Yu%Tao%NULL%0,                    Chong%Yu%NULL%0,                    Xiaoyan%Deng%NULL%0,                    Caili%Zhao%NULL%0,                    Silu%Meng%NULL%0,                    Fangxu%Tang%89650793@qq.com%0,                    Dong%Xu%89650793@qq.com%0,                    Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%0,                    Nan%Hu%NULL%1,                    Jing%Lou%NULL%1,                    Kun%Chen%NULL%1,                    Xuqin%Kang%NULL%1,                    Zhenjun%Xiang%NULL%1,                    Hui%Chen%NULL%0,                    Dali%Wang%NULL%1,                    Ning%Liu%NULL%1,                    Dong%Liu%NULL%1,                    Gang%Chen%NULL%1,                    Yongliang%Zhang%NULL%1,                    Dou%Li%NULL%1,                    Jianren%Li%NULL%1,                    Huixin%Lian%NULL%1,                    Shengmei%Niu%NULL%1,                    Luxi%Zhang%NULL%1,                    Jinjun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%0,                    Owen Tak-Yin%Tsang%NULL%1,                    Wai-Shing%Leung%NULL%1,                    Anthony Raymond%Tam%NULL%1,                    Tak-Chiu%Wu%NULL%1,                    David Christopher%Lung%NULL%1,                    Cyril Chik-Yan%Yip%NULL%0,                    Jian-Piao%Cai%NULL%0,                    Jacky Man-Chun%Chan%NULL%1,                    Thomas Shiu-Hong%Chik%NULL%1,                    Daphne Pui-Ling%Lau%NULL%1,                    Chris Yau-Chung%Choi%NULL%1,                    Lin-Lei%Chen%NULL%1,                    Wan-Mui%Chan%NULL%0,                    Kwok-Hung%Chan%NULL%0,                    Jonathan Daniel%Ip%NULL%0,                    Anthony Chin-Ki%Ng%NULL%1,                    Rosana Wing-Shan%Poon%NULL%0,                    Cui-Ting%Luo%NULL%1,                    Vincent Chi-Chung%Cheng%NULL%0,                    Jasper Fuk-Woo%Chan%NULL%1,                    Ivan Fan-Ngai%Hung%NULL%1,                    Zhiwei%Chen%NULL%1,                    Honglin%Chen%NULL%0,                    Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                    Qingjie%Yi%NULL%1,                    Shibing%Fan%NULL%1,                    Jinglong%Lv%13608388377@163.com%0,                    Xianxiang%Zhang%NULL%2,                    Xianxiang%Zhang%NULL%0,                    Lian%Guo%NULL%1,                    Chunhui%Lang%NULL%0,                    Qing%Xiao%NULL%1,                    Kaihu%Xiao%NULL%2,                    Zhengjun%Yi%NULL%1,                    Mao%Qiang%NULL%1,                    Jianglin%Xiang%NULL%1,                    Bangshuo%Zhang%NULL%1,                    Yongping%Chen%NULL%1,                    Cailiang%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                    Wenbo%He%NULL%0,                    Xiaomei%Yu%NULL%0,                    Dalong%Hu%NULL%0,                    Mingwei%Bao%NULL%0,                    Huafen%Liu%NULL%0,                    Jiali%Zhou%NULL%0,                    Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%0,                    Jing-Hui%Dong%NULL%1,                    Wei-Min%An%NULL%1,                    Xiao-Yan%Lv%15001008285@139.com%1,                    Xiao-Ping%Yin%yinxiaoping78@sina.com%1,                    Jian-Zeng%Zhang%NULL%1,                    Li%Dong%NULL%1,                    Xi%Ma%NULL%1,                    Hong-Jie%Zhang%NULL%1,                    Bu-Lang%Gao%browngao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Fanfan%Zeng%NULL%1,                    Chan%Dai%NULL%2,                    Chan%Dai%NULL%0,                    Pengcheng%Cai%NULL%1,                    Jinbiao%Wang%NULL%1,                    Lei%Xu%NULL%1,                    Jianyu%Li%NULL%1,                    Guoyun%Hu%NULL%1,                    Zheng%Wang%zhengwang@hust.edu.cn%1,                    Fang%Zheng%zhengfangtj@hust.edu.cn%1,                    Lin%Wang%lin_wang@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,                    Jie%Zhang%945128911@qq.com%2,                    Bowen%Wang%NULL%2,                    Xionglin%Zhu%NULL%2,                    Qiang%Wang%NULL%0,                    Shiming%Qiu%NULL%2]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,                    Jie%Zhang%945128911@qq.com%0,                    Bowen%Wang%NULL%0,                    Xionglin%Zhu%NULL%0,                    Qiang%Wang%NULL%0,                    Shiming%Qiu%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1808,7 +1871,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1820,7 +1883,7 @@
         <v>227</v>
       </c>
       <c r="I2" t="s">
-        <v>156</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3">
@@ -1837,7 +1900,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1849,7 +1912,7 @@
         <v>40</v>
       </c>
       <c r="I3" t="s">
-        <v>158</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4">
@@ -1866,7 +1929,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1878,7 +1941,7 @@
         <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>160</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5">
@@ -1895,7 +1958,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -1907,7 +1970,7 @@
         <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>158</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6">
@@ -1924,7 +1987,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -1936,7 +1999,7 @@
         <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>160</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7">
@@ -1953,7 +2016,7 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="F7" t="s">
         <v>58</v>
@@ -1965,7 +2028,7 @@
         <v>59</v>
       </c>
       <c r="I7" t="s">
-        <v>160</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8">
@@ -1982,7 +2045,7 @@
         <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="F8" t="s">
         <v>63</v>
@@ -1994,7 +2057,7 @@
         <v>64</v>
       </c>
       <c r="I8" t="s">
-        <v>158</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9">
@@ -2011,7 +2074,7 @@
         <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="F9" t="s">
         <v>68</v>
@@ -2023,7 +2086,7 @@
         <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>158</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10">
@@ -2040,7 +2103,7 @@
         <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="F10" t="s">
         <v>72</v>
@@ -2052,7 +2115,7 @@
         <v>64</v>
       </c>
       <c r="I10" t="s">
-        <v>158</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11">
@@ -2069,7 +2132,7 @@
         <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="F11" t="s">
         <v>76</v>
@@ -2081,7 +2144,7 @@
         <v>77</v>
       </c>
       <c r="I11" t="s">
-        <v>160</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12">
@@ -2098,7 +2161,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -2110,7 +2173,7 @@
         <v>34</v>
       </c>
       <c r="I12" t="s">
-        <v>160</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13">
@@ -2127,7 +2190,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -2139,7 +2202,7 @@
         <v>86</v>
       </c>
       <c r="I13" t="s">
-        <v>158</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14">
@@ -2156,7 +2219,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -2168,7 +2231,7 @@
         <v>91</v>
       </c>
       <c r="I14" t="s">
-        <v>160</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15">
@@ -2185,7 +2248,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -2197,7 +2260,7 @@
         <v>77</v>
       </c>
       <c r="I15" t="s">
-        <v>160</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16">
@@ -2214,7 +2277,7 @@
         <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="F16" t="s">
         <v>99</v>
@@ -2226,7 +2289,7 @@
         <v>100</v>
       </c>
       <c r="I16" t="s">
-        <v>158</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17">
@@ -2243,7 +2306,7 @@
         <v>310</v>
       </c>
       <c r="E17" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="F17" t="s">
         <v>104</v>
@@ -2255,7 +2318,7 @@
         <v>105</v>
       </c>
       <c r="I17" t="s">
-        <v>174</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18">
@@ -2272,7 +2335,7 @@
         <v>310</v>
       </c>
       <c r="E18" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -2284,7 +2347,7 @@
         <v>105</v>
       </c>
       <c r="I18" t="s">
-        <v>174</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/78.xlsx
+++ b/Covid_19_Dataset_and_References/References/78.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2616" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2742" uniqueCount="453">
   <si>
     <t>Doi</t>
   </si>
@@ -1532,6 +1532,57 @@
   </si>
   <si>
     <t>[Gemin%Zhang%NULL%0,                    Jie%Zhang%945128911@qq.com%0,                    Bowen%Wang%NULL%0,                    Xionglin%Zhu%NULL%0,                    Qiang%Wang%NULL%0,                    Shiming%Qiu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%3,             Di%Wu%xref no email%3,             Wei%Guo%xref no email%3,             Yong%Cao%xref no email%3,             Da%Huang%xref no email%3,             Hongwu%Wang%xref no email%3,             Tao%Wang%xref no email%3,             Xiaoyun%Zhang%xref no email%3,             Huilong%Chen%xref no email%3,             Haijing%Yu%xref no email%3,             Xiaoping%Zhang%xref no email%3,             Minxia%Zhang%xref no email%3,             Shiji%Wu%xref no email%3,             Jianxin%Song%xref no email%3,             Tao%Chen%xref no email%3,             Meifang%Han%xref no email%3,             Shusheng%Li%xref no email%3,             Xiaoping%Luo%xref no email%3,             Jianping%Zhao%xref no email%3,             Qin%Ning%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                     Di%Wu%NULL%0,                     Huilong%Chen%NULL%0,                     Weiming%Yan%NULL%0,                     Danlei%Yang%NULL%0,                     Guang%Chen%NULL%0,                     Ke%Ma%NULL%0,                     Dong%Xu%NULL%0,                     Haijing%Yu%NULL%0,                     Hongwu%Wang%NULL%0,                     Tao%Wang%NULL%0,                     Wei%Guo%NULL%0,                     Jia%Chen%NULL%0,                     Chen%Ding%NULL%0,                     Xiaoping%Zhang%NULL%0,                     Jiaquan%Huang%NULL%0,                     Meifang%Han%NULL%0,                     Shusheng%Li%NULL%0,                     Xiaoping%Luo%NULL%0,                     Jianping%Zhao%NULL%0,                     Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                     Wenhua%Liang%NULL%0,                     Mei%Jiang%NULL%0,                     Weijie%Guan%NULL%0,                     Chen%Zhan%NULL%2,                     Tao%Wang%NULL%0,                     Chunli%Tang%NULL%2,                     Ling%Sang%NULL%0,                     Jiaxing%Liu%NULL%2,                     Zhengyi%Ni%NULL%0,                     Yu%Hu%NULL%0,                     Lei%Liu%NULL%0,                     Hong%Shan%NULL%0,                     Chunliang%Lei%NULL%0,                     Yixiang%Peng%NULL%0,                     Li%Wei%NULL%0,                     Yong%Liu%NULL%0,                     Yahua%Hu%NULL%0,                     Peng%Peng%NULL%0,                     Jianming%Wang%NULL%0,                     Jiyang%Liu%NULL%0,                     Zhong%Chen%NULL%0,                     Gang%Li%NULL%0,                     Zhijian%Zheng%NULL%0,                     Shaoqin%Qiu%NULL%0,                     Jie%Luo%NULL%0,                     Changjiang%Ye%NULL%0,                     Shaoyong%Zhu%NULL%0,                     Xiaoqing%Liu%NULL%0,                     Linling%Cheng%NULL%2,                     Feng%Ye%NULL%0,                     Jinping%Zheng%NULL%0,                     Nuofu%Zhang%NULL%0,                     Yimin%Li%NULL%0,                     Jianxing%He%NULL%0,                     Shiyue%Li%lishiyue@188.com%0,                     Nanshan%Zhong%NULL%0,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[H.%Hou%NULL%1,                     B.%Zhang%NULL%1,                     H.%Huang%NULL%1,                     Y.%Luo%NULL%1,                     S.%Wu%NULL%1,                     G.%Tang%NULL%1,                     W.%Liu%NULL%1,                     L.%Mao%NULL%2,                     L.%Mao%NULL%0,                     F.%Wang%fengwang@tjh.tjmu.edu.cn%1,                     Z.%Sun%zysun@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang%Liu%NULL%1,                     Lin%Li%NULL%0,                     MengDa%Xu%NULL%1,                     Juan%Wu%NULL%1,                     Ding%Luo%NULL%1,                     YuSi%Zhu%NULL%1,                     BiXi%Li%NULL%1,                     XiaoYang%Song%NULL%1,                     Xiang%Zhou%zhouxiang188483@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Kai-Cai%Liu%NULL%1,                     Ping%Xu%xuping1027@163.com%1,                     Wei-Fu%Lv%weifulv@ustc.edu.cn%1,                     Xiao-Hui%Qiu%NULL%1,                     Jin-Long%Yao%NULL%1,                     Jin-Feng%Gu%NULL%1,                     Wei%Wei%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Fengjun%Liu%NULL%1,                     Qi%Zhang%NULL%1,                     Chao%Huang%NULL%1,                     Chunzi%Shi%NULL%1,                     Lin%Wang%NULL%0,                     Nannan%Shi%NULL%1,                     Cong%Fang%NULL%1,                     Fei%Shan%NULL%1,                     Xue%Mei%NULL%1,                     Jing%Shi%NULL%1,                     Fengxiang%Song%NULL%1,                     Zhongcheng%Yang%NULL%1,                     Zezhen%Ding%NULL%1,                     Xiaoming%Su%NULL%1,                     Hongzhou%Lu%NULL%0,                     Tongyu%Zhu%NULL%0,                     Zhiyong%Zhang%NULL%1,                     Lei%Shi%NULL%1,                     Yuxin%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Pan%NULL%1,                     Mi%Mu%NULL%0,                     Pengcheng%Yang%NULL%0,                     Yu%Sun%NULL%1,                     Runsheng%Wang%NULL%0,                     Junhong%Yan%NULL%1,                     Pibao%Li%NULL%1,                     Baoguang%Hu%NULL%1,                     Jing%Wang%NULL%0,                     Chao%Hu%NULL%0,                     Yuan%Jin%NULL%1,                     Xun%Niu%NULL%1,                     Rongyu%Ping%NULL%0,                     Yingzhen%Du%NULL%1,                     Tianzhi%Li%NULL%0,                     Guogang%Xu%NULL%0,                     Qinyong%Hu%NULL%0,                     Lei%Tu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                     Ruoqi%Ning%NULL%0,                     Yu%Tao%NULL%0,                     Chong%Yu%NULL%0,                     Xiaoyan%Deng%NULL%0,                     Caili%Zhao%NULL%0,                     Silu%Meng%NULL%0,                     Fangxu%Tang%89650793@qq.com%0,                     Dong%Xu%89650793@qq.com%0,                     Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%0,                     Nan%Hu%NULL%1,                     Jing%Lou%NULL%1,                     Kun%Chen%NULL%1,                     Xuqin%Kang%NULL%1,                     Zhenjun%Xiang%NULL%1,                     Hui%Chen%NULL%0,                     Dali%Wang%NULL%1,                     Ning%Liu%NULL%1,                     Dong%Liu%NULL%1,                     Gang%Chen%NULL%1,                     Yongliang%Zhang%NULL%1,                     Dou%Li%NULL%1,                     Jianren%Li%NULL%1,                     Huixin%Lian%NULL%1,                     Shengmei%Niu%NULL%1,                     Luxi%Zhang%NULL%1,                     Jinjun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%0,                     Owen Tak-Yin%Tsang%NULL%1,                     Wai-Shing%Leung%NULL%1,                     Anthony Raymond%Tam%NULL%1,                     Tak-Chiu%Wu%NULL%1,                     David Christopher%Lung%NULL%1,                     Cyril Chik-Yan%Yip%NULL%0,                     Jian-Piao%Cai%NULL%0,                     Jacky Man-Chun%Chan%NULL%1,                     Thomas Shiu-Hong%Chik%NULL%1,                     Daphne Pui-Ling%Lau%NULL%1,                     Chris Yau-Chung%Choi%NULL%1,                     Lin-Lei%Chen%NULL%1,                     Wan-Mui%Chan%NULL%0,                     Kwok-Hung%Chan%NULL%0,                     Jonathan Daniel%Ip%NULL%0,                     Anthony Chin-Ki%Ng%NULL%1,                     Rosana Wing-Shan%Poon%NULL%0,                     Cui-Ting%Luo%NULL%1,                     Vincent Chi-Chung%Cheng%NULL%0,                     Jasper Fuk-Woo%Chan%NULL%1,                     Ivan Fan-Ngai%Hung%NULL%1,                     Zhiwei%Chen%NULL%1,                     Honglin%Chen%NULL%0,                     Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                     Qingjie%Yi%NULL%1,                     Shibing%Fan%NULL%1,                     Jinglong%Lv%13608388377@163.com%0,                     Xianxiang%Zhang%NULL%2,                     Xianxiang%Zhang%NULL%0,                     Lian%Guo%NULL%1,                     Chunhui%Lang%NULL%0,                     Qing%Xiao%NULL%1,                     Kaihu%Xiao%NULL%2,                     Zhengjun%Yi%NULL%1,                     Mao%Qiang%NULL%1,                     Jianglin%Xiang%NULL%1,                     Bangshuo%Zhang%NULL%1,                     Yongping%Chen%NULL%1,                     Cailiang%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                     Wenbo%He%NULL%0,                     Xiaomei%Yu%NULL%0,                     Dalong%Hu%NULL%0,                     Mingwei%Bao%NULL%0,                     Huafen%Liu%NULL%0,                     Jiali%Zhou%NULL%0,                     Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%0,                     Jing-Hui%Dong%NULL%1,                     Wei-Min%An%NULL%1,                     Xiao-Yan%Lv%15001008285@139.com%1,                     Xiao-Ping%Yin%yinxiaoping78@sina.com%1,                     Jian-Zeng%Zhang%NULL%1,                     Li%Dong%NULL%1,                     Xi%Ma%NULL%1,                     Hong-Jie%Zhang%NULL%1,                     Bu-Lang%Gao%browngao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Fanfan%Zeng%NULL%1,                     Chan%Dai%NULL%2,                     Chan%Dai%NULL%0,                     Pengcheng%Cai%NULL%1,                     Jinbiao%Wang%NULL%1,                     Lei%Xu%NULL%1,                     Jianyu%Li%NULL%1,                     Guoyun%Hu%NULL%1,                     Zheng%Wang%zhengwang@hust.edu.cn%1,                     Fang%Zheng%zhengfangtj@hust.edu.cn%1,                     Lin%Wang%lin_wang@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,                     Jie%Zhang%945128911@qq.com%2,                     Bowen%Wang%NULL%2,                     Xionglin%Zhu%NULL%2,                     Qiang%Wang%NULL%0,                     Shiming%Qiu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,                     Jie%Zhang%945128911@qq.com%0,                     Bowen%Wang%NULL%0,                     Xionglin%Zhu%NULL%0,                     Qiang%Wang%NULL%0,                     Shiming%Qiu%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1871,7 +1922,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1900,7 +1951,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1929,7 +1980,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1958,7 +2009,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -1987,7 +2038,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -2016,7 +2067,7 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="F7" t="s">
         <v>58</v>
@@ -2045,7 +2096,7 @@
         <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>424</v>
+        <v>442</v>
       </c>
       <c r="F8" t="s">
         <v>63</v>
@@ -2074,7 +2125,7 @@
         <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="F9" t="s">
         <v>68</v>
@@ -2103,7 +2154,7 @@
         <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="F10" t="s">
         <v>72</v>
@@ -2132,7 +2183,7 @@
         <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="F11" t="s">
         <v>76</v>
@@ -2161,7 +2212,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -2190,7 +2241,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -2219,7 +2270,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -2248,7 +2299,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -2277,7 +2328,7 @@
         <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="F16" t="s">
         <v>99</v>
@@ -2306,7 +2357,7 @@
         <v>310</v>
       </c>
       <c r="E17" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="F17" t="s">
         <v>104</v>
@@ -2335,7 +2386,7 @@
         <v>310</v>
       </c>
       <c r="E18" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>

--- a/Covid_19_Dataset_and_References/References/78.xlsx
+++ b/Covid_19_Dataset_and_References/References/78.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2742" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3462" uniqueCount="538">
   <si>
     <t>Doi</t>
   </si>
@@ -1583,6 +1583,261 @@
   </si>
   <si>
     <t>[Gemin%Zhang%NULL%0,                     Jie%Zhang%945128911@qq.com%0,                     Bowen%Wang%NULL%0,                     Xionglin%Zhu%NULL%0,                     Qiang%Wang%NULL%0,                     Shiming%Qiu%NULL%0]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%0, Di%Wu%xref no email%0, Wei%Guo%xref no email%3, Yong%Cao%xref no email%3, Da%Huang%xref no email%3, Hongwu%Wang%xref no email%3, Tao%Wang%xref no email%0, Xiaoyun%Zhang%xref no email%3, Huilong%Chen%xref no email%3, Haijing%Yu%xref no email%3, Xiaoping%Zhang%xref no email%3, Minxia%Zhang%xref no email%3, Shiji%Wu%xref no email%3, Jianxin%Song%xref no email%3, Tao%Chen%xref no email%0, Meifang%Han%xref no email%3, Shusheng%Li%xref no email%3, Xiaoping%Luo%xref no email%3, Jianping%Zhao%xref no email%3, Qin%Ning%xref no email%3]</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Society for Clinical Investigation</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                      Di%Wu%NULL%0,                      Huilong%Chen%NULL%0,                      Weiming%Yan%NULL%0,                      Danlei%Yang%NULL%0,                      Guang%Chen%NULL%0,                      Ke%Ma%NULL%0,                      Dong%Xu%NULL%0,                      Haijing%Yu%NULL%0,                      Hongwu%Wang%NULL%0,                      Tao%Wang%NULL%0,                      Wei%Guo%NULL%0,                      Jia%Chen%NULL%0,                      Chen%Ding%NULL%0,                      Xiaoping%Zhang%NULL%0,                      Jiaquan%Huang%NULL%0,                      Meifang%Han%NULL%0,                      Shusheng%Li%NULL%0,                      Xiaoping%Luo%NULL%0,                      Jianping%Zhao%NULL%0,                      Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                      Wenhua%Liang%NULL%0,                      Mei%Jiang%NULL%0,                      Weijie%Guan%NULL%0,                      Chen%Zhan%NULL%2,                      Tao%Wang%NULL%0,                      Chunli%Tang%NULL%2,                      Ling%Sang%NULL%0,                      Jiaxing%Liu%NULL%2,                      Zhengyi%Ni%NULL%0,                      Yu%Hu%NULL%0,                      Lei%Liu%NULL%0,                      Hong%Shan%NULL%0,                      Chunliang%Lei%NULL%0,                      Yixiang%Peng%NULL%0,                      Li%Wei%NULL%0,                      Yong%Liu%NULL%0,                      Yahua%Hu%NULL%0,                      Peng%Peng%NULL%0,                      Jianming%Wang%NULL%0,                      Jiyang%Liu%NULL%0,                      Zhong%Chen%NULL%0,                      Gang%Li%NULL%0,                      Zhijian%Zheng%NULL%0,                      Shaoqin%Qiu%NULL%0,                      Jie%Luo%NULL%0,                      Changjiang%Ye%NULL%0,                      Shaoyong%Zhu%NULL%0,                      Xiaoqing%Liu%NULL%0,                      Linling%Cheng%NULL%2,                      Feng%Ye%NULL%0,                      Jinping%Zheng%NULL%0,                      Nuofu%Zhang%NULL%0,                      Yimin%Li%NULL%0,                      Jianxing%He%NULL%0,                      Shiyue%Li%lishiyue@188.com%0,                      Nanshan%Zhong%NULL%0,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[H.%Hou%NULL%1,                      B.%Zhang%NULL%1,                      H.%Huang%NULL%1,                      Y.%Luo%NULL%1,                      S.%Wu%NULL%1,                      G.%Tang%NULL%1,                      W.%Liu%NULL%1,                      L.%Mao%NULL%2,                      L.%Mao%NULL%0,                      F.%Wang%fengwang@tjh.tjmu.edu.cn%1,                      Z.%Sun%zysun@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang%Liu%NULL%2,                      Lin%Li%NULL%0,                      MengDa%Xu%NULL%1,                      Juan%Wu%NULL%1,                      Ding%Luo%NULL%1,                      YuSi%Zhu%NULL%1,                      BiXi%Li%NULL%1,                      XiaoYang%Song%NULL%1,                      Xiang%Zhou%zhouxiang188483@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Kai-Cai%Liu%NULL%1,                      Ping%Xu%xuping1027@163.com%1,                      Wei-Fu%Lv%weifulv@ustc.edu.cn%1,                      Xiao-Hui%Qiu%NULL%1,                      Jin-Long%Yao%NULL%1,                      Jin-Feng%Gu%NULL%1,                      Wei%Wei%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Fengjun%Liu%NULL%1,                      Qi%Zhang%NULL%1,                      Chao%Huang%NULL%1,                      Chunzi%Shi%NULL%1,                      Lin%Wang%NULL%0,                      Nannan%Shi%NULL%1,                      Cong%Fang%NULL%1,                      Fei%Shan%NULL%1,                      Xue%Mei%NULL%1,                      Jing%Shi%NULL%1,                      Fengxiang%Song%NULL%1,                      Zhongcheng%Yang%NULL%1,                      Zezhen%Ding%NULL%1,                      Xiaoming%Su%NULL%1,                      Hongzhou%Lu%NULL%0,                      Tongyu%Zhu%NULL%0,                      Zhiyong%Zhang%NULL%1,                      Lei%Shi%NULL%1,                      Yuxin%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Pan%NULL%1,                      Mi%Mu%NULL%0,                      Pengcheng%Yang%NULL%0,                      Yu%Sun%NULL%1,                      Runsheng%Wang%NULL%0,                      Junhong%Yan%NULL%1,                      Pibao%Li%NULL%1,                      Baoguang%Hu%NULL%1,                      Jing%Wang%NULL%0,                      Chao%Hu%NULL%0,                      Yuan%Jin%NULL%1,                      Xun%Niu%NULL%1,                      Rongyu%Ping%NULL%0,                      Yingzhen%Du%NULL%1,                      Tianzhi%Li%NULL%0,                      Guogang%Xu%NULL%0,                      Qinyong%Hu%NULL%0,                      Lei%Tu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                      Ruoqi%Ning%NULL%0,                      Yu%Tao%NULL%0,                      Chong%Yu%NULL%0,                      Xiaoyan%Deng%NULL%0,                      Caili%Zhao%NULL%0,                      Silu%Meng%NULL%0,                      Fangxu%Tang%89650793@qq.com%0,                      Dong%Xu%89650793@qq.com%0,                      Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%0,                      Nan%Hu%NULL%1,                      Jing%Lou%NULL%1,                      Kun%Chen%NULL%1,                      Xuqin%Kang%NULL%1,                      Zhenjun%Xiang%NULL%1,                      Hui%Chen%NULL%0,                      Dali%Wang%NULL%1,                      Ning%Liu%NULL%1,                      Dong%Liu%NULL%1,                      Gang%Chen%NULL%1,                      Yongliang%Zhang%NULL%1,                      Dou%Li%NULL%1,                      Jianren%Li%NULL%1,                      Huixin%Lian%NULL%1,                      Shengmei%Niu%NULL%1,                      Luxi%Zhang%NULL%1,                      Jinjun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%0,                      Owen Tak-Yin%Tsang%NULL%1,                      Wai-Shing%Leung%NULL%1,                      Anthony Raymond%Tam%NULL%1,                      Tak-Chiu%Wu%NULL%1,                      David Christopher%Lung%NULL%1,                      Cyril Chik-Yan%Yip%NULL%0,                      Jian-Piao%Cai%NULL%0,                      Jacky Man-Chun%Chan%NULL%1,                      Thomas Shiu-Hong%Chik%NULL%1,                      Daphne Pui-Ling%Lau%NULL%1,                      Chris Yau-Chung%Choi%NULL%1,                      Lin-Lei%Chen%NULL%1,                      Wan-Mui%Chan%NULL%0,                      Kwok-Hung%Chan%NULL%0,                      Jonathan Daniel%Ip%NULL%0,                      Anthony Chin-Ki%Ng%NULL%1,                      Rosana Wing-Shan%Poon%NULL%0,                      Cui-Ting%Luo%NULL%1,                      Vincent Chi-Chung%Cheng%NULL%0,                      Jasper Fuk-Woo%Chan%NULL%1,                      Ivan Fan-Ngai%Hung%NULL%1,                      Zhiwei%Chen%NULL%1,                      Honglin%Chen%NULL%0,                      Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                      Qingjie%Yi%NULL%1,                      Shibing%Fan%NULL%1,                      Jinglong%Lv%13608388377@163.com%0,                      Xianxiang%Zhang%NULL%2,                      Xianxiang%Zhang%NULL%0,                      Lian%Guo%NULL%1,                      Chunhui%Lang%NULL%0,                      Qing%Xiao%NULL%1,                      Kaihu%Xiao%NULL%2,                      Zhengjun%Yi%NULL%1,                      Mao%Qiang%NULL%1,                      Jianglin%Xiang%NULL%1,                      Bangshuo%Zhang%NULL%1,                      Yongping%Chen%NULL%1,                      Cailiang%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                      Wenbo%He%NULL%0,                      Xiaomei%Yu%NULL%0,                      Dalong%Hu%NULL%0,                      Mingwei%Bao%NULL%0,                      Huafen%Liu%NULL%0,                      Jiali%Zhou%NULL%0,                      Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%0,                      Jing-Hui%Dong%NULL%1,                      Wei-Min%An%NULL%1,                      Xiao-Yan%Lv%15001008285@139.com%1,                      Xiao-Ping%Yin%yinxiaoping78@sina.com%1,                      Jian-Zeng%Zhang%NULL%1,                      Li%Dong%NULL%1,                      Xi%Ma%NULL%1,                      Hong-Jie%Zhang%NULL%1,                      Bu-Lang%Gao%browngao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Fanfan%Zeng%NULL%1,                      Chan%Dai%NULL%2,                      Chan%Dai%NULL%0,                      Pengcheng%Cai%NULL%1,                      Jinbiao%Wang%NULL%1,                      Lei%Xu%NULL%1,                      Jianyu%Li%NULL%1,                      Guoyun%Hu%NULL%1,                      Zheng%Wang%zhengwang@hust.edu.cn%1,                      Fang%Zheng%zhengfangtj@hust.edu.cn%1,                      Lin%Wang%lin_wang@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,                      Jie%Zhang%945128911@qq.com%2,                      Bowen%Wang%NULL%2,                      Xionglin%Zhu%NULL%2,                      Qiang%Wang%NULL%0,                      Shiming%Qiu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,                      Jie%Zhang%945128911@qq.com%0,                      Bowen%Wang%NULL%0,                      Xionglin%Zhu%NULL%0,                      Qiang%Wang%NULL%0,                      Shiming%Qiu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%3,  Di%Wu%xref no email%3,  Wei%Guo%xref no email%3,  Yong%Cao%xref no email%3,  Da%Huang%xref no email%3,  Hongwu%Wang%xref no email%3,  Tao%Wang%xref no email%3,  Xiaoyun%Zhang%xref no email%3,  Huilong%Chen%xref no email%3,  Haijing%Yu%xref no email%3,  Xiaoping%Zhang%xref no email%3,  Minxia%Zhang%xref no email%3,  Shiji%Wu%xref no email%3,  Jianxin%Song%xref no email%3,  Tao%Chen%xref no email%3,  Meifang%Han%xref no email%3,  Shusheng%Li%xref no email%3,  Xiaoping%Luo%xref no email%3,  Jianping%Zhao%xref no email%3,  Qin%Ning%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                       Di%Wu%NULL%0,                       Huilong%Chen%NULL%0,                       Weiming%Yan%NULL%0,                       Danlei%Yang%NULL%0,                       Guang%Chen%NULL%0,                       Ke%Ma%NULL%0,                       Dong%Xu%NULL%0,                       Haijing%Yu%NULL%0,                       Hongwu%Wang%NULL%0,                       Tao%Wang%NULL%0,                       Wei%Guo%NULL%0,                       Jia%Chen%NULL%0,                       Chen%Ding%NULL%0,                       Xiaoping%Zhang%NULL%0,                       Jiaquan%Huang%NULL%0,                       Meifang%Han%NULL%0,                       Shusheng%Li%NULL%0,                       Xiaoping%Luo%NULL%0,                       Jianping%Zhao%NULL%0,                       Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                       Wenhua%Liang%NULL%0,                       Mei%Jiang%NULL%0,                       Weijie%Guan%NULL%0,                       Chen%Zhan%NULL%2,                       Tao%Wang%NULL%0,                       Chunli%Tang%NULL%2,                       Ling%Sang%NULL%0,                       Jiaxing%Liu%NULL%2,                       Zhengyi%Ni%NULL%0,                       Yu%Hu%NULL%0,                       Lei%Liu%NULL%0,                       Hong%Shan%NULL%0,                       Chunliang%Lei%NULL%0,                       Yixiang%Peng%NULL%0,                       Li%Wei%NULL%0,                       Yong%Liu%NULL%0,                       Yahua%Hu%NULL%0,                       Peng%Peng%NULL%0,                       Jianming%Wang%NULL%0,                       Jiyang%Liu%NULL%0,                       Zhong%Chen%NULL%0,                       Gang%Li%NULL%0,                       Zhijian%Zheng%NULL%0,                       Shaoqin%Qiu%NULL%0,                       Jie%Luo%NULL%0,                       Changjiang%Ye%NULL%0,                       Shaoyong%Zhu%NULL%0,                       Xiaoqing%Liu%NULL%0,                       Linling%Cheng%NULL%2,                       Feng%Ye%NULL%0,                       Jinping%Zheng%NULL%0,                       Nuofu%Zhang%NULL%0,                       Yimin%Li%NULL%0,                       Jianxing%He%NULL%0,                       Shiyue%Li%lishiyue@188.com%0,                       Nanshan%Zhong%NULL%0,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[H.%Hou%NULL%1,                       B.%Zhang%NULL%1,                       H.%Huang%NULL%1,                       Y.%Luo%NULL%1,                       S.%Wu%NULL%1,                       G.%Tang%NULL%1,                       W.%Liu%NULL%1,                       L.%Mao%NULL%2,                       L.%Mao%NULL%0,                       F.%Wang%fengwang@tjh.tjmu.edu.cn%1,                       Z.%Sun%zysun@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang%Liu%NULL%1,                       Lin%Li%NULL%0,                       MengDa%Xu%NULL%1,                       Juan%Wu%NULL%1,                       Ding%Luo%NULL%1,                       YuSi%Zhu%NULL%1,                       BiXi%Li%NULL%1,                       XiaoYang%Song%NULL%1,                       Xiang%Zhou%zhouxiang188483@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Kai-Cai%Liu%NULL%1,                       Ping%Xu%xuping1027@163.com%1,                       Wei-Fu%Lv%weifulv@ustc.edu.cn%1,                       Xiao-Hui%Qiu%NULL%1,                       Jin-Long%Yao%NULL%1,                       Jin-Feng%Gu%NULL%1,                       Wei%Wei%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Fengjun%Liu%NULL%1,                       Qi%Zhang%NULL%1,                       Chao%Huang%NULL%1,                       Chunzi%Shi%NULL%1,                       Lin%Wang%NULL%0,                       Nannan%Shi%NULL%1,                       Cong%Fang%NULL%1,                       Fei%Shan%NULL%1,                       Xue%Mei%NULL%1,                       Jing%Shi%NULL%1,                       Fengxiang%Song%NULL%1,                       Zhongcheng%Yang%NULL%1,                       Zezhen%Ding%NULL%1,                       Xiaoming%Su%NULL%1,                       Hongzhou%Lu%NULL%0,                       Tongyu%Zhu%NULL%0,                       Zhiyong%Zhang%NULL%1,                       Lei%Shi%NULL%1,                       Yuxin%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Pan%NULL%1,                       Mi%Mu%NULL%0,                       Pengcheng%Yang%NULL%0,                       Yu%Sun%NULL%1,                       Runsheng%Wang%NULL%0,                       Junhong%Yan%NULL%1,                       Pibao%Li%NULL%1,                       Baoguang%Hu%NULL%1,                       Jing%Wang%NULL%0,                       Chao%Hu%NULL%0,                       Yuan%Jin%NULL%1,                       Xun%Niu%NULL%1,                       Rongyu%Ping%NULL%0,                       Yingzhen%Du%NULL%1,                       Tianzhi%Li%NULL%0,                       Guogang%Xu%NULL%0,                       Qinyong%Hu%NULL%0,                       Lei%Tu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                       Ruoqi%Ning%NULL%0,                       Yu%Tao%NULL%0,                       Chong%Yu%NULL%0,                       Xiaoyan%Deng%NULL%0,                       Caili%Zhao%NULL%0,                       Silu%Meng%NULL%0,                       Fangxu%Tang%89650793@qq.com%0,                       Dong%Xu%89650793@qq.com%0,                       Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%0,                       Nan%Hu%NULL%1,                       Jing%Lou%NULL%1,                       Kun%Chen%NULL%1,                       Xuqin%Kang%NULL%1,                       Zhenjun%Xiang%NULL%1,                       Hui%Chen%NULL%0,                       Dali%Wang%NULL%1,                       Ning%Liu%NULL%1,                       Dong%Liu%NULL%1,                       Gang%Chen%NULL%1,                       Yongliang%Zhang%NULL%1,                       Dou%Li%NULL%1,                       Jianren%Li%NULL%1,                       Huixin%Lian%NULL%1,                       Shengmei%Niu%NULL%1,                       Luxi%Zhang%NULL%1,                       Jinjun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%0,                       Owen Tak-Yin%Tsang%NULL%1,                       Wai-Shing%Leung%NULL%1,                       Anthony Raymond%Tam%NULL%1,                       Tak-Chiu%Wu%NULL%1,                       David Christopher%Lung%NULL%1,                       Cyril Chik-Yan%Yip%NULL%0,                       Jian-Piao%Cai%NULL%0,                       Jacky Man-Chun%Chan%NULL%1,                       Thomas Shiu-Hong%Chik%NULL%1,                       Daphne Pui-Ling%Lau%NULL%1,                       Chris Yau-Chung%Choi%NULL%1,                       Lin-Lei%Chen%NULL%1,                       Wan-Mui%Chan%NULL%0,                       Kwok-Hung%Chan%NULL%0,                       Jonathan Daniel%Ip%NULL%0,                       Anthony Chin-Ki%Ng%NULL%1,                       Rosana Wing-Shan%Poon%NULL%0,                       Cui-Ting%Luo%NULL%1,                       Vincent Chi-Chung%Cheng%NULL%0,                       Jasper Fuk-Woo%Chan%NULL%1,                       Ivan Fan-Ngai%Hung%NULL%1,                       Zhiwei%Chen%NULL%1,                       Honglin%Chen%NULL%0,                       Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                       Qingjie%Yi%NULL%1,                       Shibing%Fan%NULL%1,                       Jinglong%Lv%13608388377@163.com%0,                       Xianxiang%Zhang%NULL%2,                       Xianxiang%Zhang%NULL%0,                       Lian%Guo%NULL%1,                       Chunhui%Lang%NULL%0,                       Qing%Xiao%NULL%1,                       Kaihu%Xiao%NULL%2,                       Zhengjun%Yi%NULL%1,                       Mao%Qiang%NULL%1,                       Jianglin%Xiang%NULL%1,                       Bangshuo%Zhang%NULL%1,                       Yongping%Chen%NULL%1,                       Cailiang%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                       Wenbo%He%NULL%0,                       Xiaomei%Yu%NULL%0,                       Dalong%Hu%NULL%0,                       Mingwei%Bao%NULL%0,                       Huafen%Liu%NULL%0,                       Jiali%Zhou%NULL%0,                       Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%0,                       Jing-Hui%Dong%NULL%1,                       Wei-Min%An%NULL%1,                       Xiao-Yan%Lv%15001008285@139.com%1,                       Xiao-Ping%Yin%yinxiaoping78@sina.com%1,                       Jian-Zeng%Zhang%NULL%1,                       Li%Dong%NULL%1,                       Xi%Ma%NULL%1,                       Hong-Jie%Zhang%NULL%1,                       Bu-Lang%Gao%browngao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Fanfan%Zeng%NULL%1,                       Chan%Dai%NULL%2,                       Chan%Dai%NULL%0,                       Pengcheng%Cai%NULL%1,                       Jinbiao%Wang%NULL%1,                       Lei%Xu%NULL%1,                       Jianyu%Li%NULL%1,                       Guoyun%Hu%NULL%1,                       Zheng%Wang%zhengwang@hust.edu.cn%1,                       Fang%Zheng%zhengfangtj@hust.edu.cn%1,                       Lin%Wang%lin_wang@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,                       Jie%Zhang%945128911@qq.com%2,                       Bowen%Wang%NULL%2,                       Xionglin%Zhu%NULL%2,                       Qiang%Wang%NULL%0,                       Shiming%Qiu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,                       Jie%Zhang%945128911@qq.com%0,                       Bowen%Wang%NULL%0,                       Xionglin%Zhu%NULL%0,                       Qiang%Wang%NULL%0,                       Shiming%Qiu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                        Di%Wu%NULL%0,                        Huilong%Chen%NULL%0,                        Weiming%Yan%NULL%0,                        Danlei%Yang%NULL%0,                        Guang%Chen%NULL%0,                        Ke%Ma%NULL%0,                        Dong%Xu%NULL%0,                        Haijing%Yu%NULL%0,                        Hongwu%Wang%NULL%0,                        Tao%Wang%NULL%0,                        Wei%Guo%NULL%0,                        Jia%Chen%NULL%0,                        Chen%Ding%NULL%0,                        Xiaoping%Zhang%NULL%0,                        Jiaquan%Huang%NULL%0,                        Meifang%Han%NULL%0,                        Shusheng%Li%NULL%0,                        Xiaoping%Luo%NULL%0,                        Jianping%Zhao%NULL%0,                        Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                        Wenhua%Liang%NULL%0,                        Mei%Jiang%NULL%0,                        Weijie%Guan%NULL%0,                        Chen%Zhan%NULL%2,                        Tao%Wang%NULL%0,                        Chunli%Tang%NULL%2,                        Ling%Sang%NULL%0,                        Jiaxing%Liu%NULL%2,                        Zhengyi%Ni%NULL%0,                        Yu%Hu%NULL%0,                        Lei%Liu%NULL%0,                        Hong%Shan%NULL%0,                        Chunliang%Lei%NULL%0,                        Yixiang%Peng%NULL%0,                        Li%Wei%NULL%0,                        Yong%Liu%NULL%0,                        Yahua%Hu%NULL%0,                        Peng%Peng%NULL%0,                        Jianming%Wang%NULL%0,                        Jiyang%Liu%NULL%0,                        Zhong%Chen%NULL%0,                        Gang%Li%NULL%0,                        Zhijian%Zheng%NULL%0,                        Shaoqin%Qiu%NULL%0,                        Jie%Luo%NULL%0,                        Changjiang%Ye%NULL%0,                        Shaoyong%Zhu%NULL%0,                        Xiaoqing%Liu%NULL%0,                        Linling%Cheng%NULL%2,                        Feng%Ye%NULL%0,                        Jinping%Zheng%NULL%0,                        Nuofu%Zhang%NULL%0,                        Yimin%Li%NULL%0,                        Jianxing%He%NULL%0,                        Shiyue%Li%lishiyue@188.com%0,                        Nanshan%Zhong%NULL%0,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[H.%Hou%NULL%1,                        B.%Zhang%NULL%1,                        H.%Huang%NULL%1,                        Y.%Luo%NULL%1,                        S.%Wu%NULL%1,                        G.%Tang%NULL%1,                        W.%Liu%NULL%1,                        L.%Mao%NULL%2,                        L.%Mao%NULL%0,                        F.%Wang%fengwang@tjh.tjmu.edu.cn%1,                        Z.%Sun%zysun@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang%Liu%NULL%1,                        Lin%Li%NULL%0,                        MengDa%Xu%NULL%1,                        Juan%Wu%NULL%1,                        Ding%Luo%NULL%1,                        YuSi%Zhu%NULL%1,                        BiXi%Li%NULL%1,                        XiaoYang%Song%NULL%1,                        Xiang%Zhou%zhouxiang188483@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Kai-Cai%Liu%NULL%1,                        Ping%Xu%xuping1027@163.com%1,                        Wei-Fu%Lv%weifulv@ustc.edu.cn%1,                        Xiao-Hui%Qiu%NULL%1,                        Jin-Long%Yao%NULL%1,                        Jin-Feng%Gu%NULL%1,                        Wei%Wei%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Fengjun%Liu%NULL%1,                        Qi%Zhang%NULL%1,                        Chao%Huang%NULL%1,                        Chunzi%Shi%NULL%1,                        Lin%Wang%NULL%0,                        Nannan%Shi%NULL%1,                        Cong%Fang%NULL%1,                        Fei%Shan%NULL%1,                        Xue%Mei%NULL%1,                        Jing%Shi%NULL%1,                        Fengxiang%Song%NULL%1,                        Zhongcheng%Yang%NULL%1,                        Zezhen%Ding%NULL%1,                        Xiaoming%Su%NULL%1,                        Hongzhou%Lu%NULL%0,                        Tongyu%Zhu%NULL%0,                        Zhiyong%Zhang%NULL%1,                        Lei%Shi%NULL%1,                        Yuxin%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Pan%NULL%1,                        Mi%Mu%NULL%0,                        Pengcheng%Yang%NULL%0,                        Yu%Sun%NULL%1,                        Runsheng%Wang%NULL%0,                        Junhong%Yan%NULL%1,                        Pibao%Li%NULL%1,                        Baoguang%Hu%NULL%1,                        Jing%Wang%NULL%0,                        Chao%Hu%NULL%0,                        Yuan%Jin%NULL%1,                        Xun%Niu%NULL%1,                        Rongyu%Ping%NULL%0,                        Yingzhen%Du%NULL%1,                        Tianzhi%Li%NULL%0,                        Guogang%Xu%NULL%0,                        Qinyong%Hu%NULL%0,                        Lei%Tu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                        Ruoqi%Ning%NULL%0,                        Yu%Tao%NULL%0,                        Chong%Yu%NULL%0,                        Xiaoyan%Deng%NULL%0,                        Caili%Zhao%NULL%0,                        Silu%Meng%NULL%0,                        Fangxu%Tang%89650793@qq.com%0,                        Dong%Xu%89650793@qq.com%0,                        Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%0,                        Nan%Hu%NULL%1,                        Jing%Lou%NULL%1,                        Kun%Chen%NULL%1,                        Xuqin%Kang%NULL%1,                        Zhenjun%Xiang%NULL%1,                        Hui%Chen%NULL%0,                        Dali%Wang%NULL%1,                        Ning%Liu%NULL%1,                        Dong%Liu%NULL%1,                        Gang%Chen%NULL%1,                        Yongliang%Zhang%NULL%1,                        Dou%Li%NULL%1,                        Jianren%Li%NULL%1,                        Huixin%Lian%NULL%1,                        Shengmei%Niu%NULL%1,                        Luxi%Zhang%NULL%1,                        Jinjun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%0,                        Owen Tak-Yin%Tsang%NULL%1,                        Wai-Shing%Leung%NULL%1,                        Anthony Raymond%Tam%NULL%1,                        Tak-Chiu%Wu%NULL%1,                        David Christopher%Lung%NULL%1,                        Cyril Chik-Yan%Yip%NULL%0,                        Jian-Piao%Cai%NULL%0,                        Jacky Man-Chun%Chan%NULL%1,                        Thomas Shiu-Hong%Chik%NULL%1,                        Daphne Pui-Ling%Lau%NULL%1,                        Chris Yau-Chung%Choi%NULL%1,                        Lin-Lei%Chen%NULL%1,                        Wan-Mui%Chan%NULL%0,                        Kwok-Hung%Chan%NULL%0,                        Jonathan Daniel%Ip%NULL%0,                        Anthony Chin-Ki%Ng%NULL%1,                        Rosana Wing-Shan%Poon%NULL%0,                        Cui-Ting%Luo%NULL%1,                        Vincent Chi-Chung%Cheng%NULL%0,                        Jasper Fuk-Woo%Chan%NULL%1,                        Ivan Fan-Ngai%Hung%NULL%1,                        Zhiwei%Chen%NULL%1,                        Honglin%Chen%NULL%0,                        Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                        Qingjie%Yi%NULL%1,                        Shibing%Fan%NULL%1,                        Jinglong%Lv%13608388377@163.com%0,                        Xianxiang%Zhang%NULL%2,                        Xianxiang%Zhang%NULL%0,                        Lian%Guo%NULL%1,                        Chunhui%Lang%NULL%0,                        Qing%Xiao%NULL%1,                        Kaihu%Xiao%NULL%2,                        Zhengjun%Yi%NULL%1,                        Mao%Qiang%NULL%1,                        Jianglin%Xiang%NULL%1,                        Bangshuo%Zhang%NULL%1,                        Yongping%Chen%NULL%1,                        Cailiang%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                        Wenbo%He%NULL%0,                        Xiaomei%Yu%NULL%0,                        Dalong%Hu%NULL%0,                        Mingwei%Bao%NULL%0,                        Huafen%Liu%NULL%0,                        Jiali%Zhou%NULL%0,                        Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%0,                        Jing-Hui%Dong%NULL%1,                        Wei-Min%An%NULL%1,                        Xiao-Yan%Lv%15001008285@139.com%1,                        Xiao-Ping%Yin%yinxiaoping78@sina.com%1,                        Jian-Zeng%Zhang%NULL%1,                        Li%Dong%NULL%1,                        Xi%Ma%NULL%1,                        Hong-Jie%Zhang%NULL%1,                        Bu-Lang%Gao%browngao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Fanfan%Zeng%NULL%1,                        Chan%Dai%NULL%2,                        Chan%Dai%NULL%0,                        Pengcheng%Cai%NULL%1,                        Jinbiao%Wang%NULL%1,                        Lei%Xu%NULL%1,                        Jianyu%Li%NULL%1,                        Guoyun%Hu%NULL%1,                        Zheng%Wang%zhengwang@hust.edu.cn%1,                        Fang%Zheng%zhengfangtj@hust.edu.cn%1,                        Lin%Wang%lin_wang@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,                        Jie%Zhang%945128911@qq.com%2,                        Bowen%Wang%NULL%2,                        Xionglin%Zhu%NULL%2,                        Qiang%Wang%NULL%0,                        Shiming%Qiu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,                        Jie%Zhang%945128911@qq.com%0,                        Bowen%Wang%NULL%0,                        Xionglin%Zhu%NULL%0,                        Qiang%Wang%NULL%0,                        Shiming%Qiu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                         Di%Wu%NULL%0,                         Huilong%Chen%NULL%0,                         Weiming%Yan%NULL%0,                         Danlei%Yang%NULL%0,                         Guang%Chen%NULL%0,                         Ke%Ma%NULL%0,                         Dong%Xu%NULL%0,                         Haijing%Yu%NULL%0,                         Hongwu%Wang%NULL%0,                         Tao%Wang%NULL%0,                         Wei%Guo%NULL%0,                         Jia%Chen%NULL%0,                         Chen%Ding%NULL%0,                         Xiaoping%Zhang%NULL%0,                         Jiaquan%Huang%NULL%0,                         Meifang%Han%NULL%0,                         Shusheng%Li%NULL%0,                         Xiaoping%Luo%NULL%0,                         Jianping%Zhao%NULL%0,                         Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                         Wenhua%Liang%NULL%0,                         Mei%Jiang%NULL%0,                         Weijie%Guan%NULL%0,                         Chen%Zhan%NULL%2,                         Tao%Wang%NULL%0,                         Chunli%Tang%NULL%2,                         Ling%Sang%NULL%0,                         Jiaxing%Liu%NULL%2,                         Zhengyi%Ni%NULL%0,                         Yu%Hu%NULL%0,                         Lei%Liu%NULL%0,                         Hong%Shan%NULL%0,                         Chunliang%Lei%NULL%0,                         Yixiang%Peng%NULL%0,                         Li%Wei%NULL%0,                         Yong%Liu%NULL%0,                         Yahua%Hu%NULL%0,                         Peng%Peng%NULL%0,                         Jianming%Wang%NULL%0,                         Jiyang%Liu%NULL%0,                         Zhong%Chen%NULL%0,                         Gang%Li%NULL%0,                         Zhijian%Zheng%NULL%0,                         Shaoqin%Qiu%NULL%0,                         Jie%Luo%NULL%0,                         Changjiang%Ye%NULL%0,                         Shaoyong%Zhu%NULL%0,                         Xiaoqing%Liu%NULL%0,                         Linling%Cheng%NULL%2,                         Feng%Ye%NULL%0,                         Jinping%Zheng%NULL%0,                         Nuofu%Zhang%NULL%0,                         Yimin%Li%NULL%0,                         Jianxing%He%NULL%0,                         Shiyue%Li%lishiyue@188.com%0,                         Nanshan%Zhong%NULL%0,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[H.%Hou%NULL%1,                         B.%Zhang%NULL%1,                         H.%Huang%NULL%1,                         Y.%Luo%NULL%1,                         S.%Wu%NULL%1,                         G.%Tang%NULL%1,                         W.%Liu%NULL%1,                         L.%Mao%NULL%2,                         L.%Mao%NULL%0,                         F.%Wang%fengwang@tjh.tjmu.edu.cn%1,                         Z.%Sun%zysun@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang%Liu%NULL%1,                         Lin%Li%NULL%0,                         MengDa%Xu%NULL%1,                         Juan%Wu%NULL%1,                         Ding%Luo%NULL%1,                         YuSi%Zhu%NULL%1,                         BiXi%Li%NULL%1,                         XiaoYang%Song%NULL%1,                         Xiang%Zhou%zhouxiang188483@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Kai-Cai%Liu%NULL%1,                         Ping%Xu%xuping1027@163.com%1,                         Wei-Fu%Lv%weifulv@ustc.edu.cn%1,                         Xiao-Hui%Qiu%NULL%1,                         Jin-Long%Yao%NULL%1,                         Jin-Feng%Gu%NULL%1,                         Wei%Wei%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Fengjun%Liu%NULL%1,                         Qi%Zhang%NULL%1,                         Chao%Huang%NULL%1,                         Chunzi%Shi%NULL%1,                         Lin%Wang%NULL%0,                         Nannan%Shi%NULL%1,                         Cong%Fang%NULL%1,                         Fei%Shan%NULL%1,                         Xue%Mei%NULL%1,                         Jing%Shi%NULL%1,                         Fengxiang%Song%NULL%1,                         Zhongcheng%Yang%NULL%1,                         Zezhen%Ding%NULL%1,                         Xiaoming%Su%NULL%1,                         Hongzhou%Lu%NULL%0,                         Tongyu%Zhu%NULL%0,                         Zhiyong%Zhang%NULL%1,                         Lei%Shi%NULL%1,                         Yuxin%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Pan%NULL%1,                         Mi%Mu%NULL%0,                         Pengcheng%Yang%NULL%0,                         Yu%Sun%NULL%1,                         Runsheng%Wang%NULL%0,                         Junhong%Yan%NULL%1,                         Pibao%Li%NULL%1,                         Baoguang%Hu%NULL%1,                         Jing%Wang%NULL%0,                         Chao%Hu%NULL%0,                         Yuan%Jin%NULL%1,                         Xun%Niu%NULL%1,                         Rongyu%Ping%NULL%0,                         Yingzhen%Du%NULL%1,                         Tianzhi%Li%NULL%0,                         Guogang%Xu%NULL%0,                         Qinyong%Hu%NULL%0,                         Lei%Tu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                         Ruoqi%Ning%NULL%0,                         Yu%Tao%NULL%0,                         Chong%Yu%NULL%0,                         Xiaoyan%Deng%NULL%0,                         Caili%Zhao%NULL%0,                         Silu%Meng%NULL%0,                         Fangxu%Tang%89650793@qq.com%0,                         Dong%Xu%89650793@qq.com%0,                         Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%0,                         Nan%Hu%NULL%1,                         Jing%Lou%NULL%1,                         Kun%Chen%NULL%1,                         Xuqin%Kang%NULL%1,                         Zhenjun%Xiang%NULL%1,                         Hui%Chen%NULL%0,                         Dali%Wang%NULL%1,                         Ning%Liu%NULL%1,                         Dong%Liu%NULL%1,                         Gang%Chen%NULL%1,                         Yongliang%Zhang%NULL%1,                         Dou%Li%NULL%1,                         Jianren%Li%NULL%1,                         Huixin%Lian%NULL%1,                         Shengmei%Niu%NULL%1,                         Luxi%Zhang%NULL%1,                         Jinjun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%0,                         Owen Tak-Yin%Tsang%NULL%1,                         Wai-Shing%Leung%NULL%1,                         Anthony Raymond%Tam%NULL%1,                         Tak-Chiu%Wu%NULL%1,                         David Christopher%Lung%NULL%1,                         Cyril Chik-Yan%Yip%NULL%0,                         Jian-Piao%Cai%NULL%0,                         Jacky Man-Chun%Chan%NULL%1,                         Thomas Shiu-Hong%Chik%NULL%1,                         Daphne Pui-Ling%Lau%NULL%1,                         Chris Yau-Chung%Choi%NULL%1,                         Lin-Lei%Chen%NULL%1,                         Wan-Mui%Chan%NULL%0,                         Kwok-Hung%Chan%NULL%0,                         Jonathan Daniel%Ip%NULL%0,                         Anthony Chin-Ki%Ng%NULL%1,                         Rosana Wing-Shan%Poon%NULL%0,                         Cui-Ting%Luo%NULL%1,                         Vincent Chi-Chung%Cheng%NULL%0,                         Jasper Fuk-Woo%Chan%NULL%1,                         Ivan Fan-Ngai%Hung%NULL%1,                         Zhiwei%Chen%NULL%1,                         Honglin%Chen%NULL%0,                         Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                         Qingjie%Yi%NULL%1,                         Shibing%Fan%NULL%1,                         Jinglong%Lv%13608388377@163.com%0,                         Xianxiang%Zhang%NULL%2,                         Xianxiang%Zhang%NULL%0,                         Lian%Guo%NULL%1,                         Chunhui%Lang%NULL%0,                         Qing%Xiao%NULL%1,                         Kaihu%Xiao%NULL%2,                         Zhengjun%Yi%NULL%1,                         Mao%Qiang%NULL%1,                         Jianglin%Xiang%NULL%1,                         Bangshuo%Zhang%NULL%1,                         Yongping%Chen%NULL%1,                         Cailiang%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                         Wenbo%He%NULL%0,                         Xiaomei%Yu%NULL%0,                         Dalong%Hu%NULL%0,                         Mingwei%Bao%NULL%0,                         Huafen%Liu%NULL%0,                         Jiali%Zhou%NULL%0,                         Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%0,                         Jing-Hui%Dong%NULL%1,                         Wei-Min%An%NULL%1,                         Xiao-Yan%Lv%15001008285@139.com%1,                         Xiao-Ping%Yin%yinxiaoping78@sina.com%1,                         Jian-Zeng%Zhang%NULL%1,                         Li%Dong%NULL%1,                         Xi%Ma%NULL%1,                         Hong-Jie%Zhang%NULL%1,                         Bu-Lang%Gao%browngao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Fanfan%Zeng%NULL%1,                         Chan%Dai%NULL%2,                         Chan%Dai%NULL%0,                         Pengcheng%Cai%NULL%1,                         Jinbiao%Wang%NULL%1,                         Lei%Xu%NULL%1,                         Jianyu%Li%NULL%1,                         Guoyun%Hu%NULL%1,                         Zheng%Wang%zhengwang@hust.edu.cn%1,                         Fang%Zheng%zhengfangtj@hust.edu.cn%1,                         Lin%Wang%lin_wang@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,                         Jie%Zhang%945128911@qq.com%2,                         Bowen%Wang%NULL%2,                         Xionglin%Zhu%NULL%2,                         Qiang%Wang%NULL%0,                         Shiming%Qiu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,                         Jie%Zhang%945128911@qq.com%0,                         Bowen%Wang%NULL%0,                         Xionglin%Zhu%NULL%0,                         Qiang%Wang%NULL%0,                         Shiming%Qiu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                          Di%Wu%NULL%0,                          Huilong%Chen%NULL%0,                          Weiming%Yan%NULL%0,                          Danlei%Yang%NULL%0,                          Guang%Chen%NULL%0,                          Ke%Ma%NULL%0,                          Dong%Xu%NULL%0,                          Haijing%Yu%NULL%0,                          Hongwu%Wang%NULL%0,                          Tao%Wang%NULL%0,                          Wei%Guo%NULL%0,                          Jia%Chen%NULL%0,                          Chen%Ding%NULL%0,                          Xiaoping%Zhang%NULL%0,                          Jiaquan%Huang%NULL%0,                          Meifang%Han%NULL%0,                          Shusheng%Li%NULL%0,                          Xiaoping%Luo%NULL%0,                          Jianping%Zhao%NULL%0,                          Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                          Wenhua%Liang%NULL%0,                          Mei%Jiang%NULL%0,                          Weijie%Guan%NULL%0,                          Chen%Zhan%NULL%2,                          Tao%Wang%NULL%0,                          Chunli%Tang%NULL%2,                          Ling%Sang%NULL%0,                          Jiaxing%Liu%NULL%2,                          Zhengyi%Ni%NULL%0,                          Yu%Hu%NULL%0,                          Lei%Liu%NULL%0,                          Hong%Shan%NULL%0,                          Chunliang%Lei%NULL%0,                          Yixiang%Peng%NULL%0,                          Li%Wei%NULL%0,                          Yong%Liu%NULL%0,                          Yahua%Hu%NULL%0,                          Peng%Peng%NULL%0,                          Jianming%Wang%NULL%0,                          Jiyang%Liu%NULL%0,                          Zhong%Chen%NULL%0,                          Gang%Li%NULL%0,                          Zhijian%Zheng%NULL%0,                          Shaoqin%Qiu%NULL%0,                          Jie%Luo%NULL%0,                          Changjiang%Ye%NULL%0,                          Shaoyong%Zhu%NULL%0,                          Xiaoqing%Liu%NULL%0,                          Linling%Cheng%NULL%2,                          Feng%Ye%NULL%0,                          Jinping%Zheng%NULL%0,                          Nuofu%Zhang%NULL%0,                          Yimin%Li%NULL%0,                          Jianxing%He%NULL%0,                          Shiyue%Li%lishiyue@188.com%0,                          Nanshan%Zhong%NULL%0,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[H.%Hou%NULL%1,                          B.%Zhang%NULL%1,                          H.%Huang%NULL%1,                          Y.%Luo%NULL%1,                          S.%Wu%NULL%1,                          G.%Tang%NULL%1,                          W.%Liu%NULL%1,                          L.%Mao%NULL%2,                          L.%Mao%NULL%0,                          F.%Wang%fengwang@tjh.tjmu.edu.cn%1,                          Z.%Sun%zysun@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang%Liu%NULL%1,                          Lin%Li%NULL%0,                          MengDa%Xu%NULL%1,                          Juan%Wu%NULL%1,                          Ding%Luo%NULL%1,                          YuSi%Zhu%NULL%1,                          BiXi%Li%NULL%1,                          XiaoYang%Song%NULL%1,                          Xiang%Zhou%zhouxiang188483@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Kai-Cai%Liu%NULL%1,                          Ping%Xu%xuping1027@163.com%1,                          Wei-Fu%Lv%weifulv@ustc.edu.cn%1,                          Xiao-Hui%Qiu%NULL%1,                          Jin-Long%Yao%NULL%1,                          Jin-Feng%Gu%NULL%1,                          Wei%Wei%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Fengjun%Liu%NULL%1,                          Qi%Zhang%NULL%1,                          Chao%Huang%NULL%1,                          Chunzi%Shi%NULL%1,                          Lin%Wang%NULL%0,                          Nannan%Shi%NULL%1,                          Cong%Fang%NULL%1,                          Fei%Shan%NULL%1,                          Xue%Mei%NULL%1,                          Jing%Shi%NULL%1,                          Fengxiang%Song%NULL%1,                          Zhongcheng%Yang%NULL%1,                          Zezhen%Ding%NULL%1,                          Xiaoming%Su%NULL%1,                          Hongzhou%Lu%NULL%0,                          Tongyu%Zhu%NULL%0,                          Zhiyong%Zhang%NULL%1,                          Lei%Shi%NULL%1,                          Yuxin%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Pan%NULL%1,                          Mi%Mu%NULL%0,                          Pengcheng%Yang%NULL%0,                          Yu%Sun%NULL%1,                          Runsheng%Wang%NULL%0,                          Junhong%Yan%NULL%1,                          Pibao%Li%NULL%1,                          Baoguang%Hu%NULL%1,                          Jing%Wang%NULL%0,                          Chao%Hu%NULL%0,                          Yuan%Jin%NULL%1,                          Xun%Niu%NULL%1,                          Rongyu%Ping%NULL%0,                          Yingzhen%Du%NULL%1,                          Tianzhi%Li%NULL%0,                          Guogang%Xu%NULL%0,                          Qinyong%Hu%NULL%0,                          Lei%Tu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                          Ruoqi%Ning%NULL%0,                          Yu%Tao%NULL%0,                          Chong%Yu%NULL%0,                          Xiaoyan%Deng%NULL%0,                          Caili%Zhao%NULL%0,                          Silu%Meng%NULL%0,                          Fangxu%Tang%89650793@qq.com%0,                          Dong%Xu%89650793@qq.com%0,                          Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%0,                          Nan%Hu%NULL%1,                          Jing%Lou%NULL%1,                          Kun%Chen%NULL%1,                          Xuqin%Kang%NULL%1,                          Zhenjun%Xiang%NULL%1,                          Hui%Chen%NULL%0,                          Dali%Wang%NULL%1,                          Ning%Liu%NULL%1,                          Dong%Liu%NULL%1,                          Gang%Chen%NULL%1,                          Yongliang%Zhang%NULL%1,                          Dou%Li%NULL%1,                          Jianren%Li%NULL%1,                          Huixin%Lian%NULL%1,                          Shengmei%Niu%NULL%1,                          Luxi%Zhang%NULL%1,                          Jinjun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%0,                          Owen Tak-Yin%Tsang%NULL%1,                          Wai-Shing%Leung%NULL%1,                          Anthony Raymond%Tam%NULL%1,                          Tak-Chiu%Wu%NULL%1,                          David Christopher%Lung%NULL%1,                          Cyril Chik-Yan%Yip%NULL%0,                          Jian-Piao%Cai%NULL%0,                          Jacky Man-Chun%Chan%NULL%1,                          Thomas Shiu-Hong%Chik%NULL%1,                          Daphne Pui-Ling%Lau%NULL%1,                          Chris Yau-Chung%Choi%NULL%1,                          Lin-Lei%Chen%NULL%1,                          Wan-Mui%Chan%NULL%0,                          Kwok-Hung%Chan%NULL%0,                          Jonathan Daniel%Ip%NULL%0,                          Anthony Chin-Ki%Ng%NULL%1,                          Rosana Wing-Shan%Poon%NULL%0,                          Cui-Ting%Luo%NULL%1,                          Vincent Chi-Chung%Cheng%NULL%0,                          Jasper Fuk-Woo%Chan%NULL%1,                          Ivan Fan-Ngai%Hung%NULL%1,                          Zhiwei%Chen%NULL%1,                          Honglin%Chen%NULL%0,                          Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                          Qingjie%Yi%NULL%1,                          Shibing%Fan%NULL%1,                          Jinglong%Lv%13608388377@163.com%0,                          Xianxiang%Zhang%NULL%2,                          Xianxiang%Zhang%NULL%0,                          Lian%Guo%NULL%1,                          Chunhui%Lang%NULL%0,                          Qing%Xiao%NULL%1,                          Kaihu%Xiao%NULL%2,                          Zhengjun%Yi%NULL%1,                          Mao%Qiang%NULL%1,                          Jianglin%Xiang%NULL%1,                          Bangshuo%Zhang%NULL%1,                          Yongping%Chen%NULL%1,                          Cailiang%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                          Wenbo%He%NULL%0,                          Xiaomei%Yu%NULL%0,                          Dalong%Hu%NULL%0,                          Mingwei%Bao%NULL%0,                          Huafen%Liu%NULL%0,                          Jiali%Zhou%NULL%0,                          Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%0,                          Jing-Hui%Dong%NULL%1,                          Wei-Min%An%NULL%1,                          Xiao-Yan%Lv%15001008285@139.com%1,                          Xiao-Ping%Yin%yinxiaoping78@sina.com%1,                          Jian-Zeng%Zhang%NULL%1,                          Li%Dong%NULL%1,                          Xi%Ma%NULL%1,                          Hong-Jie%Zhang%NULL%1,                          Bu-Lang%Gao%browngao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Fanfan%Zeng%NULL%1,                          Chan%Dai%NULL%2,                          Chan%Dai%NULL%0,                          Pengcheng%Cai%NULL%1,                          Jinbiao%Wang%NULL%1,                          Lei%Xu%NULL%1,                          Jianyu%Li%NULL%1,                          Guoyun%Hu%NULL%1,                          Zheng%Wang%zhengwang@hust.edu.cn%1,                          Fang%Zheng%zhengfangtj@hust.edu.cn%1,                          Lin%Wang%lin_wang@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,                          Jie%Zhang%945128911@qq.com%2,                          Bowen%Wang%NULL%2,                          Xionglin%Zhu%NULL%2,                          Qiang%Wang%NULL%0,                          Shiming%Qiu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,                          Jie%Zhang%945128911@qq.com%0,                          Bowen%Wang%NULL%0,                          Xionglin%Zhu%NULL%0,                          Qiang%Wang%NULL%0,                          Shiming%Qiu%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1907,6 +2162,9 @@
       <c r="I1" t="s">
         <v>155</v>
       </c>
+      <c r="J1" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1922,7 +2180,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>436</v>
+        <v>295</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1931,10 +2189,13 @@
         <v>226</v>
       </c>
       <c r="H2" t="s">
-        <v>227</v>
+        <v>455</v>
       </c>
       <c r="I2" t="s">
-        <v>416</v>
+        <v>156</v>
+      </c>
+      <c r="J2" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="3">
@@ -1951,7 +2212,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>437</v>
+        <v>522</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1964,6 +2225,9 @@
       </c>
       <c r="I3" t="s">
         <v>418</v>
+      </c>
+      <c r="J3" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="4">
@@ -1980,7 +2244,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>438</v>
+        <v>523</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1993,6 +2257,9 @@
       </c>
       <c r="I4" t="s">
         <v>420</v>
+      </c>
+      <c r="J4" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="5">
@@ -2009,7 +2276,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>439</v>
+        <v>524</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -2022,6 +2289,9 @@
       </c>
       <c r="I5" t="s">
         <v>418</v>
+      </c>
+      <c r="J5" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="6">
@@ -2038,7 +2308,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>440</v>
+        <v>525</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -2051,6 +2321,9 @@
       </c>
       <c r="I6" t="s">
         <v>420</v>
+      </c>
+      <c r="J6" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="7">
@@ -2067,7 +2340,7 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>441</v>
+        <v>526</v>
       </c>
       <c r="F7" t="s">
         <v>58</v>
@@ -2080,6 +2353,9 @@
       </c>
       <c r="I7" t="s">
         <v>420</v>
+      </c>
+      <c r="J7" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="8">
@@ -2096,7 +2372,7 @@
         <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>442</v>
+        <v>527</v>
       </c>
       <c r="F8" t="s">
         <v>63</v>
@@ -2109,6 +2385,9 @@
       </c>
       <c r="I8" t="s">
         <v>418</v>
+      </c>
+      <c r="J8" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="9">
@@ -2125,7 +2404,7 @@
         <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>443</v>
+        <v>528</v>
       </c>
       <c r="F9" t="s">
         <v>68</v>
@@ -2138,6 +2417,9 @@
       </c>
       <c r="I9" t="s">
         <v>418</v>
+      </c>
+      <c r="J9" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="10">
@@ -2154,7 +2436,7 @@
         <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>444</v>
+        <v>529</v>
       </c>
       <c r="F10" t="s">
         <v>72</v>
@@ -2167,6 +2449,9 @@
       </c>
       <c r="I10" t="s">
         <v>418</v>
+      </c>
+      <c r="J10" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="11">
@@ -2183,7 +2468,7 @@
         <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>445</v>
+        <v>530</v>
       </c>
       <c r="F11" t="s">
         <v>76</v>
@@ -2196,6 +2481,9 @@
       </c>
       <c r="I11" t="s">
         <v>420</v>
+      </c>
+      <c r="J11" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="12">
@@ -2212,7 +2500,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>446</v>
+        <v>531</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -2225,6 +2513,9 @@
       </c>
       <c r="I12" t="s">
         <v>420</v>
+      </c>
+      <c r="J12" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="13">
@@ -2241,7 +2532,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>447</v>
+        <v>532</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -2254,6 +2545,9 @@
       </c>
       <c r="I13" t="s">
         <v>418</v>
+      </c>
+      <c r="J13" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="14">
@@ -2270,7 +2564,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>448</v>
+        <v>533</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -2283,6 +2577,9 @@
       </c>
       <c r="I14" t="s">
         <v>420</v>
+      </c>
+      <c r="J14" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="15">
@@ -2299,7 +2596,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>449</v>
+        <v>534</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -2312,6 +2609,9 @@
       </c>
       <c r="I15" t="s">
         <v>420</v>
+      </c>
+      <c r="J15" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="16">
@@ -2328,7 +2628,7 @@
         <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>450</v>
+        <v>535</v>
       </c>
       <c r="F16" t="s">
         <v>99</v>
@@ -2341,6 +2641,9 @@
       </c>
       <c r="I16" t="s">
         <v>418</v>
+      </c>
+      <c r="J16" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="17">
@@ -2357,7 +2660,7 @@
         <v>310</v>
       </c>
       <c r="E17" t="s">
-        <v>451</v>
+        <v>536</v>
       </c>
       <c r="F17" t="s">
         <v>104</v>
@@ -2370,6 +2673,9 @@
       </c>
       <c r="I17" t="s">
         <v>434</v>
+      </c>
+      <c r="J17" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="18">
@@ -2386,7 +2692,7 @@
         <v>310</v>
       </c>
       <c r="E18" t="s">
-        <v>452</v>
+        <v>537</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -2399,6 +2705,9 @@
       </c>
       <c r="I18" t="s">
         <v>434</v>
+      </c>
+      <c r="J18" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/78.xlsx
+++ b/Covid_19_Dataset_and_References/References/78.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3462" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3750" uniqueCount="570">
   <si>
     <t>Doi</t>
   </si>
@@ -1838,6 +1838,102 @@
   </si>
   <si>
     <t>[Gemin%Zhang%NULL%0,                          Jie%Zhang%945128911@qq.com%0,                          Bowen%Wang%NULL%0,                          Xionglin%Zhu%NULL%0,                          Qiang%Wang%NULL%0,                          Shiming%Qiu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                           Di%Wu%NULL%0,                           Huilong%Chen%NULL%0,                           Weiming%Yan%NULL%0,                           Danlei%Yang%NULL%0,                           Guang%Chen%NULL%0,                           Ke%Ma%NULL%0,                           Dong%Xu%NULL%0,                           Haijing%Yu%NULL%0,                           Hongwu%Wang%NULL%0,                           Tao%Wang%NULL%0,                           Wei%Guo%NULL%0,                           Jia%Chen%NULL%0,                           Chen%Ding%NULL%0,                           Xiaoping%Zhang%NULL%0,                           Jiaquan%Huang%NULL%0,                           Meifang%Han%NULL%0,                           Shusheng%Li%NULL%0,                           Xiaoping%Luo%NULL%0,                           Jianping%Zhao%NULL%0,                           Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                           Wenhua%Liang%NULL%0,                           Mei%Jiang%NULL%0,                           Weijie%Guan%NULL%0,                           Chen%Zhan%NULL%2,                           Tao%Wang%NULL%0,                           Chunli%Tang%NULL%2,                           Ling%Sang%NULL%0,                           Jiaxing%Liu%NULL%2,                           Zhengyi%Ni%NULL%0,                           Yu%Hu%NULL%0,                           Lei%Liu%NULL%0,                           Hong%Shan%NULL%0,                           Chunliang%Lei%NULL%0,                           Yixiang%Peng%NULL%0,                           Li%Wei%NULL%0,                           Yong%Liu%NULL%0,                           Yahua%Hu%NULL%0,                           Peng%Peng%NULL%0,                           Jianming%Wang%NULL%0,                           Jiyang%Liu%NULL%0,                           Zhong%Chen%NULL%0,                           Gang%Li%NULL%0,                           Zhijian%Zheng%NULL%0,                           Shaoqin%Qiu%NULL%0,                           Jie%Luo%NULL%0,                           Changjiang%Ye%NULL%0,                           Shaoyong%Zhu%NULL%0,                           Xiaoqing%Liu%NULL%0,                           Linling%Cheng%NULL%2,                           Feng%Ye%NULL%0,                           Jinping%Zheng%NULL%0,                           Nuofu%Zhang%NULL%0,                           Yimin%Li%NULL%0,                           Jianxing%He%NULL%0,                           Shiyue%Li%lishiyue@188.com%0,                           Nanshan%Zhong%NULL%0,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[H.%Hou%NULL%1,                           B.%Zhang%NULL%1,                           H.%Huang%NULL%1,                           Y.%Luo%NULL%1,                           S.%Wu%NULL%1,                           G.%Tang%NULL%1,                           W.%Liu%NULL%1,                           L.%Mao%NULL%2,                           L.%Mao%NULL%0,                           F.%Wang%fengwang@tjh.tjmu.edu.cn%1,                           Z.%Sun%zysun@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang%Liu%NULL%1,                           Lin%Li%NULL%0,                           MengDa%Xu%NULL%1,                           Juan%Wu%NULL%1,                           Ding%Luo%NULL%1,                           YuSi%Zhu%NULL%1,                           BiXi%Li%NULL%1,                           XiaoYang%Song%NULL%1,                           Xiang%Zhou%zhouxiang188483@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Kai-Cai%Liu%NULL%1,                           Ping%Xu%xuping1027@163.com%1,                           Wei-Fu%Lv%weifulv@ustc.edu.cn%1,                           Xiao-Hui%Qiu%NULL%1,                           Jin-Long%Yao%NULL%1,                           Jin-Feng%Gu%NULL%1,                           Wei%Wei%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Fengjun%Liu%NULL%1,                           Qi%Zhang%NULL%1,                           Chao%Huang%NULL%1,                           Chunzi%Shi%NULL%1,                           Lin%Wang%NULL%0,                           Nannan%Shi%NULL%1,                           Cong%Fang%NULL%1,                           Fei%Shan%NULL%1,                           Xue%Mei%NULL%1,                           Jing%Shi%NULL%1,                           Fengxiang%Song%NULL%1,                           Zhongcheng%Yang%NULL%1,                           Zezhen%Ding%NULL%1,                           Xiaoming%Su%NULL%1,                           Hongzhou%Lu%NULL%0,                           Tongyu%Zhu%NULL%0,                           Zhiyong%Zhang%NULL%1,                           Lei%Shi%NULL%1,                           Yuxin%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Pan%NULL%1,                           Mi%Mu%NULL%0,                           Pengcheng%Yang%NULL%0,                           Yu%Sun%NULL%1,                           Runsheng%Wang%NULL%0,                           Junhong%Yan%NULL%1,                           Pibao%Li%NULL%1,                           Baoguang%Hu%NULL%1,                           Jing%Wang%NULL%0,                           Chao%Hu%NULL%0,                           Yuan%Jin%NULL%1,                           Xun%Niu%NULL%1,                           Rongyu%Ping%NULL%0,                           Yingzhen%Du%NULL%1,                           Tianzhi%Li%NULL%0,                           Guogang%Xu%NULL%0,                           Qinyong%Hu%NULL%0,                           Lei%Tu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                           Ruoqi%Ning%NULL%0,                           Yu%Tao%NULL%0,                           Chong%Yu%NULL%0,                           Xiaoyan%Deng%NULL%0,                           Caili%Zhao%NULL%0,                           Silu%Meng%NULL%0,                           Fangxu%Tang%89650793@qq.com%0,                           Dong%Xu%89650793@qq.com%0,                           Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%0,                           Nan%Hu%NULL%1,                           Jing%Lou%NULL%1,                           Kun%Chen%NULL%1,                           Xuqin%Kang%NULL%1,                           Zhenjun%Xiang%NULL%1,                           Hui%Chen%NULL%0,                           Dali%Wang%NULL%1,                           Ning%Liu%NULL%1,                           Dong%Liu%NULL%1,                           Gang%Chen%NULL%1,                           Yongliang%Zhang%NULL%1,                           Dou%Li%NULL%1,                           Jianren%Li%NULL%1,                           Huixin%Lian%NULL%1,                           Shengmei%Niu%NULL%1,                           Luxi%Zhang%NULL%1,                           Jinjun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%0,                           Owen Tak-Yin%Tsang%NULL%1,                           Wai-Shing%Leung%NULL%1,                           Anthony Raymond%Tam%NULL%1,                           Tak-Chiu%Wu%NULL%1,                           David Christopher%Lung%NULL%1,                           Cyril Chik-Yan%Yip%NULL%0,                           Jian-Piao%Cai%NULL%0,                           Jacky Man-Chun%Chan%NULL%1,                           Thomas Shiu-Hong%Chik%NULL%1,                           Daphne Pui-Ling%Lau%NULL%1,                           Chris Yau-Chung%Choi%NULL%1,                           Lin-Lei%Chen%NULL%1,                           Wan-Mui%Chan%NULL%0,                           Kwok-Hung%Chan%NULL%0,                           Jonathan Daniel%Ip%NULL%0,                           Anthony Chin-Ki%Ng%NULL%1,                           Rosana Wing-Shan%Poon%NULL%0,                           Cui-Ting%Luo%NULL%1,                           Vincent Chi-Chung%Cheng%NULL%0,                           Jasper Fuk-Woo%Chan%NULL%1,                           Ivan Fan-Ngai%Hung%NULL%1,                           Zhiwei%Chen%NULL%1,                           Honglin%Chen%NULL%0,                           Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                           Qingjie%Yi%NULL%1,                           Shibing%Fan%NULL%1,                           Jinglong%Lv%13608388377@163.com%0,                           Xianxiang%Zhang%NULL%2,                           Xianxiang%Zhang%NULL%0,                           Lian%Guo%NULL%1,                           Chunhui%Lang%NULL%0,                           Qing%Xiao%NULL%1,                           Kaihu%Xiao%NULL%2,                           Zhengjun%Yi%NULL%1,                           Mao%Qiang%NULL%1,                           Jianglin%Xiang%NULL%1,                           Bangshuo%Zhang%NULL%1,                           Yongping%Chen%NULL%1,                           Cailiang%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                           Wenbo%He%NULL%0,                           Xiaomei%Yu%NULL%0,                           Dalong%Hu%NULL%0,                           Mingwei%Bao%NULL%0,                           Huafen%Liu%NULL%0,                           Jiali%Zhou%NULL%0,                           Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%0,                           Jing-Hui%Dong%NULL%1,                           Wei-Min%An%NULL%1,                           Xiao-Yan%Lv%15001008285@139.com%1,                           Xiao-Ping%Yin%yinxiaoping78@sina.com%1,                           Jian-Zeng%Zhang%NULL%1,                           Li%Dong%NULL%1,                           Xi%Ma%NULL%1,                           Hong-Jie%Zhang%NULL%1,                           Bu-Lang%Gao%browngao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Fanfan%Zeng%NULL%1,                           Chan%Dai%NULL%2,                           Chan%Dai%NULL%0,                           Pengcheng%Cai%NULL%1,                           Jinbiao%Wang%NULL%1,                           Lei%Xu%NULL%1,                           Jianyu%Li%NULL%1,                           Guoyun%Hu%NULL%1,                           Zheng%Wang%zhengwang@hust.edu.cn%1,                           Fang%Zheng%zhengfangtj@hust.edu.cn%1,                           Lin%Wang%lin_wang@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,                           Jie%Zhang%945128911@qq.com%2,                           Bowen%Wang%NULL%2,                           Xionglin%Zhu%NULL%2,                           Qiang%Wang%NULL%0,                           Shiming%Qiu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,                           Jie%Zhang%945128911@qq.com%0,                           Bowen%Wang%NULL%0,                           Xionglin%Zhu%NULL%0,                           Qiang%Wang%NULL%0,                           Shiming%Qiu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                            Di%Wu%NULL%0,                            Huilong%Chen%NULL%0,                            Weiming%Yan%NULL%0,                            Danlei%Yang%NULL%0,                            Guang%Chen%NULL%0,                            Ke%Ma%NULL%0,                            Dong%Xu%NULL%0,                            Haijing%Yu%NULL%0,                            Hongwu%Wang%NULL%0,                            Tao%Wang%NULL%0,                            Wei%Guo%NULL%0,                            Jia%Chen%NULL%0,                            Chen%Ding%NULL%0,                            Xiaoping%Zhang%NULL%0,                            Jiaquan%Huang%NULL%0,                            Meifang%Han%NULL%0,                            Shusheng%Li%NULL%0,                            Xiaoping%Luo%NULL%0,                            Jianping%Zhao%NULL%0,                            Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                            Wenhua%Liang%NULL%0,                            Mei%Jiang%NULL%0,                            Weijie%Guan%NULL%0,                            Chen%Zhan%NULL%2,                            Tao%Wang%NULL%0,                            Chunli%Tang%NULL%2,                            Ling%Sang%NULL%0,                            Jiaxing%Liu%NULL%2,                            Zhengyi%Ni%NULL%0,                            Yu%Hu%NULL%0,                            Lei%Liu%NULL%0,                            Hong%Shan%NULL%0,                            Chunliang%Lei%NULL%0,                            Yixiang%Peng%NULL%0,                            Li%Wei%NULL%0,                            Yong%Liu%NULL%0,                            Yahua%Hu%NULL%0,                            Peng%Peng%NULL%0,                            Jianming%Wang%NULL%0,                            Jiyang%Liu%NULL%0,                            Zhong%Chen%NULL%0,                            Gang%Li%NULL%0,                            Zhijian%Zheng%NULL%0,                            Shaoqin%Qiu%NULL%0,                            Jie%Luo%NULL%0,                            Changjiang%Ye%NULL%0,                            Shaoyong%Zhu%NULL%0,                            Xiaoqing%Liu%NULL%0,                            Linling%Cheng%NULL%2,                            Feng%Ye%NULL%0,                            Jinping%Zheng%NULL%0,                            Nuofu%Zhang%NULL%0,                            Yimin%Li%NULL%0,                            Jianxing%He%NULL%0,                            Shiyue%Li%lishiyue@188.com%0,                            Nanshan%Zhong%NULL%0,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[H.%Hou%NULL%1,                            B.%Zhang%NULL%1,                            H.%Huang%NULL%1,                            Y.%Luo%NULL%1,                            S.%Wu%NULL%1,                            G.%Tang%NULL%1,                            W.%Liu%NULL%1,                            L.%Mao%NULL%2,                            L.%Mao%NULL%0,                            F.%Wang%fengwang@tjh.tjmu.edu.cn%1,                            Z.%Sun%zysun@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang%Liu%NULL%1,                            Lin%Li%NULL%0,                            MengDa%Xu%NULL%1,                            Juan%Wu%NULL%1,                            Ding%Luo%NULL%1,                            YuSi%Zhu%NULL%1,                            BiXi%Li%NULL%1,                            XiaoYang%Song%NULL%1,                            Xiang%Zhou%zhouxiang188483@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Kai-Cai%Liu%NULL%1,                            Ping%Xu%xuping1027@163.com%1,                            Wei-Fu%Lv%weifulv@ustc.edu.cn%1,                            Xiao-Hui%Qiu%NULL%1,                            Jin-Long%Yao%NULL%1,                            Jin-Feng%Gu%NULL%1,                            Wei%Wei%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Fengjun%Liu%NULL%1,                            Qi%Zhang%NULL%1,                            Chao%Huang%NULL%1,                            Chunzi%Shi%NULL%1,                            Lin%Wang%NULL%0,                            Nannan%Shi%NULL%1,                            Cong%Fang%NULL%1,                            Fei%Shan%NULL%1,                            Xue%Mei%NULL%1,                            Jing%Shi%NULL%1,                            Fengxiang%Song%NULL%1,                            Zhongcheng%Yang%NULL%1,                            Zezhen%Ding%NULL%1,                            Xiaoming%Su%NULL%1,                            Hongzhou%Lu%NULL%0,                            Tongyu%Zhu%NULL%0,                            Zhiyong%Zhang%NULL%1,                            Lei%Shi%NULL%1,                            Yuxin%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Pan%NULL%1,                            Mi%Mu%NULL%0,                            Pengcheng%Yang%NULL%0,                            Yu%Sun%NULL%1,                            Runsheng%Wang%NULL%0,                            Junhong%Yan%NULL%1,                            Pibao%Li%NULL%1,                            Baoguang%Hu%NULL%1,                            Jing%Wang%NULL%0,                            Chao%Hu%NULL%0,                            Yuan%Jin%NULL%1,                            Xun%Niu%NULL%1,                            Rongyu%Ping%NULL%0,                            Yingzhen%Du%NULL%1,                            Tianzhi%Li%NULL%0,                            Guogang%Xu%NULL%0,                            Qinyong%Hu%NULL%0,                            Lei%Tu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                            Ruoqi%Ning%NULL%0,                            Yu%Tao%NULL%0,                            Chong%Yu%NULL%0,                            Xiaoyan%Deng%NULL%0,                            Caili%Zhao%NULL%0,                            Silu%Meng%NULL%0,                            Fangxu%Tang%89650793@qq.com%0,                            Dong%Xu%89650793@qq.com%0,                            Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%0,                            Nan%Hu%NULL%1,                            Jing%Lou%NULL%1,                            Kun%Chen%NULL%1,                            Xuqin%Kang%NULL%1,                            Zhenjun%Xiang%NULL%1,                            Hui%Chen%NULL%0,                            Dali%Wang%NULL%1,                            Ning%Liu%NULL%1,                            Dong%Liu%NULL%1,                            Gang%Chen%NULL%1,                            Yongliang%Zhang%NULL%1,                            Dou%Li%NULL%1,                            Jianren%Li%NULL%1,                            Huixin%Lian%NULL%1,                            Shengmei%Niu%NULL%1,                            Luxi%Zhang%NULL%1,                            Jinjun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%0,                            Owen Tak-Yin%Tsang%NULL%1,                            Wai-Shing%Leung%NULL%1,                            Anthony Raymond%Tam%NULL%1,                            Tak-Chiu%Wu%NULL%1,                            David Christopher%Lung%NULL%1,                            Cyril Chik-Yan%Yip%NULL%0,                            Jian-Piao%Cai%NULL%0,                            Jacky Man-Chun%Chan%NULL%1,                            Thomas Shiu-Hong%Chik%NULL%1,                            Daphne Pui-Ling%Lau%NULL%1,                            Chris Yau-Chung%Choi%NULL%1,                            Lin-Lei%Chen%NULL%1,                            Wan-Mui%Chan%NULL%0,                            Kwok-Hung%Chan%NULL%0,                            Jonathan Daniel%Ip%NULL%0,                            Anthony Chin-Ki%Ng%NULL%1,                            Rosana Wing-Shan%Poon%NULL%0,                            Cui-Ting%Luo%NULL%1,                            Vincent Chi-Chung%Cheng%NULL%0,                            Jasper Fuk-Woo%Chan%NULL%1,                            Ivan Fan-Ngai%Hung%NULL%1,                            Zhiwei%Chen%NULL%1,                            Honglin%Chen%NULL%0,                            Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                            Qingjie%Yi%NULL%1,                            Shibing%Fan%NULL%1,                            Jinglong%Lv%13608388377@163.com%0,                            Xianxiang%Zhang%NULL%2,                            Xianxiang%Zhang%NULL%0,                            Lian%Guo%NULL%1,                            Chunhui%Lang%NULL%0,                            Qing%Xiao%NULL%1,                            Kaihu%Xiao%NULL%2,                            Zhengjun%Yi%NULL%1,                            Mao%Qiang%NULL%1,                            Jianglin%Xiang%NULL%1,                            Bangshuo%Zhang%NULL%1,                            Yongping%Chen%NULL%1,                            Cailiang%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                            Wenbo%He%NULL%0,                            Xiaomei%Yu%NULL%0,                            Dalong%Hu%NULL%0,                            Mingwei%Bao%NULL%0,                            Huafen%Liu%NULL%0,                            Jiali%Zhou%NULL%0,                            Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%0,                            Jing-Hui%Dong%NULL%1,                            Wei-Min%An%NULL%1,                            Xiao-Yan%Lv%15001008285@139.com%1,                            Xiao-Ping%Yin%yinxiaoping78@sina.com%1,                            Jian-Zeng%Zhang%NULL%1,                            Li%Dong%NULL%1,                            Xi%Ma%NULL%1,                            Hong-Jie%Zhang%NULL%1,                            Bu-Lang%Gao%browngao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Fanfan%Zeng%NULL%1,                            Chan%Dai%NULL%2,                            Chan%Dai%NULL%0,                            Pengcheng%Cai%NULL%1,                            Jinbiao%Wang%NULL%1,                            Lei%Xu%NULL%1,                            Jianyu%Li%NULL%1,                            Guoyun%Hu%NULL%1,                            Zheng%Wang%zhengwang@hust.edu.cn%1,                            Fang%Zheng%zhengfangtj@hust.edu.cn%1,                            Lin%Wang%lin_wang@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,                            Jie%Zhang%945128911@qq.com%2,                            Bowen%Wang%NULL%2,                            Xionglin%Zhu%NULL%2,                            Qiang%Wang%NULL%0,                            Shiming%Qiu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,                            Jie%Zhang%945128911@qq.com%0,                            Bowen%Wang%NULL%0,                            Xionglin%Zhu%NULL%0,                            Qiang%Wang%NULL%0,                            Shiming%Qiu%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2180,7 +2276,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -2212,7 +2308,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>522</v>
+        <v>554</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -2244,7 +2340,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>523</v>
+        <v>555</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -2276,7 +2372,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>524</v>
+        <v>556</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -2308,7 +2404,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>525</v>
+        <v>557</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -2340,7 +2436,7 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>526</v>
+        <v>558</v>
       </c>
       <c r="F7" t="s">
         <v>58</v>
@@ -2372,7 +2468,7 @@
         <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>527</v>
+        <v>559</v>
       </c>
       <c r="F8" t="s">
         <v>63</v>
@@ -2404,7 +2500,7 @@
         <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>528</v>
+        <v>560</v>
       </c>
       <c r="F9" t="s">
         <v>68</v>
@@ -2436,7 +2532,7 @@
         <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>529</v>
+        <v>561</v>
       </c>
       <c r="F10" t="s">
         <v>72</v>
@@ -2468,7 +2564,7 @@
         <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>530</v>
+        <v>562</v>
       </c>
       <c r="F11" t="s">
         <v>76</v>
@@ -2500,7 +2596,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>531</v>
+        <v>563</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -2532,7 +2628,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>532</v>
+        <v>564</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -2564,7 +2660,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>533</v>
+        <v>565</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -2596,7 +2692,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>534</v>
+        <v>566</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -2628,7 +2724,7 @@
         <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>535</v>
+        <v>567</v>
       </c>
       <c r="F16" t="s">
         <v>99</v>
@@ -2660,7 +2756,7 @@
         <v>310</v>
       </c>
       <c r="E17" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="F17" t="s">
         <v>104</v>
@@ -2692,7 +2788,7 @@
         <v>310</v>
       </c>
       <c r="E18" t="s">
-        <v>537</v>
+        <v>569</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
